--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3905,7 +3905,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3915,7 +3915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3959,6 +3959,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3989,6 +3994,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4019,6 +4029,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4049,6 +4064,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4079,6 +4099,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4109,6 +4134,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4139,6 +4169,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4169,6 +4204,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4199,6 +4239,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4229,6 +4274,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4259,6 +4309,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4289,6 +4344,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4319,6 +4379,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4349,6 +4414,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4379,6 +4449,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4409,6 +4484,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4439,6 +4519,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4469,6 +4554,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4499,6 +4589,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4529,6 +4624,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4559,6 +4659,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4589,6 +4694,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4619,6 +4729,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4649,6 +4764,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4679,6 +4799,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4709,6 +4834,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4739,6 +4869,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -4769,6 +4904,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -4799,6 +4939,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -4829,6 +4974,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -4859,6 +5009,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4889,6 +5044,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4919,6 +5079,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4949,6 +5114,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4979,6 +5149,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -5009,6 +5184,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -5039,6 +5219,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -5069,6 +5254,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -5099,6 +5289,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -5129,6 +5324,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5159,6 +5359,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5189,6 +5394,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5219,6 +5429,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5249,6 +5464,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5279,6 +5499,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5309,6 +5534,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -5339,6 +5569,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5369,6 +5604,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -5399,6 +5639,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -5429,6 +5674,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -5459,6 +5709,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -5489,6 +5744,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -5519,6 +5779,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -5549,6 +5814,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -5579,6 +5849,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -5609,6 +5884,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -5639,6 +5919,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -5669,6 +5954,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -5699,9 +5989,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7156,7 +7451,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8152,7 +8447,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -11740,7 +12035,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13357,7 +13652,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13367,7 +13662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13411,6 +13706,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -13441,6 +13741,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -13471,6 +13776,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -13501,6 +13811,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -13531,6 +13846,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -13561,6 +13881,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -13591,6 +13916,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13621,6 +13951,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -13651,6 +13986,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -13681,6 +14021,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -13711,6 +14056,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -13741,6 +14091,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -13771,6 +14126,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -13801,6 +14161,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -13831,6 +14196,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -13861,6 +14231,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -13891,6 +14266,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -13921,6 +14301,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -13951,6 +14336,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -13981,6 +14371,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -14011,6 +14406,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14041,6 +14441,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -14071,6 +14476,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -14101,6 +14511,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -14131,6 +14546,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -14161,6 +14581,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -14191,6 +14616,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -14221,6 +14651,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14251,6 +14686,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -14281,6 +14721,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -14311,6 +14756,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -14341,6 +14791,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -14371,6 +14826,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -14401,6 +14861,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -14431,6 +14896,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -14461,6 +14931,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -14491,6 +14966,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -14521,6 +15001,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -14551,6 +15036,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -14581,6 +15071,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -14611,6 +15106,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -14641,6 +15141,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -14671,6 +15176,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -14701,6 +15211,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -14731,6 +15246,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -14761,6 +15281,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -14791,6 +15316,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -14821,6 +15351,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -14851,6 +15386,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -14881,6 +15421,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -14911,6 +15456,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -14941,6 +15491,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -14971,6 +15526,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -15001,6 +15561,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -15031,6 +15596,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -15061,6 +15631,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -15091,6 +15666,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -15121,6 +15701,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -15151,6 +15736,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -15181,6 +15771,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -15211,6 +15806,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -15241,6 +15841,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -15271,6 +15876,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -15301,6 +15911,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -15331,6 +15946,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -15361,6 +15981,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -15391,6 +16016,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -15421,6 +16051,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -15451,6 +16086,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -15481,6 +16121,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -15511,6 +16156,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -15541,6 +16191,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -15571,6 +16226,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -15601,6 +16261,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -15631,6 +16296,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -15661,6 +16331,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -15691,6 +16366,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -15721,6 +16401,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -15751,6 +16436,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -15781,6 +16471,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -15811,6 +16506,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -15841,6 +16541,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -15871,6 +16576,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -15901,6 +16611,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -15931,6 +16646,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -15961,6 +16681,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -15991,6 +16716,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -16021,6 +16751,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -16051,6 +16786,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16081,6 +16821,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -16111,6 +16856,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -16141,6 +16891,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -16171,6 +16926,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16201,6 +16961,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16231,6 +16996,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16261,6 +17031,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16291,6 +17066,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16321,6 +17101,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16351,6 +17136,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -16381,6 +17171,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -16411,6 +17206,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -16441,6 +17241,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -16471,6 +17276,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -16501,6 +17311,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -16531,6 +17346,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -16561,6 +17381,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -16591,6 +17416,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -16621,6 +17451,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -16651,6 +17486,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -16681,6 +17521,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -16711,6 +17556,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -16741,6 +17591,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -16771,6 +17626,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -16801,6 +17661,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -16831,6 +17696,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -16861,6 +17731,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -16891,6 +17766,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -16921,6 +17801,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -16951,6 +17836,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -16981,6 +17871,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -17011,6 +17906,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -17041,6 +17941,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -17071,6 +17976,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -17101,6 +18011,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -17131,6 +18046,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -17161,6 +18081,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -17191,6 +18116,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -17221,9 +18151,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -17233,7 +18168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17277,6 +18212,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -17307,6 +18247,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -17337,6 +18282,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -17367,6 +18317,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -17397,6 +18352,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -17427,6 +18387,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -17457,6 +18422,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -17487,6 +18457,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -17517,6 +18492,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -17547,6 +18527,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -17577,6 +18562,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -17607,6 +18597,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -17637,6 +18632,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -17667,6 +18667,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -17697,6 +18702,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -17727,6 +18737,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -17757,6 +18772,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -17787,6 +18807,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -17817,6 +18842,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -17847,6 +18877,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -17877,6 +18912,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -17907,6 +18947,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -17937,6 +18982,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -17967,6 +19017,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -17997,6 +19052,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -18027,6 +19087,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -18057,6 +19122,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -18087,6 +19157,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -18117,6 +19192,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -18147,6 +19227,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -18177,6 +19262,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -18207,6 +19297,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -18237,6 +19332,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -18267,6 +19367,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -18297,6 +19402,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -18327,6 +19437,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -18357,6 +19472,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -18387,6 +19507,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -18417,6 +19542,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -18447,6 +19577,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -18477,6 +19612,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -18507,6 +19647,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -18537,6 +19682,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -18567,6 +19717,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -18597,6 +19752,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -18627,6 +19787,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -18657,6 +19822,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -18687,6 +19857,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -18717,6 +19892,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -18747,6 +19927,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -18777,6 +19962,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -18807,6 +19997,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -18837,9 +20032,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -18849,7 +20049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18893,6 +20093,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -18923,6 +20128,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -18953,6 +20163,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -18983,6 +20198,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -19013,6 +20233,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -19043,6 +20268,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -19073,6 +20303,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -19103,6 +20338,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -19133,6 +20373,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -19163,6 +20408,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -19193,6 +20443,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -19223,6 +20478,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -19253,6 +20513,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -19283,6 +20548,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -19313,6 +20583,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -19343,6 +20618,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -19373,6 +20653,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -19403,6 +20688,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -19433,6 +20723,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -19463,6 +20758,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -19493,6 +20793,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -19523,6 +20828,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -19553,6 +20863,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -19583,6 +20898,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -19613,6 +20933,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -19643,6 +20968,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -19673,6 +21003,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -19703,6 +21038,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -19733,6 +21073,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -19763,6 +21108,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -19793,6 +21143,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -19823,6 +21178,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -19853,6 +21213,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -19883,6 +21248,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -19913,6 +21283,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -19943,9 +21318,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19955,7 +21335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19999,6 +21379,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -20029,6 +21414,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -20059,6 +21449,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -20089,6 +21484,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -20119,6 +21519,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -20149,6 +21554,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -20179,6 +21589,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -20209,6 +21624,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -20239,6 +21659,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -20269,6 +21694,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -20299,6 +21729,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -20329,6 +21764,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -20359,6 +21799,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -20389,6 +21834,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -20419,6 +21869,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -20449,6 +21904,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -20479,6 +21939,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -20509,6 +21974,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -20539,6 +22009,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -20569,6 +22044,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -20599,6 +22079,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -20629,6 +22114,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -20659,6 +22149,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -20689,6 +22184,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -20719,6 +22219,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -20749,6 +22254,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -20779,6 +22289,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -20809,6 +22324,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -20839,6 +22359,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -20869,6 +22394,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -20899,6 +22429,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -20929,6 +22464,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -20959,6 +22499,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -20989,6 +22534,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -21019,6 +22569,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -21049,6 +22604,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -21079,6 +22639,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -21109,6 +22674,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -21139,6 +22709,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -21169,6 +22744,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -21199,6 +22779,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -21229,6 +22814,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -21259,6 +22849,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -21289,6 +22884,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -21319,6 +22919,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -21349,6 +22954,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -21379,6 +22989,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -21409,6 +23024,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -21439,6 +23059,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -21469,6 +23094,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -21499,6 +23129,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -21529,6 +23164,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -21559,6 +23199,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -21589,6 +23234,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -21619,6 +23269,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -21649,6 +23304,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -21679,6 +23339,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -21709,6 +23374,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -21739,6 +23409,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -21769,6 +23444,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -21799,6 +23479,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -21829,6 +23514,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -21859,6 +23549,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -21889,6 +23584,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -21919,6 +23619,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -21949,6 +23654,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -21979,6 +23689,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -22009,6 +23724,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -22039,6 +23759,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -22069,6 +23794,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -22099,6 +23829,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -22129,6 +23864,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -22159,6 +23899,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -22189,6 +23934,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -22219,6 +23969,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -22249,6 +24004,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -22279,6 +24039,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -22309,6 +24074,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -22339,6 +24109,11 @@
           <t>c__Rhodothermia</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -22369,6 +24144,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -22399,6 +24179,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -22429,6 +24214,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -22459,6 +24249,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -22489,6 +24284,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -22519,6 +24319,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -22549,6 +24354,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -22579,6 +24389,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -22609,6 +24424,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -22639,6 +24459,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -22669,6 +24494,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -22699,6 +24529,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -22729,6 +24564,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -22759,6 +24599,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -22789,6 +24634,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -22819,6 +24669,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -22849,6 +24704,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -22879,6 +24739,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -22909,6 +24774,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -22939,6 +24809,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -22969,6 +24844,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -22999,6 +24879,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -23029,6 +24914,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -23059,6 +24949,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -23089,6 +24984,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -23119,6 +25019,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -23149,6 +25054,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -23179,6 +25089,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -23209,6 +25124,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -23239,6 +25159,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -23269,6 +25194,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -23299,6 +25229,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -23329,6 +25264,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -23359,6 +25299,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -23389,6 +25334,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -23419,6 +25369,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -23449,6 +25404,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -23479,6 +25439,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -23509,6 +25474,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -23539,6 +25509,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -23569,6 +25544,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -23599,6 +25579,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -23629,6 +25614,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -23659,6 +25649,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -23689,6 +25684,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -23719,6 +25719,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -23749,6 +25754,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -23779,6 +25789,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -23809,6 +25824,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -23839,6 +25859,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -23869,6 +25894,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -23899,6 +25929,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -23929,8 +25964,13 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -17,6 +17,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -30645,6 +30647,5130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1655076340455899</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.9748738665470108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.437129876172877</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.9927213155115</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-6.150225071657514</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.507169202625437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.13846948425094</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5.64169536724645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-6.624380689784881</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-7.087868797565989</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.103529009359449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.630745832295974</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.88499448918994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.565411033048111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-6.816432453757623</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7428935758277325</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.494593717137214</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5.135533011716029</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.167348028763449</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-7.993061365530274</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1971681906584377</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.473601306992564</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.091523610790252</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5405602706643472</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-9.621424524794278</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.08681970174816</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.178559652200894</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-6.809211162682329</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-8.067388300497344</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-12.42749948665636</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3250956595847224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.107881134160166</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.102774781910509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7.327522034422645</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-12.49021868920013</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.249833349748626</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.919380574346027</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.329087250781054</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5.349379660633321</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.010101639863998</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.639335001343351</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.254820137194976</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.538346834156984</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-9.282104834776687</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-9.038415521399235</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5143563100487902</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.15126446826944</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-6.631100801760667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2270751509269662</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-9.842329735831854</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.126706874415594</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.869856683176266</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-6.326317262403877</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-8.504896711106294</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-9.634817791294125</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1619971895507611</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.145388150455767</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.401268993087077</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2.32411419073182</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-10.68376487304243</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.057879423291311</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.191689415207343</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.733140695228887</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-9.790131561936869</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-8.504576818351138</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.04405225109468318</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.345183495246783</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-5.427233681091307</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.7681648128289115</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.382555888004883</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.02456028766181222</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.729055390600093</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5.646909651853663</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6999437593951777</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-11.78190483309087</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.5827198917793034</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.16978289555972</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-6.116798392309767</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.3099238937141215</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-13.36176054951997</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2655126209581551</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.840657207330942</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-6.131988272479803</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-4.374370705220935</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-6.983503698695312</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.312253058470245</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.048643151470478</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-6.230252601997712</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.014124521006615</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-8.220597195830999</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3754443827715565</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.71452605286593</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.485498059974705</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3.421356752331007</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-12.64945444104967</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.124896976347443</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.912072484085417</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.374710875794557</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-12.36749372474073</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-9.95466687523613</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9215441197792325</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.14180704195088</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.274548637030767</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.773507214095956</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-12.05939504119481</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2244463863887896</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.596421412095762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.262762575300809</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.883484403210853</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-9.727803868807204</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.473773684107829</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.95897243922672</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.187097205730246</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13.41435058353429</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.558130096238316</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.926859878886808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.578869178479274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.333188256252257</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-16.10629898717824</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.497980841987661</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.105828914369185</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.929419489685595</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.66296197988142</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-14.227369783314</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-4.749098067784362</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.479722661462316</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.873704296877607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.455782236780167</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12.43237993366549</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.687044521740141</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.670015806637998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.877369702667106</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.302755635678138</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-9.258623544344429</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.528460358347421</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.177370262513763</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.886926814649065</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.706718414708165</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-12.24342955737088</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-7.871468804274671</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.90289870103319</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.016629873072836</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.613193674360525</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-12.52677778310665</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2.211015234377265</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.443060236116636</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.216046421612656</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.673495157210485</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-12.05339489923983</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.376544540694666</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.410342389104341</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.220289760383316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.752288912017419</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-11.74606159120034</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2.7298879460137</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.72100938306028</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-7.230869181894087</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.903238298094426</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-12.65387966551651</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-9.093193831289776</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.640855398189238</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.892345700972967</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.629718003570442</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-14.02304085998495</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-6.903505351551278</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.707624134481305</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.092688203553524</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.502406650888462</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-10.67384330385693</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-4.049200251044935</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.533908969827699</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.799419409980594</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.41513512434359</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-7.223491443025349</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-7.323387626740627</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.914408897563137</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-5.082070314153306</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.786982532646059</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-18.14227649489842</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-6.244934125329597</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.256751471142443</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.854573994555419</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.38177338948219</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-9.787020428313594</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4.252461592823916</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.245041711880809</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.558796061555423</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.132829825549528</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-10.99172839426394</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-5.362195073528194</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.279005287580095</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4.866193699648652</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.071515139713753</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-14.31753650427995</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-5.502900763664031</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.00592732823231</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.057671022882185</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.63077933360754</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-12.24380433349426</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.8339823039087</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.447215920660106</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.47759865762557</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3.315176920951471</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14.80674386445028</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-6.968465171883181</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.300426664044213</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.988119692801873</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.839090574315429</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-13.09860019334693</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.885042107807342</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.14504603357423</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.699623067522599</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.689448183840086</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-13.3398220365856</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3.818974066344031</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.618056459871195</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.605532124211364</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.318772843403072</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-7.180278034897813</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.857564647079376</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.144038224402854</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.922550259740992</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.841454342662461</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-10.82390562229159</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.131617607673712</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.782262207499537</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.252231327177041</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-5.127931833904139</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-11.02140989483592</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.441173159805468</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.893868638811804</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.475636982150466</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-4.895962839543249</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-12.3745525360137</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.699485305735021</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.888373136477558</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.857167749046313</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.749904030054166</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-13.23330769343396</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-4.974091610439579</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.269467482896902</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.069931752697835</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3.556283767795433</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-5.667034172647649</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-7.483582446099542</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.922638342239485</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.811220908298465</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.552420005378268</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-13.23960050094594</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.620417478202489</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.393245678253133</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.019866280008472</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.472071384550104</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-11.87944198982975</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.191358907070193</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.660707077895656</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.922035617478747</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.93530708970981</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-16.56681889553454</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-8.315846237224106</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5.300740642560507</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.244906957812273</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.890561895159766</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-17.58955962009153</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-8.144529649508131</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.786479572063421</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.389222669738476</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-3.405448146144264</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-16.27411391541705</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-4.151241594212848</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.699797840648646</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.483655630082107</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.692559205295708</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-11.54974539802186</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.175207123613319</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.644497910169296</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-4.454131059973856</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-2.808413617643448</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-12.40723170738373</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.082855497093514</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.161533906115062</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.298145474793628</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3.170894668992946</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-12.24485228003656</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-4.688737170271517</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3.596152252525142</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.86974054494336</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.756377510480323</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-11.76375601332752</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-4.090431103497143</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.831734660207902</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.672997607304425</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-4.064960592412915</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-12.13254514253117</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4.207855620179831</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.450979016814586</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.205662734643617</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-4.189601037995717</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-12.66422427406502</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-4.828509364637063</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.264934894539692</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.728031295578074</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.532950591828883</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-11.72091146942139</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-6.313488915557908</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.668963530611755</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-5.622300659758396</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.362439963478551</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-5.599278873474716</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-7.038720898733918</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.697412413462908</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.587935523779228</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2.150197334010854</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-11.29534215311149</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-5.135136998082736</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.546227086979233</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4.651058479907</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.748767069074045</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-13.99160705785651</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-6.948327044640439</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.538897553693947</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4.707498400455212</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-6.171955674988624</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-14.05828889477755</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-7.617880779697647</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3.96806101783899</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3.671309202477562</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.522247010652845</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-11.76893371653825</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-5.009246849194118</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.558776688909519</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.307926241613851</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.836804803396236</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-13.13218549707217</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-4.449010637041377</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.292840841237227</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-4.371124394853275</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-2.765529385696372</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-13.34581644600354</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-4.163237680874611</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.89920956825418</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.168491122622469</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.332919114871379</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-9.989662449474386</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-4.782167252344384</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.6985172141997</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.740359129739884</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.134796968867649</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-13.51990801233387</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-3.722197282317092</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.88988567667441</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-4.070575673519067</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.218448820113182</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-13.28214670791958</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.481169831608293</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4.033559594378276</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-4.601378048774805</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-2.359946362545199</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-12.9019342803445</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-4.762741978707338</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.950071232836628</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.951633131563295</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-4.549856382705865</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-12.46742772649178</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-4.596431816837269</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.599398028569341</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-4.674632467359859</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3.53000837916378</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-8.76388170729421</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.007815260651758</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.563565894277657</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-3.262722802535497</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.60815457781314</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-9.683202062139562</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-3.750783529787823</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.133657190692152</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-5.308854153463894</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-3.262051996309054</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-10.08922530385888</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-3.415388475449242</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.035555196545817</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-3.777325512091166</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-2.603060329129263</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-11.57068612640968</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-2.985544606775934</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.041386120024965</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-3.801829165298366</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.28559828690665</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-7.822681439111771</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-5.073863012920413</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.320673351141548</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-3.826879057046399</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-2.502723571124466</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-13.28751382752121</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.92876058673026</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.420395335922773</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-3.179374771633031</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.889464571370183</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-13.42794533847759</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-7.89374053929492</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.998437454259102</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-5.100761453625021</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.250581290239799</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-8.234050882947365</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-5.336267554207415</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3.838302427517128</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-5.125814504010138</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.235409598330628</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-13.55382670944647</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-4.3951817921433</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4.493224002650519</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-4.097282409605364</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.014789175935776</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-12.25644663740984</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-7.067079813691409</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3.423224087571429</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-3.139477979787328</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-2.369562037845882</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-13.29984894120943</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-6.147232088872122</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.079462623405615</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-3.911626439867163</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.282425452134515</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-10.20787416674473</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.075883614498716</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.883000843886971</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-5.795518857294329</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-4.445313887331369</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11.5668625275332</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.828026693160068</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.710285485410803</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.57401377460778</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.589351613325686</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-13.49534724121258</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.544500912738439</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3.889148216620176</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-4.807640586215686</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3.090665505073393</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-9.752097777932146</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-5.312201024558853</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.583512436406626</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-4.838483568386369</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-2.27802631383258</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-15.564728778613</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-6.400281758255638</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5.002473571471759</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-5.672173252674825</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.496993357979958</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-14.20353694608139</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-5.104675750041951</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.603368236874993</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3.836134271657419</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-3.494821672087114</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-15.02876462705832</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.145065059495911</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3.093293433142011</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-4.925048767140434</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-4.590623096172224</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-9.76689617331259</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.074897309068706</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.118941355697566</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.939793654873562</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-4.080584210036942</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-6.093079194755103</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.001930854679653</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4.461198259006407</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-4.724230908855444</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.038096827598786</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-13.03005328125142</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-5.024650987751739</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4.906089807953773</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-6.676842721006409</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3.547138395858493</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-13.87745104030958</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-4.348318710438956</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4.298174247413182</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-4.693447881485468</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3.339698191622775</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-13.92690809141773</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-6.010086271066514</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4.189166774752499</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-5.766877045479231</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-4.139703045492161</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-12.4753763114568</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-6.103336836748606</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.480414003475069</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-3.798955423072501</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.946382169430021</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-10.9786903537033</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-3.885900194405734</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4.215138990485166</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-4.411666996488141</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-4.316398119137868</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-16.06576823749932</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-3.284142038734414</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3.451682921808918</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-5.826253857063689</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.51694750165735</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-9.704329553123181</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-5.910943719969148</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.608671891627601</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-4.999133403584987</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-3.923370950593855</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-12.99803222597565</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-4.391267298880962</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.650777871236389</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-4.938654091530053</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-3.243238686939893</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-11.21870708411294</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-4.377995173796242</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.943883791708061</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.554148867401888</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-3.745042864410543</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-9.610780954272796</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-2.504438406382369</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.353349220781654</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-4.052643237744458</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-2.974515189970259</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-13.02394374748862</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-3.157023921148</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.56117048292746</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-5.031113889970553</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-4.955908471570426</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-14.49997978174104</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-6.02947910291736</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.536690993435705</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-3.538862021935512</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-4.807729205235288</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-13.35683259180913</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-3.619626053160692</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3.219938312756157</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-4.842199075192752</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-4.791790113405631</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-14.96507572726108</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-4.281165052589976</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3.472802204281491</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.918443874030513</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-5.289653502244884</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-13.17657684274551</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-7.062362303236293</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4.504970453764214</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-4.472819008701584</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.165201721169513</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-10.5765170684712</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-6.350431904540159</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4.326721763215203</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-4.196763792716058</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.187762561498664</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-11.2754653561646</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-6.376409420448607</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3.566755901450271</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-5.363589443994088</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-3.070948870554368</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-13.42656072380025</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-4.441137753936371</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4.033599430108633</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-4.708573913605611</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-2.744118731081718</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-14.1960289598483</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.745854750811625</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3.602317920006605</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-5.947883706566989</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4.99279960264012</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-15.06963505668983</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-5.995217911840228</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.782579652372212</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-4.304934235911934</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-2.835293703201821</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-11.84184739964778</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2.672063336251905</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.830488663019392</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-6.028428398815231</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-4.346438840699469</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.944618386661781</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-4.719785661139898</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3.533431818236189</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-4.864192458004945</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3.829288032827787</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-8.623701325091815</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-4.210560213450965</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.507776785033407</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.034953339821826</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-2.827007597620676</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-12.78411520180643</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-4.56742520855556</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4.320517341260411</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-4.209412942100139</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2.986222977841692</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-14.03710653354454</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.515677938517562</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3.918471486299366</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-4.378403271020751</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-4.382558352971581</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-13.51314999606287</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-5.424875194586069</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4.164547086145889</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-6.678782120271438</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-5.13078390547742</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-15.59737545954374</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-5.20150760062032</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.686421513864103</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-4.290673718988399</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-2.54151119952939</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-11.31024314471939</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.823536732576448</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2.514958799692158</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-4.926544046186167</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-2.821011246604945</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-10.31834561896849</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-2.251089542863977</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4.149629497053628</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-5.361518114086616</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.555599584792934</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-13.52680092925675</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-5.491510821058189</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3.1519749975009</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.601941622823888</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3.038771283228379</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-13.28307229005054</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3.532809635816454</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4.019310013385796</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-5.466372580899511</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-4.317717109286536</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-14.98454747085177</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-7.364483473674209</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5.889818163658372</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-3.758803688380115</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-5.064303559023928</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-20.26522309326051</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-4.836475363195792</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5.07408415195674</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-4.217280838445369</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-2.823090863457187</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-16.2389654876222</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-4.839970740030984</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.28114144724334</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-3.652476504897151</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.356426585809401</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-10.45234875480286</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-3.978152792117513</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4.69571893285222</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-4.68695363289827</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-3.238594589334636</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-16.11668106939034</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-4.962321151919721</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.384140632777456</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-4.986071282558023</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3.291313512784569</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-14.70024345685019</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-6.782433713229116</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.369575396760702</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-3.360089045957466</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-2.955448385069184</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-14.48812254963699</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-5.472843839994249</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2.807807978262968</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-4.225807058625056</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.756064473706788</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-10.46022052259217</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-6.559802236111142</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3.686322328541112</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-4.429206411601176</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.767678291771893</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-13.56942124429422</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-6.610369891607482</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3.594910049327166</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-4.760489184104942</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-2.729364297908548</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-15.13922233189482</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-3.919410811897146</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4.38077475002989</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.746920674919507</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-2.706199676347364</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-9.333992165036685</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.050353650841112</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5.150312648949491</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-4.806159825058016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.35192063662578</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-15.98865451865666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6.374528006135422</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3.490516491375173</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-5.237305746344051</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-3.114811861779462</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-13.09084376953525</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.681850309015974</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.190614223785966</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-5.022559233374437</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.591647373901219</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-9.83539896761237</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.635166801026704</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3.205347838236997</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-5.999104849040771</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-4.596455779988657</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-15.16264966339315</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-2.04953341217567</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3.189888454662831</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-5.431113438009327</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-4.856744126526246</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-12.25445180897188</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-5.686028350261124</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3.880403451195945</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-5.879618129522216</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.197339464456864</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-13.56895143027656</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-9.440002371818697</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.917119117018142</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-5.265692626561506</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-2.157346665132286</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-11.33628206877265</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-3.313847317036131</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.907992592460445</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-3.064897584735678</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-3.418462803858693</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-10.17197864459699</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-3.953714900196155</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2.555635352619242</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-3.798060314598198</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-3.662201148528116</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-3.833526788116183</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-7.548520234495054</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2.390432832540969</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-3.31934065609929</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.189462277844212</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-3.578687712591967</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-4.349594520830626</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5.46625606198292</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-3.327780919708998</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4.326649383243409</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-16.52973025313795</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-7.870690530526809</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3.953630890805589</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-7.236376325269351</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-5.930282566549981</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-11.64541194735674</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-10.03568786788569</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2.779890153683601</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-4.633644397515113</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-2.686180067593558</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-7.124703212541148</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-4.594358723358677</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3.599959720897794</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-6.980462303700169</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-4.675163280877444</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-9.234729932009133</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-8.190433246327824</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.309417605302766</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-3.705950268946468</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-3.625241357251088</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-10.88646083897781</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-4.292486758114848</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2.518675947906759</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-3.037097416598188</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-2.912675186133035</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-10.10227026275067</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-6.6152943933789</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2.937642720148818</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-4.49848198298867</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-4.826306773359522</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-11.40912486245266</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-6.013175461080025</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2.077507011920291</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-2.504762633576007</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.572708728393467</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-9.53287760763201</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-5.139319715374734</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.216722649400291</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-2.433936408790828</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-3.207212909486798</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-10.89208768367044</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-4.972401590292651</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3.48020739837031</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-3.212717048696288</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-3.011462477730436</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-11.16957412886909</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-5.687814258007662</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.685432132960158</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4.465080826082706</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-4.101029900551354</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-9.493861660846054</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-2.563535939853847</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.872794353094263</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-3.208420342690636</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-4.204259953431129</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-9.492153849666138</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-3.500850118247749</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3.19170116397355</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-4.987110928050172</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-2.123317363472851</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-13.62055199887073</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-3.64552037797348</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2.01883403408968</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-2.889530464484454</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3.604912957426092</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-4.84646325410213</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-7.144282061650367</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3.325091502552582</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-3.730237415520757</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-2.956933555096411</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-9.665770345492387</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-5.419397045790274</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2.435026291060367</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-3.437504523685635</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-2.267754269337835</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-9.60984475189685</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-6.22573485027457</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5.049377244611165</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-4.572764745041321</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-3.788279106823809</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-17.76667636767023</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-7.595823620420459</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4.200746694412836</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-5.218951111047413</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-2.960988278194359</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-16.07964526676479</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-3.407518015489624</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2.749568400831082</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-5.165632276198123</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-3.267296396877772</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-5.66605577077596</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-3.873531206797862</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4.022506658199497</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-4.748037250088411</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-3.664046675023817</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-12.4419213669786</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-5.346679936489281</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3.610953254223226</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-4.024598803556552</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-2.46726309027561</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-12.27898628368534</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-4.495820637243874</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3.931919033828184</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-5.153031292137047</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-5.249925795648807</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-11.8724616670527</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-5.324555059673675</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3.461151934241425</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-4.474333385036199</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-4.220691372778574</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-13.17732394053575</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-3.364360449874714</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3.348992728961725</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-5.245581835558664</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-2.663056540070183</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-11.1745078419513</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-3.600259336742204</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3.431345747252483</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-5.328026694663499</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-3.038244070161149</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-9.873233606533997</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-7.090593376689839</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3.694850243322183</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-3.19603241106749</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-4.548782565785321</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-11.50186044531421</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-4.292504582560031</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5.099342100085147</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-4.127321884936676</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-4.130114007360709</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-15.55231726089144</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-5.393332939051306</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3.019153710582271</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-4.395819508420296</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-2.536897992414959</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-10.6637531895858</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-3.309445240276704</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4.289488722620763</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-4.848906005911971</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-3.310110258963755</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-15.13902477699821</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-5.214912813463996</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4.400489104625572</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-5.136352743232625</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-2.828154060091775</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-17.73269171701108</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-6.75011188378507</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4.302531594399967</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-4.953566841340968</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-2.979928710673514</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-13.4532835548606</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-4.187627192944458</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3.444270433878204</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-5.921651921653001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-4.957030227246794</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-13.36672139717803</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-4.493639393999175</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3.795466616466634</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-5.343779366031055</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-3.462004333878295</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-11.37717635834869</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-6.170506912829759</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2.633121759089308</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-4.379911359801898</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-3.552443653472426</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-8.557912239894712</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-5.536765571947998</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3.897519677794117</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-5.298793794762522</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-5.355539781971121</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-10.51543300163971</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-7.684003938768496</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2.857387257776071</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-3.045693131800716</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-2.76099399886132</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-11.0538518040884</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-4.094289442581956</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3.117344125226382</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-5.139162768784463</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-2.831034145204372</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-10.82249208563018</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-4.499356035398024</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4.189732172337568</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-5.652006603990071</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-3.249578990257033</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-16.18260041369234</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-6.400959616555025</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2.418677830451484</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-3.795140481913499</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-3.243469714336089</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-10.70205661714106</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.189108373792291</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3.258220676155788</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-4.493970775931973</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-4.076429445442973</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-9.054801459300041</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-5.305518343169737</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3.493942892966196</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-3.94330992118371</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-4.210166948099352</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-11.30882991267655</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-5.873841515495013</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -86,21 +87,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3931,7 +3932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6022,7 +6023,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -30643,7 +30644,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -31288,7 +31289,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -35767,7 +35768,5808 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9969200302363969</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002169527769242402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000469446783710263</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.615737931603909e-08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.002393524045589073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9969200302363969</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9999267011512437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.737713563240713e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.500143712252295e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.698291412024935e-10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.09200061723985e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9999267011512437</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9993159206823023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0001190540796240962</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0004224348992488857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.090676049483399e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0001425794320642885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9993159206823023</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9985099466069748</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0002352367455726221</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0009711825911920504</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.226913776187719e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0002835113648830556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9985099466069748</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9914671997125635</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0005229864918923466</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002525437774190521</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.542385104961693e-06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.005477833636248683</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9914671997125635</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9995749930283607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.255461813696648e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0003765296453424863</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.385036266137901e-08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.848857797344429e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9995749930283607</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9915908750950755</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0009799850366184566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.001466998127171345</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.973827370866152e-07</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.005961944358397746</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9915908750950755</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9978561956804963</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001279542402152409</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0008098176177806279</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.857988424050775e-07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.425850072818121e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9978561956804963</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9955796826840666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001777624827523578</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.002097390309275288</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.604554269610937e-07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.002144904068478815</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9955796826840666</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9999682050159794</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.446905173011787e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.431834688526824e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.845560043031136e-08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.001276361982237e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9999682050159794</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9998237707054204</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.239470880935505e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.413791721383769e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.83964328486274e-09</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.688828913110788e-06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9998237707054204</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9918655964463798</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003001989611315608</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001992832164682837</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.161499438581484e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003135420278183049</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9918655964463798</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9966393754453761</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0006511994004605911</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.002599567020737577</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.767038946684841e-05</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.218774395877179e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9966393754453761</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9999554885547906</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.675986154215636e-05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.251258790736729e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.566932982621924e-11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.238960090548024e-06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9999554885547906</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9978453991111292</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.000299474169038332</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001306136434657853</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.158863084004497e-06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0005468314220907414</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9978453991111292</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9948137183572929</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003000316336063292</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001689924687731413</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.774539006836074e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0004942660799054927</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9948137183572929</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9991951867724351</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001066450929922347</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0006417411270048064</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.380594945213446e-09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.641862697296891e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9991951867724351</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9945392630180543</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0008510207450525344</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.003545123211628314</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.369996048682904e-07</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001064356025660107</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9945392630180543</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9995148275667297</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.89211926201561e-05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0004252309470619866</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.344109379113289e-09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.101594947883558e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9995148275667297</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9966033939553323</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001851149013234394</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0007904409323700173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.525155681216875e-08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0007549408475065457</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9966033939553323</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9982699624307347</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0003911573548328037</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0003951576521880041</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.91768473638686e-08</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0009436533853970103</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9982699624307347</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9964369986892715</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001975057142768482</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0009678836567760192</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.534612785625186e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0005647143833277666</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9964369986892715</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9964904886295118</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0003127507006612902</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.002506148287642131</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.556028482044518e-07</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000689756779336559</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9964904886295118</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9965201545580198</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002386375839970235</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0003657063183332695</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.008387521238243e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0007267548961553712</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9965201545580198</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9990330631064824</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0006295703057549332</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.000152126387937475</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.595958616102017e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0001851542402389238</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9990330631064824</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9992490625915834</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0004323426533683686</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0001770588515476803</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.662876232035399e-08</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0001414992747380477</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9992490625915834</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9948946769648911</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.001756349739504875</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00293552299105758</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0003556298713192641</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.782043322703593e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9948946769648911</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9990778297515995</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0001608912565645612</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0005665297613887549</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.516686830601895e-08</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0001947140635789251</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9990778297515995</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.997499563385023</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.144231936058683e-05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.001040742757610896</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.323104447121997e-07</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001378019227560897</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.997499563385023</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9997875397947593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.534433870403479e-05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0001848018015081329</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.038239365842547e-10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.31346120455318e-06</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9997875397947593</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9998703388624226</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.630432273031731e-05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.000101908805607439</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.145018733198146e-10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.447894737683743e-06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9998703388624226</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9994885169084532</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0001034715506753155</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00027673800431653</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.133099329288992e-10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001312728232449353</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9994885169084532</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9872194769816063</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0007493410278136499</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.004493066076536868</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.396106947194386e-07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007537476303348416</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9872194769816063</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.996931754940365</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0003030229744938965</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.001571091796403326</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.065339014127017e-07</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001194023754836348</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.996931754940365</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9991254327264042</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.786341695660662e-05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0006534114566583214</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.48888265280404e-08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0001432175111542369</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9991254327264042</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9972339077200855</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0005706909590254203</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001737514408343344</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.128499901742168e-07</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0004576740625554979</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9972339077200855</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9966271492543723</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001491294388329304</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001007711052945479</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.159574278692066e-07</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000873529346925047</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9966271492543723</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9967291970617403</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.001281251537388974</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.001301996766719721</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.717238742214267e-07</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0006872829102768938</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9967291970617403</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9994398571617452</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0001242112901155471</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0004103722898912504</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.14075347518039e-07</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.544518290056454e-05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9994398571617452</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9985503663474163</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0002503339138845699</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0008824096275189149</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0002561638985905458</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.072621258969733e-05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9985503663474163</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9962952614486278</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0006829700463665402</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00287609627156354</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.069852350958322e-07</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000145365248206915</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9962952614486278</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9978559755322141</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0002748096468999562</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.001841563237914205</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.4125885855066e-08</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.762745708582367e-05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9978559755322141</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9998759941065989</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.644670637367227e-05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.229881004204284e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.380900566523281e-09</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.25199608489471e-06</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9998759941065989</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9978789072694655</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0004801108391850229</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.001514861332480751</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.460790271526226e-07</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0001259744798415762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9978789072694655</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9993897192850414</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.184182005062001e-05</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0002257252605890409</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.635625201116347e-08</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0003326572780669107</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9993897192850414</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9966257955576121</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0004678582717751689</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.002330318939558285</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.921818298796583e-08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0005759680128713197</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9966257955576121</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9982572255286997</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0008507051316389204</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0007217202366730703</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9.27645378343719e-07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0001694214576100281</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9982572255286997</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9981112447244702</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0002158845281415649</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.001075247163505142</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.321328907540147e-08</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0005975903705937682</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9981112447244702</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9991192585498025</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0003486847009691287</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0003007546847563987</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.482558517481436e-08</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0002312672388866028</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9991192585498025</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.99800249502474</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.000177429511576105</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.001669042017153179</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.406969947538729e-08</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0001509893768313225</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.99800249502474</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9979169996584171</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.001003973615737249</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0005519722479816232</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.010757504180709e-07</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0005268534021136145</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9979169996584171</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9873009507543595</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0006845075609778548</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.002150216425008533</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.146673747364991e-05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.009852858522180531</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9873009507543595</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9974857795588716</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001082149342907371</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0007660693489135936</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.761604805932696e-06</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0006642401445014089</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9974857795588716</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9966934693456613</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0002147956700765601</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.001663184407759732</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.802755006769141e-06</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001426747821495686</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9966934693456613</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9929650767507987</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.001091785888564144</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.00353276188361044</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.503228315510248e-07</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.002409925154195077</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9929650767507987</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9968378677072345</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.001063295291278126</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.001781763723542249</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.907304070250508e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0002980002372426257</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9968378677072345</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9848056331973339</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.002106213713186576</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.007917277309990291</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.639838052215126e-07</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.005170711795683996</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9848056331973339</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9983836101878115</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.001358481421230011</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0002456807559484793</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.810121636119061e-08</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.217953379366429e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9983836101878115</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9932785686219082</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0008202158424732587</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.005217364621111089</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.574027123532261e-05</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0006481106432721961</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9932785686219082</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.998760898623124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0001277600323018861</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0008460332508328449</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.793545946117011e-08</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.000265280158281794</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.998760898623124</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9996028609451409</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0001857881280181612</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0002017642953599422</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.315424548129398e-08</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.533477235597683e-06</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9996028609451409</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.995489087209081</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001405695353620064</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.003035718200547487</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.436234303303976e-08</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.944487440842198e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.995489087209081</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9699883720364719</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.002425881638443701</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0123715070285693</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.471404533877061e-06</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01520976789198105</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9699883720364719</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9958803588025907</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0001695016576614244</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0006539740530594046</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.28094009012236e-07</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.003295637392679407</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9958803588025907</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.994082552379404</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.000250955660681303</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.004963857474748419</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.350511404475834e-08</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0007026009800523159</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.994082552379404</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9988017458724496</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0001669213565304719</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.00092936156732742</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.188944086325015e-06</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0001007822596061285</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9988017458724496</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9988561081496549</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.083176395872111e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.001046103157951961</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.77514138865053e-09</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.695515329305938e-05</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9988561081496549</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.999732579369614</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.311764728100692e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0002035224202675434</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.558473747477087e-09</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.077600436381372e-05</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.999732579369614</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.999321501184693</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0002160109974118972</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0003038827450416798</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.975625425355662e-09</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0001586020972281078</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.999321501184693</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9984395885983073</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0003288516468266997</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0004594510459812121</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.595448467152395e-06</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0007695132604176607</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9984395885983073</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9855846710335937</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.006262002543965492</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.002001124903103729</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0002674599320155673</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.005884741587321658</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9855846710335937</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9992685946530052</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0001024474226427683</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0005530695700517047</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.531210206196028e-08</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7.586304219803558e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9992685946530052</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.999681870520136</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.320906136430071e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0002131431858839609</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.954624323398979e-09</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9.565843321927316e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.999681870520136</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9993607397504195</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0001243685039294894</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0004815445037438629</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.215261087401564e-08</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.333508929628486e-05</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9993607397504195</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9996772753018636</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.742473656085632e-05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0002413668465351023</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.788162484109811e-08</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.387523341575813e-05</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9996772753018636</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.98469080054141</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.001845883929356035</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.01176973623296626</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.406323153123616e-06</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001692172973114554</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.98469080054141</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9990709922291436</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0001790697028472401</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.000196968537679981</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.5549278866263e-09</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0005529679754012721</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9990709922291436</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9988790454113113</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9.335899244426132e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.000939885962269326</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.931653746912648e-06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.577798022810856e-05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9988790454113113</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9971434900044984</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0004951420371499343</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.001451869213726196</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.662846571277885e-07</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0009093324599684022</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9971434900044984</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9984761339965309</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0001857782144714795</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.001012288584271336</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.480185744926315e-07</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0003254511861519005</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9984761339965309</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9904456807181019</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.004055696212805866</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.001232726481979739</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.494693088468714e-06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.004262401894023883</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9904456807181019</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9961335614573577</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0006052515561487126</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.001778938673603271</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.686871265167075e-08</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00148217144417766</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9961335614573577</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9995462720096067</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.000185447598470425</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.000199932092723559</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.432006558273335e-08</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.833397913374478e-05</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9995462720096067</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9949607874335971</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.002286792798852165</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0006429316417006982</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.245478898642232e-07</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.002109363577960171</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9949607874335971</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9988021460348073</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0003148746421060069</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0003311540118753618</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.264236183076492e-08</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0005518126688494948</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9988021460348073</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9981441407776543</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.00167305553649596</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0001562093770564257</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.867590739944017e-08</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.653563288597616e-05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9981441407776543</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9993880737004436</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0001261042545501805</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0004662520041657831</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.817911520820579e-07</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.928824968821253e-05</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9993880737004436</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9992340685956698</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0001985932527873156</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0005447135217903507</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.673876688715206e-07</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.245724208382151e-05</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9992340685956698</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.998227936144537</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0001320778572954373</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.001307709156847195</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.160313711648652e-08</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0003322352381834481</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.998227936144537</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9982861128825148</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0001594326947609996</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.001136918759160021</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.208448126651728e-08</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0004175235790830225</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9982861128825148</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9996760075972383</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.116384442986701e-05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.000184946943197452</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.77558592496776e-09</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.787383954858149e-05</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9996760075972383</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9913311284208127</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0008282292639264449</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.003600869192161523</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.414797356419845e-07</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.004239331643363584</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.9913311284208127</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9974326735108255</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0001417440361074045</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0007620501952298338</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.001138916761632998</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0005246154962041033</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9974326735108255</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9987032221870467</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.0002251098853605461</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0006336476783203574</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.243974982917414e-06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0004327762742894344</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9987032221870467</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9973920974634068</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0005285667636815869</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.001768903012125245</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8.382761946454853e-08</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0003103489331666929</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9973920974634068</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9987379449748734</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0001972195198906377</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0006701538995139416</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.063743209206242e-08</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0003946709682896635</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9987379449748734</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9994152135874421</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0002491489332540815</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0002481158467842486</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.687131597676943e-08</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.749476120357398e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9994152135874421</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9998030692347946</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.953063779185398e-05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.183400153874387e-05</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.614692085094885e-09</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8.556351118281137e-05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9998030692347946</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.989761193527854</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0009234565428323877</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.00530967687893954</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.257644759223004e-07</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.004004847285898203</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.989761193527854</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9862727905235078</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0005783535808752929</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.00474913707849684</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.633684563557022e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00839708513255656</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9862727905235078</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9996953338699175</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.399949244089284e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0001656665053304324</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.104221584362415e-08</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6.497909009541177e-05</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9996953338699175</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.993573078766259</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.00314996391068945</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.002035133330544596</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.236848297479284e-08</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.001241751624023846</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.993573078766259</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9996733083157489</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.590641641832894e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0002394050028200383</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.579402030450994e-09</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.137468561080674e-05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9996733083157489</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9998960507136827</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.450770998030228e-05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.748397733360825e-05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.374866059284523e-12</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.195759462849965e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.9998960507136827</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9994867790966783</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.216977113391072e-05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0003716015543928283</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.541625879271542e-10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.944902363232434e-05</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9994867790966783</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9970195411151244</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0009715645366625702</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.001306304732892202</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.082242683236179e-06</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0007015073726377672</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9970195411151244</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9994939378964586</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.412735671519447e-05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0003580565180474598</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.142599347153199e-10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.387731451884934e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9994939378964586</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9994368680811488</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.517733285123144e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0004638184118542842</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.146508156164772e-09</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.41310276377182e-05</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9994368680811488</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9968794206122128</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.001191204973660476</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.001785334939138922</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.750422765430903e-08</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0001440219707600879</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9968794206122128</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9985144333769059</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0008804286136874493</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0005180912757888647</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.726325887957265e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8.532040772953567e-05</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9985144333769059</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9954093812714911</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0002974900056134264</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.004259507190855822</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.191005219981186e-08</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.358962198746032e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9954093812714911</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9974339839575461</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0002345202670086174</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.001787667357616663</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.290441756762188e-09</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0005438211273869058</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9974339839575461</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9987890031073751</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0002948902939543565</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0008349103892640039</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.10465372205918e-06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8.009155568453416e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9987890031073751</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9998680306366483</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.741345768858057e-05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.467499478878701e-05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.597902425907139e-10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9.880251084099798e-06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9998680306366483</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.998448981002115</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0001617636140660919</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.001351040049335519</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.282501693343137e-08</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.815250946629239e-05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.998448981002115</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9975137992808879</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0002703852528366703</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.001130889379713181</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.196813870828167e-06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.001082729272691374</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9975137992808879</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.994301099565705</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0001000172498447</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0004066658084186644</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.048088512887644e-08</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.005192206895146459</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.994301099565705</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9993600423422111</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0001801641721616453</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.000319973383015301</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.960334701638251e-07</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0001396240691417781</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9993600423422111</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9998264706279997</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.770336165965395e-05</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0001141592151199252</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.640985962422183e-08</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.640385361109312e-06</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9998264706279997</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9915696384132082</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0002770596196191691</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.006201699694516723</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.399554426567019e-07</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.001950962317213392</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9915696384132082</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9855747026764743</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.006823242155931963</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.00479114551111972</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.5901659152289e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.002805319490558806</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9855747026764743</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9945751600138963</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.001730862785099479</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.001982738896610897</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.001670551030492382</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.068727390090352e-05</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9945751600138963</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9829859884660146</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.003257048370918861</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.01008147675929585</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.002512992618077771</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.001162493785692886</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9829859884660146</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9997909486891599</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0001516028849601346</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.583472789856603e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.800101150352284e-10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.613417971389506e-06</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9997909486891599</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9999341959583053</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.381061550140378e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.098499095452963e-05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.68032462949257e-07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8.404027759108411e-07</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9999341959583053</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9945221800312254</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0005997321437921175</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.004204654724971437</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.967115158147949e-05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0006237619484296138</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9945221800312254</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9997096553364119</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.540124393246852e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0002547027475609802</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.665870159575069e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7.574801935439533e-06</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9997096553364119</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9976339979275187</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0008958507972987622</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0009711518001778586</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.819924498545416e-07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0004983174825548148</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9976339979275187</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9917157086201459</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.003833058765155403</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.004340915836649646</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.274763165139181e-06</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0001070420148838457</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9917157086201459</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9988567484670526</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0005888914959524684</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0004242899894826662</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.871934653818251e-07</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0001294828540469509</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9988567484670526</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9798787899587533</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.01002577457756911</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.009367189831286649</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8.888866510177257e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0007193567658808818</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9798787899587533</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9854917510291592</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.009416671649040462</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.004345779730726192</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.997878169474743e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0007437997129045512</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9854917510291592</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9971477343025469</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.001236116352283792</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.001511691256881928</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.329524767644786e-07</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0001040251358108285</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9971477343025469</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9928795745951324</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0007788758812512886</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.001120917278592893</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.099134745244785e-06</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.005215533110278185</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9928795745951324</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9951834598478274</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0022743911862154</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.000840190014820431</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.24496756143601e-06</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.001697713983575354</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9951834598478274</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9937682251815948</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0002787867611277041</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.004886544845388094</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.963823485231074e-08</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.001066393573654469</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9937682251815948</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.988001854792727</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.007295954938004036</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.003567758700156447</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.00103085369275916</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0001035778763534533</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.988001854792727</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9971143234715127</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0008603091417197858</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.001864215597021402</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.274496847024796e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0001588772928992148</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.9971143234715127</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9880789388062683</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.002782171609864046</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.008961897971538077</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.80457748689118e-06</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0001711870348426514</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9880789388062683</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9997854148161196</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.623135293405298e-05</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001451314086148804</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.233163365154823e-10</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.22229901536871e-06</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9997854148161196</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9986486765161711</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.100092020465815e-05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.000774659321861085</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.555071675944674e-09</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0004956616866915023</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9986486765161711</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9956657324996394</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0003635679431519114</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.002426735148325266</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0002204217372308876</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.001323542671652569</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.9956657324996394</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9993009091445799</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0001551305955865936</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0004586364688559235</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.067829161319628e-08</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.52531126859408e-05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9993009091445799</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9969325888613286</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0004814904392669585</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.002285230304988351</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.252427900392275e-07</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0003005651516259044</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9969325888613286</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9996882193670361</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0001133237087738612</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0001028584631693038</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.368072918573745e-07</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9.546165372880912e-05</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9996882193670361</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9980988997491955</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0003571380240506336</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0004602474783871935</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.931647265674017e-08</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.001083655431894045</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9980988997491955</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9964188540415811</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0001844444658063852</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.00244029378644652</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.908691976578623e-07</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0009559168369683079</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9964188540415811</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.998267556401939</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0001567111293345608</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.001547176281354628</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.663954932442976e-06</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.689223243934978e-05</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.998267556401939</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9983826939754176</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.00101537094554229</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0002625021135401973</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.508704155314954e-07</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0003391820950843612</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9983826939754176</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9997758228284647</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.835883476465066e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.808458790008047e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.073991706153113e-09</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.773267487876089e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9997758228284647</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9937869976268838</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0005984272451206626</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.003839995491823471</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.134703376408281e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.001773444932795593</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9937869976268838</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.999317827079572</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0001073863870160647</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0005003106325783107</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.647601876850509e-09</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.447225323197191e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.999317827079572</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9991886430233528</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.208579622195677e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0007249159426365871</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.439659357553287e-10</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.435499382269655e-05</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.9991886430233528</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9990124567875093</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.543296759845977e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.000686813113000411</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.94230917871246e-08</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0002052777088001769</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9990124567875093</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9993332762863177</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.553462428457724e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0002244253086123589</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.997920704413186e-08</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0003567138015782965</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9993332762863177</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9991412526334568</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0001072760543347446</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0007042831600831438</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.571767896388833e-07</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.693097533568805e-05</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.9991412526334568</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9967547074724363</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0008971534064887614</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.002052255221472325</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.375257375901624e-05</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0002821313258435453</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9967547074724363</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.999792925028102</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0001013915737906601</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.579821016686324e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.501032902769219e-07</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9.335084650099342e-06</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.999792925028102</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9927337150207821</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.002711174881070075</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.003604132880436779</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.021077431242156e-07</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.00095007510996791</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9927337150207821</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9966485894062238</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0002586941885280828</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.002601322499606671</v>
+      </c>
+      <c r="E161" t="n">
+        <v>8.801326079223081e-07</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0004905137730335788</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.9966485894062238</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9993344182225908</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.314935547901831e-05</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0005872987252467103</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.419447125476127e-09</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.513227723653385e-05</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9993344182225908</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9932178648653912</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.001988005208668374</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.003451477830056363</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.989674130958217e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.001340662421753127</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9932178648653912</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9987239016994034</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.000429251155925256</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0006516994720057802</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.487121968670205e-06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0001906605506966459</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9987239016994034</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9988755899120404</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0005882386312936755</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0004504628790406166</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.72176419786802e-07</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.533640120547074e-05</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9988755899120404</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -37222,7 +43024,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -38218,7 +44020,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -41806,7 +47608,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -43423,7 +49225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -47929,7 +53731,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -49810,7 +55612,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -51096,7 +56898,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -55742,6 +61544,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="p__Bacteroidota_pred-t" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -87,21 +88,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3932,7 +3933,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6023,7 +6024,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -30644,7 +30645,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -31289,7 +31290,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -35768,7 +35769,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -41569,7 +41570,5323 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG152</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.353534299034953</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.452136690136908</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.359180673351643</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.073893320278872</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5.976791248917143</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.437506288662254</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.252423781993053</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3.610296536588462</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-10.49378568052588</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-4.55332683913765</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.791926293455609</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.098157893483213</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.380933587013778</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-9.214197776189367</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.648618375675275</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.389991377663564</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.258839703985443</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.791922046582569</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-8.637002861987796</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-7.361248869208173</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.351439081375637</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.542169839539329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.407656999862013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-10.76993519484134</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.845418878327661</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.44881647651029</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.206829012985576</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.777967673986633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-11.6889110365088</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2.732169544697634</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.735784805144701</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.222202238208784</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.939640685205063</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-10.36734799055313</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-9.351278230778837</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.795024499867819</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.812585266603535</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.538196218704855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-14.04942855000266</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.721865881840452</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.600547812872146</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.353755189457531</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.932306269103539</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-12.58927895131155</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.113286825773227</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG326</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.75891024989729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.236344955763337</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.246848550175213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-11.48468295097076</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.169448834261054</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.667294417456906</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.21530167685229</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.665880164840037</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-15.85926918391215</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-4.913031783658455</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.8986360333165</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.452079581995944</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.994769888549862</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-15.49174464075493</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-7.146648899338347</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.311712871620577</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.458057798680762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.468169153621147</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-10.12801229239149</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4.65962144560603</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.870176601633676</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.327485306511151</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3.328384202135276</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-15.09858990944324</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-6.782638886422784</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.014380175063764</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.405353530584492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.7005200032023</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-11.43647589469195</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-10.44777117748961</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.140170003615218</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.570833628417658</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.57652637719987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-8.456624970862212</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-6.054170775419194</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.928169161729048</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4.683147227689986</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.624443751604656</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-10.29653457417478</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-5.311922539806766</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.209431037107377</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.763405945130347</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3.207334679918141</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-14.59073320758388</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5.433306378638876</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.953574724303864</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.99031201260612</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.434849710334294</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-11.55656920672916</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.252402799354914</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.02656660178774</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-5.239710702652264</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.099255147418114</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-12.68215583210219</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-6.019072233751707</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.541886156456941</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.073504736922831</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.217659027739246</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-11.11434108632623</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-4.42481761981286</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.960437949757674</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.886346801422612</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.527197034862615</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.28549115920876</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.933129997377118</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.608473358021855</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.803407928016356</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.323479702378697</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-4.780448727647164</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-6.365937275966427</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG323</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.500422724687656</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.240991413597009</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.10225057764742</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-8.80833632163522</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-5.678060283249464</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.166801196261316</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.647843590885267</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-4.504044760198385</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-10.93495849775917</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.010723083276385</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG538</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.351386773294299</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.430274534771979</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.056299793397357</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-9.857954229492767</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-6.248323255624483</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG153</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.928862221372195</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.449250319795795</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.801352960364364</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-13.6611031584505</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-6.225562606720809</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG429</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.48594979998422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.093095212749744</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.22513453757632</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-11.66417844192105</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.845584607367894</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.500561496559133</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.119546663009339</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.654024721300722</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-10.07285818757355</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.382662750513489</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.122540738326806</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.996006824425711</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.563740096612657</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-13.6314424625313</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-5.303876434295445</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG407</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.514337363012264</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.944043024356751</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.254330312254811</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-10.55378306914986</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-7.324098822004991</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.996671820841393</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.841480494524964</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.176734569448997</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-12.17291468572494</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-5.800535801548652</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.443637614429309</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-6.121950215848184</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.442866769188302</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-11.91053774701033</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-3.231228603550983</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.818640119444327</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.224716892442795</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.170259099014757</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-17.73278509679016</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-7.59170093985083</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5.019196731900016</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.715357792655466</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3.088442299711892</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-16.20679579844206</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-4.66248582120577</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3.597270894305411</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.429233172779051</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.643532852266376</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-12.44589511327834</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.10923412556312</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG739</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.564965653456069</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.440476945909563</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.725872239022066</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-7.233891395016474</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4.683939202055674</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3.686660687957468</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-5.067201336615525</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.853353355432371</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-19.11819228406206</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-7.069828037287729</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.230165935054432</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-5.608729937082757</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-2.822086463772074</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-12.62726205653482</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.488977399849969</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3.451319016395567</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-3.261856696837401</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2.728676531825355</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-11.59912445420158</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-6.738150704736769</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG156</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.593209808918072</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4.228986393357641</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.522721434070618</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-10.6785878522151</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-4.826749180865286</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.498975184589182</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.282324038507871</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3.983292361324735</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-11.556776465997</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-4.667710531736375</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.069196296252398</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.744300721793334</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.628570258996584</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-12.36883417216407</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.825297314027925</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4.452563650326535</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.402411874484236</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-3.53250810636533</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-13.38506415113329</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-6.376134614766112</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.268593892296741</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.522216677479125</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-2.657189821531246</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-13.36307050939867</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6.550938833443673</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.268000066766256</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-3.681398809300584</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-4.777545171999263</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-13.01471616311848</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-7.495133762597428</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.903051404965896</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.197822275918329</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-2.622215000008823</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-11.4643465784174</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-4.435541259817961</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.131325335557869</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-5.697043193091829</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.168137902238932</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-13.11891968313861</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-3.889892750500291</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG083</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.769596284403537</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.832739146513443</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-3.410295685557869</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-6.542212332477652</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-5.103758658058697</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4.222750862424621</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-5.533817170808272</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-2.597303103603121</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-12.6103198630854</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-5.513447020117272</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.784607337977697</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.061512470153021</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.181730939140035</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-9.654037229201913</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-5.053634901941627</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG360</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.525261001165351</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-3.512787662955441</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.365588420194033</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-9.902720568951613</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-6.532537772906247</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.800042586397319</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-4.445333816560273</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-2.961612371945906</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-13.45543890758976</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-3.4457861030264</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.963635462216458</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-4.429356326808433</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2.551993261141834</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-10.22723134684011</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-5.377680521040922</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.465265676521738</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-5.465575352423085</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-3.881771798942672</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-14.12654368774952</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-10.19586631867898</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4.177828984847305</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-4.726173929642514</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-2.616451031490377</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-12.64576574769096</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-4.864026884242103</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.659224112349561</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.369189319601188</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-4.531404493843127</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-11.46813636986679</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4.989927149564588</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.188591949867128</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-4.021536751649336</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.771142110830962</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-5.304915176257207</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-5.513313457173185</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.3733801707918</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.075790251088808</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.617938578785865</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-8.601209300194366</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-5.773166428222054</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.061062385225846</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-3.70983138405551</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-5.190496043643931</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-9.279243635001123</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-5.701055766713066</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.423350255476513</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-5.422962116604511</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.152025569157978</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-12.0564452663934</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4.722357287181819</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.654385149525136</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-4.491710570671787</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.627250773166639</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-15.9956345978231</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-6.849957344936469</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.995871130386076</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-8.397627194917638</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.529369377930538</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-7.721148917975235</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-5.668408125806749</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.508335709191435</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-4.302650869426353</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.78623627576565</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-9.650747772777537</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.099708413216555</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.046577014129632</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.705427737532659</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3.405529145065334</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-10.99034880742887</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.827365083017487</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.979096812786574</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-4.769586058062464</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-2.356921138836407</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-11.62209625655838</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.920444842040219</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG734</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.028206116029521</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.026678383697042</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-4.221999044084732</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-12.14148219916885</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-5.831274228257244</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG061</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3.255616824326159</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-5.631553148009321</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-6.58471791438666</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-8.533666195343093</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-7.482109579481423</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.157671852477747</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3.910099696636958</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-4.881676053589517</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-13.05477016519651</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-7.987618665523695</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.82725278999679</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-3.661199215083392</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-4.419920445729057</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-10.74682192112597</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-9.830745562853055</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3.657503560672474</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-7.477376055025112</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-6.388456070116005</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-13.31914692605407</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-17.26577668390165</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.505313053920299</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-4.913813317807508</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2.426359371903101</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-7.417398732804402</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-2.236672748011338</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.36312054931253</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.774317583298247</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.00630920542645</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-10.09168077529259</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-6.726215898300506</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4.524240432563641</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-2.927787816433376</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.880821758495931</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-15.0247095229064</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-11.23838216540611</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG539</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.694572423582732</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-3.863662446812488</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.991745250179884</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-7.818977990072952</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-4.97167347095067</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG676</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.68670421326732</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.776851312207422</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-4.183821359859571</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-12.40769465498984</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-6.751220875448621</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3.278402307042766</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-4.777888758609669</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-3.734861811407903</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-11.93877714262368</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-3.876617738137176</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.505868670841542</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-5.182880264348856</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-5.793097282583448</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-8.960847760927498</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-11.01083615486427</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG197</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4.520338571689976</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-4.037249234567323</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-4.372986883385551</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-14.02424701884021</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-4.282863886599552</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2.336245181323622</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3.148354521581269</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-2.51483286150736</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-8.122162515880847</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-3.417891217348239</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4.010099815376597</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-5.462985086426961</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-3.431303129902986</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-11.90781620274023</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-3.156189746517088</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.595398544967745</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-4.109107265859731</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-2.930429320087102</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-10.73132855554296</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4.089986441999031</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.319044588099429</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3.24547098271982</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-2.573485536024094</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-7.464066092615517</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-4.970762494418923</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3.981807155795396</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-4.207560992092244</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.222633157207878</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-14.27494997695081</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-4.182748204889391</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG716</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.890326875692857</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-3.238421105957667</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.695104545059194</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-6.430930375171231</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-5.110281489641752</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG264</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3.837709739748948</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.058816607509674</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-4.225619390401462</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-14.88471581523377</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-10.5394563236509</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3.943984951508479</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-3.55844101105302</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-2.73675612317836</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-12.79785566481807</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-4.693129427951074</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.122956416563897</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-5.062250714570881</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-2.850764875884025</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-10.73714132607569</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-2.372084402726522</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3.679027042612471</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-4.304871568774952</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-2.829616881335348</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-11.84758482716288</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-4.234479198294648</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG184</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5.411611201791854</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-4.437230187466368</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.51703228821872</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-14.69824021062784</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-8.573094579684224</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4.239591389895554</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-5.067052742560731</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-3.051674199033044</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-14.80839148799077</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-6.743018621674563</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG359</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3.116605885889659</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-2.990186547250325</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.722972788255392</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-8.703219147902185</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-6.131235907939117</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4.272860899923648</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-6.499794217546923</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-3.431652224862727</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-12.12381773284641</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-7.578356755487405</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.109791727708907</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-3.360995383152614</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-2.572164502161726</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-8.897040384655316</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.876771414627703</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4.645606054743089</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-3.805469395533509</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.035712465385086</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-14.64603584416098</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-5.338990525644099</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3.304293613829292</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-4.716315700889067</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2.573803742728531</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-9.894554420501789</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-4.846280609558447</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2.655747155172449</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-5.66320163607188</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-3.843619888010064</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-12.73247600732144</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-3.860053726345179</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3.348429562138538</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3.728647405432849</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.126029467751306</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-10.70803630819998</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-4.213098848310684</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.331375600566345</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.993000603120743</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.726647993539199</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-10.13802500127967</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.97499630262804</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3.430966587713561</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-4.331630527633428</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-3.614174405692633</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-13.81254760418263</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-4.30139446391531</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5.378553166854928</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-5.459949053563729</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-6.970619084218849</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-15.83292187717163</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-10.72396713566377</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG465</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1.983879518955185</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.356097954657642</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-5.100532249442674</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-9.894181170095225</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-5.726880385896498</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.698217690904674</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-5.866163242212254</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5.085616791267639</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-12.64120839005643</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-6.442024422052858</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG325</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3.71603325896097</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-3.74026740536485</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-5.098502235443633</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-9.972434865825388</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-8.958824264884765</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG737</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3.056539464623615</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.53943337454394</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-5.843412379253826</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-11.01780322332375</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-5.366565178661641</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.17659227200512</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-5.116151186935371</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-4.518114725722351</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-13.69772026595825</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-4.580054703311671</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3.593345930946025</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-5.00085912909823</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-4.020082982150545</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-13.45801141856665</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-6.65677196188336</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG377</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.697371354969634</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-4.782199849781024</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-6.410199300985176</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-12.28511974805867</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-10.04430381920283</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.025543292802477</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-4.589182715360289</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-3.247690962565093</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-11.36719232344355</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-3.965736490598205</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG699</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4.119255712329323</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-4.593074351103097</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.800340086158752</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-11.73901115939278</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-8.468222674309819</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4.711950574278524</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-4.317325391796806</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-2.99895747217221</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-15.26160851596243</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-3.818459323967783</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3.290777528142959</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-5.375748154673687</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-5.055766886439578</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-12.51602146445661</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5.762589635398493</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG649</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4.077389723356542</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.572507839038439</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-5.30104809735839</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-11.97257793161281</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-6.830179505458736</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG329</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3.712836736230428</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.765487555642919</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.262637589515807</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-12.65588071607664</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6.193585503758806</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.6975048800153</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-8.241852112675168</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-4.393210947642158</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-4.130698828050055</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-4.986180148816278</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.676123246882465</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-3.864035675032178</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.271419569934233</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-10.45750449739902</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-4.130160494320132</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2.631669857130952</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-3.051359229303072</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-4.409963433875149</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-9.611123746641255</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-9.22698372849046</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG079</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3.644531236086895</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-3.246258337221145</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-2.785676229748514</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-13.48828871353965</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-4.311651919026012</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG659</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4.545232725989278</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-3.973718587019758</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.419175492395607</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-13.6122161167038</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-6.022638078740381</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG469</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.798417175169181</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-3.539928381401258</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-3.411808146670644</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-9.766722816639353</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-5.409966955531024</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3.697046128723692</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-6.216089558879455</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-4.910786366779041</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-14.63951851962808</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-5.889988250594578</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3.912562812603054</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-5.911746298395582</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-2.8504173621424</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-13.99656623363194</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.501905558286752</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2.7309241301069</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-4.855365207905991</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-4.410272010208222</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-11.87504267070006</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-3.604947787743634</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG279</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3.994893231745267</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-3.67309228367652</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4.58711197726108</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-12.69301661086197</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-5.721171680606311</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3.561921024660773</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-5.646069186588298</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-4.14463882381197</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-10.49567651725497</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-4.279791884405983</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3.292309544280147</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-2.827954153878365</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-3.066798539726342</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-12.18439791009333</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-3.716044553564574</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5.720919908418791</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-4.096969020356416</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-4.820873202773466</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-19.64963535459841</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-5.08966636634</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4.5484850158902</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-4.111970470586138</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-3.346034229915032</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-14.45806337404214</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-4.129318054997529</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG324</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2.267324627471839</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-3.729918123091309</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-3.251008558238372</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-8.860442631506251</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-4.312604200552526</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG390</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2.698312736560429</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-5.926698934473908</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-4.492104756920424</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-15.06705432721521</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-12.18581870884917</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3.657034013348067</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-5.989698346310678</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-3.370593331327111</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-9.438314245062722</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-3.153952203191108</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG587</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.965730753429325</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-3.296320296930578</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-3.406486509689195</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-9.940514880996153</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-7.632381696043645</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3.936968059566568</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-4.53615025970367</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-3.003543571056071</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-12.55998377840056</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-3.713268550037679</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.304022911184509</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-3.117069968804382</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-4.478063493529546</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-14.6528609051284</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-6.602847197943125</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG380</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.158775233302547</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-2.153341958883378</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-4.152081234094601</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-9.151309665321438</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.424251541764908</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4.311230938462134</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-4.884098272528109</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-3.258401951385108</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-14.71354556030595</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-6.654568871331529</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3.719819642719836</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-3.990118195197895</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3.069615520654847</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-14.63123186758787</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-5.562138103296834</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2.838347057889129</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-4.200930979354711</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-4.768227153529737</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-10.84678145673349</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-6.56027201201086</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3.435866599778605</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-3.720629738860846</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-2.869319025987648</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-12.05625497302853</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-3.8490138939436</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4.348057838658275</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-3.807566877731591</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-4.356521888843812</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-13.76613251018366</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-5.431272494440305</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4.70446033917474</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-5.381317180687635</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-3.417261849258914</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-14.37843344327401</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-6.256836185245045</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3.693297555038907</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-4.887387232844765</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-2.877232580975816</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-11.82696039539261</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-6.572520335861262</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3.624756143632421</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-4.5379742295989</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-4.826813857686367</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-18.18793922223651</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-6.527190061297079</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG245</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3.639892557309291</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-3.859619727970862</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-3.960542630859846</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-9.865330662963158</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-5.462287174546428</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG164</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3.839777062658948</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-4.613467124437721</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-2.888978878085982</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-12.03900547197758</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-6.265260270212519</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3.774779221144529</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-5.533275794633961</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-4.16981054673334</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-15.58856223440739</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-2.692278241411477</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3.536244032515763</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-5.730103728703595</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-3.993952104072377</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-12.78898293888753</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-3.805622746838416</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3.866819499377447</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-5.405154531133824</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-4.587598803510948</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-14.6190362427061</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-9.225015033501011</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3.228846683145516</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-5.917014942200264</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-3.301449717131245</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-8.835614868266328</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-4.197173215970102</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2.617252198388543</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-3.058654293907334</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-4.21265304347089</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-10.91427634498205</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-5.507584311147623</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3.184849680143544</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-5.902826995596778</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-5.507231373532192</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-10.5977356670766</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-9.222724388598611</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2.768148333943844</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-5.005184902873161</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-3.703101694392467</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-11.3892888664717</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-7.712215731639851</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3.418472048048383</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-6.961951629477932</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-5.565360312764293</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-9.612218004716341</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-9.394185140705808</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3.182863097481219</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-4.802610684896671</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-4.535290491123573</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-11.90813074574364</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3.914834652680744</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG165</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3.352956129676817</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-1.937061950810605</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-4.255774810431907</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-14.09564216790349</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-6.268225696453711</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3.239340382516675</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-3.941378285378954</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-4.948622790726988</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-12.64311978659295</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-6.019383783661129</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2.741705539076399</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-2.313055784913648</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-3.008524745719828</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-11.22357757690896</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-6.057853174053332</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3.213188139137682</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-4.679198117124308</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-3.251538213433882</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-10.86176331672982</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-7.204518933852791</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2.24786542035871</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-2.472933248068103</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-3.036276155499575</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-11.30128518632801</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-4.877855816008273</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3.627414003192149</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-5.235830672921884</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-2.843062759991347</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-9.025460852177893</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-6.617149885765649</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2.810958597997705</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-3.972139453085968</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-3.604148790814138</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-9.838380792819766</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-3.864315150265262</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG358</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4.134829791395848</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-3.206127447091736</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-4.077148477263322</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-13.09417230600006</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-7.218114744628119</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4.140481591781125</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-5.09468591501185</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-4.9616043797848</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-12.27915764257685</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.216859946709206</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG348</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3.251701717351397</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-2.607406625885452</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-2.913939997289673</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-10.52150422325129</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-4.307028206270327</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>RUG312</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2.437126719362595</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-3.744894073890117</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-3.163634304288351</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-9.076434340705342</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-3.90696124491162</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3.550396179088801</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-4.131551884539524</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-2.324476892558914</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-10.42378015503106</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-5.607370059548303</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>4.788676569709712</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-5.948467805511512</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-2.073068648602824</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-17.27719379162597</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-5.299687492756982</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>RUG265</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3.082673975449264</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-3.20291244903971</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-3.905537228615375</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-8.93527301783301</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-5.114737281805458</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4.043290116008</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-5.425057216222768</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-3.079358504502394</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-10.95042054547723</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-5.206164363272958</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3.335734930591551</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-5.54930197031119</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-3.121542494326027</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-10.46588655097685</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-3.600137830697555</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3.712684069558025</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-3.568162560958287</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-2.586332407943344</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-12.55088367982128</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-4.810853808566734</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3.383923448526731</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-5.039810449919758</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-4.531345660295049</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-10.58509237720165</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-4.494939695048744</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3.198146704143606</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-4.559959538741463</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-4.603312357134209</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-13.55515085650388</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-4.744702939954402</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4.573954186771164</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-4.59713565204689</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-3.116877679038695</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-18.23834338547343</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-4.303974530005371</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3.783250065816119</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-4.278601921434166</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-3.424429089415481</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-10.56475714120411</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-4.457028462736196</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>RUG134</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3.862084552592561</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-4.871573099844496</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-7.068439396433521</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-9.898525600571997</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-11.54360677869477</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2.480078643616408</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-3.073426749098052</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-3.025293933061287</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-12.8474116212972</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-4.522449846405421</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3.872288244056653</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-3.568627084015434</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-4.525070174894088</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-13.08570285637674</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-5.433951325467274</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3.682400124740011</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-3.91804923893281</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-3.251241322602792</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-12.38634468736027</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-5.138231493692705</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3.68643794129278</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-5.145048685024643</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-3.016446152554864</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-11.66884987554244</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-3.099102432977277</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2.909921390771073</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-3.340551521919312</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-5.308559896545367</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-17.75123604306341</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-6.531931263988662</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>4.569707513882073</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-4.23668831963767</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-3.031731258300162</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-14.27370579394834</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-6.545329448752316</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2.596501595641146</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-4.572158245851029</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-2.175734082517844</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-11.08680240630205</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-2.922341037129677</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>RUG182</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2.619024677567691</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-2.850560370733014</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-3.260026784854889</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-7.780455561605792</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-4.835734653883007</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3.244582300951862</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-5.187783888298247</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-4.881143929528513</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-11.83656123721141</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-4.28208566596883</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3.275482588066216</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-5.64264093644198</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-3.533155593000207</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-13.57697182523594</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-5.35479527145367</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2.568380639268853</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-4.091910089555908</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-3.565351656096639</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-8.388505671250089</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-5.302895625998787</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>4.2757606278407</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-4.32401709406667</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-6.663383419653889</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-13.10154900272419</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-10.82801722245967</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>RUG415</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3.61074803507838</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-4.541860229425509</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-4.191744783060988</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-12.24336872305774</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-5.962802260092818</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2.724592387471032</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-4.946035765082108</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-2.916556089178912</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-10.01622207414315</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-3.697179700531372</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>4.162529764473461</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-5.273131202965367</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-3.306128884014744</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-15.59320347111622</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-6.530788972167969</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2.412847448777072</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-4.014400628818224</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-3.78004809020014</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-10.34337770729401</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-4.891980607891019</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3.591821868197158</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-3.4096124280969</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-3.629311641846222</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-10.91434049556698</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-4.93020635482277</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3.320360834761181</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-3.87458698933574</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-4.586893565711024</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-10.62185131645338</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-5.845741882909271</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1.841614044095968</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-2.556025586892461</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-5.994411921494895</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-3.026683227865467</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-7.468015932791613</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -43024,7 +48341,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -44020,7 +49337,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -47608,7 +52925,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -49225,7 +54542,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -53731,7 +59048,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -55612,7 +60929,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -56898,7 +62215,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -61544,6 +66861,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="p__Bacteroidota_pred-t" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="p__Bacteroidota_pred-t-p" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -88,21 +89,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3933,7 +3934,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6024,7 +6025,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -30645,7 +30646,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -31290,7 +31291,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -35769,7 +35770,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -41570,7 +41571,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -46886,7 +46887,6893 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG152</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9953399473376919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001102315916516038</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003288295554646015</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.94711551683108e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0002399700359774029</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9953399473376919</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9983366018660936</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0004566493018076315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0008678708815293315</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.891883538251402e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0003379887622156903</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9983366018660936</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9932430381893217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000371907987255691</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002071173811132577</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.065437014089803e-06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.004307814575275938</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9932430381893217</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.997735936503268</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0001749347147855559</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002061791416109987</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.967032218362754e-06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.137033361817707e-05</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.997735936503268</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9938322499027582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001007991269928349</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00313450839035223</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.989631473730093e-06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00202326080548743</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9938322499027582</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9957991313165657</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001734094136213576</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00196749549453653</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.65424015780963e-07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.002059698351260634</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9957991313165657</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9998057026172983</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0001286800638226039</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.279596070074047e-05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.498991456246835e-07</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.071459032856151e-06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9998057026172983</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9998768841126082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.472408001265819e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.842605941152917e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.544923189949259e-09</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.95920304456564e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9998768841126082</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9956746765292118</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00258342896290052</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0005328935956155723</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.519181839723158e-07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001208748994088233</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9956746765292118</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG326</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9993116977611197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003368261133546864</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0003333067438439327</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.396031700749948e-07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.792977851138359e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9993116977611197</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9996395911131436</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.103715974226909e-05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000240320993302725</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.216942738725083e-09</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.904951686877396e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9996395911131436</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9992052421819417</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0006416223359566363</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000137182144170508</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.788954369472916e-09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.594954897663273e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9992052421819417</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9980982303743996</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0004215069674254271</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001134247769945349</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.453365372381906e-06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0003445615228573867</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9980982303743996</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9958861984532319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00202581296528326</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.002023992789070248</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.564853088415488e-08</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.398014388349154e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9958861984532319</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9971609755313086</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00162446496813978</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001209264155385121</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.435928137810042e-06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.859417028822941e-06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9971609755313086</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.987600441983663</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003268315037224874</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.008833769532909095</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.468605500508478e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0002727873911978011</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.987600441983663</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9965185649739665</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001340377620009042</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001421417845667557</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.890621114677439e-06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.000714748939242318</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9965185649739665</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9992078279954916</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0001267074758323403</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0006006139337518806</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.836726986161972e-09</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.48437581971839e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9992078279954916</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9891022036450963</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0009540024205841303</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.004519372840135183</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.938166495836925e-07</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.005423927277534775</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9891022036450963</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9990588248764987</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.447087965548472e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0008033152204875878</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.534585585682644e-08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.333367750235285e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9990588248764987</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9945933268732754</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001332348325445259</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003135500318892128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.166329890768422e-06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0009376581524964529</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9945933268732754</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9997340971461914</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.290299050605183e-05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.576296880876498e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.380096647427968e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0001372325143971628</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9997340971461914</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9834680484340242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01193176132658036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.002609430737451119</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001652291420200049</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0003384680817440903</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9834680484340242</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG323</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.998215350320844</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.001178868283675823</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.000498224616041139</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.503997192839574e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0001030527822460771</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.998215350320844</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9976772943364747</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001095033640272897</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0004651403528710965</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.49330945400538e-07</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0007617823394360574</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9976772943364747</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG538</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9989077219605854</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0004168624765203646</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0006059097916120723</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.831392634995565e-06</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.767437864722957e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9989077219605854</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG153</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9981047192757461</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.001695106649264016</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0001613213433464664</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.290610291933687e-08</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.882982554055524e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9981047192757461</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG429</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9988014879792634</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0005104365369590749</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0004472988724271337</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.629432854458439e-07</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0002405136680648718</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9988014879792634</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9983526672268008</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.000489680778951826</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0007799857489865135</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.271811399019764e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0003763944338615285</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9983526672268008</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9995595161279918</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0002978298690654099</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.210267986979402e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.946936209129469e-08</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.053185371088746e-05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9995595161279918</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG407</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.998256822861379</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0005755841696878595</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001147221469603781</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.754168118681737e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.959608251757457e-05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.998256822861379</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9985921451829418</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.001070573104577807</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000281658493440797</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.484751375071317e-08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.552837152582875e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9985921451829418</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.99765149405749</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.993536509295524e-05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001019079355795021</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.141633855294503e-07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001259277058236568</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.99765149405749</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.999613392287526</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.345677924591702e-05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0003390761308820825</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.606469688310113e-10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.074641699013559e-06</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.999613392287526</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9996147230531002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.17708230734526e-05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0003011131703055418</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.046460432861712e-10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.239234887490017e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9996147230531002</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9965141776397455</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0003255495179266382</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001941497573565371</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.074051268928524e-07</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001218667863635666</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9965141776397455</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG739</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9949407540753888</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.002452825419091517</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001843830680870583</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.523415004640091e-05</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000707355674602626</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9949407540753888</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.999289957006073</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0001577384431497836</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.00053101284936709</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.24643523197913e-10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.129157676640239e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.999289957006073</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9989189015885324</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.327850692218447e-05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0008645217604257418</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.769164198672296e-08</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0001632504524779501</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9989189015885324</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9966879145022124</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.001210776613611171</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.002063579607148763</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.898909401367449e-07</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.743938608743792e-05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9966879145022124</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG156</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9985681909542161</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0004001668241849094</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0008109014093139823</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.327246533805404e-07</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0002201080876316695</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9985681909542161</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9990001959112049</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0001534248745545196</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0005624165164275692</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.890252001708515e-07</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0002836736726127126</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9990001959112049</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9947927404430257</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.002971412403041058</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.001227240139323486</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.337964059238941e-07</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.001008073218203931</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9947927404430257</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9994972344213122</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0001425983790986308</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0003403368659327689</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.790598730943035e-08</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.981242766918103e-05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9994972344213122</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9968721432254318</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0004122241395464939</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.002661364088065564</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.964848061240765e-08</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.420889847529992e-05</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9968721432254318</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.998700701759318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0009579652835387474</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.000320110156666026</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.471133889937485e-08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.113808913813903e-05</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.998700701759318</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9979955029966117</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0003026661456115033</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.001462990114942067</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.11423101242587e-07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0002386293197334289</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9979955029966117</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9982876934432788</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0001462662008596158</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0006747441256791436</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.747097674698734e-08</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0008912087592056837</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9982876934432788</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG083</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9938075898601907</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00366639241503358</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.002057829211561082</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.979149662484671e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0003783970165896648</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9938075898601907</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9987927304642312</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.784312043696267e-05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.001090344077741983</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.886137038264534e-08</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.903347621949854e-05</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9987927304642312</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9978514165759583</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.001061289391430658</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0009410736326679858</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.454576940562249e-06</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.000144765823002475</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9978514165759583</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG360</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9987053651771922</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0008767013691105527</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.000373667237859337</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.471428230175716e-06</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.279478760777061e-05</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9987053651771922</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9978715832281433</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0002619106643721059</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.001154849041658387</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.199736827109216e-08</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0007116250684578405</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9978715832281433</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9951444172761318</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.000612562733720389</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.004003861002776653</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.858512319643059e-06</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0002373004750514628</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9951444172761318</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9992226692402465</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0001321439549274237</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0006439978898457162</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.288951257803809e-08</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.16602546781377e-06</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9992226692402465</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.998627477788413</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0001356576155215513</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.001118626728434266</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.931841986819799e-08</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0001181885492110262</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.998627477788413</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9992217565868692</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0003258113652242295</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0002770237950955283</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.691117735427846e-07</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0001751391410374867</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9992217565868692</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9960486945067863</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.002001040799482299</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0009455978422272176</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0005544875197449819</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0004501793317590233</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9960486945067863</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9983879564173902</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0005809860764488538</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0009183498920838816</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.29218094453454e-06</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0001064154331325659</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9983879564173902</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9994233338297548</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0004215928155543815</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9.590664751001404e-05</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.607415653636147e-06</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.755929152710384e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9994233338297548</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9981749768004679</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0001436488091284218</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.001391737217785248</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.889804601930647e-07</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0002894481921581328</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9981749768004679</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9972746396842421</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0007857869949379596</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.001865241015204256</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.928921379885116e-09</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.432437669435075e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9972746396842421</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9995956896211567</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.126395540715753e-05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0001983167812501601</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.215550763928052e-05</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0001725741345467576</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9995956896211567</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9903011440067293</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.001090921229665491</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.004970085771376187</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.18972588479943e-06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.003632659266344045</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9903011440067293</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9969669578876718</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0004285760299963955</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.001572413136065567</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7.989531947646215e-07</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.001031253993071497</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9969669578876718</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9944136963506838</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0004289008278610471</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0047881080868014</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.532622164161638e-07</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0003688414724373872</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9944136963506838</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG734</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9928214845677682</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.006332318078845406</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0007049317523172809</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.563062751800862e-07</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0001410092947939696</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9928214845677682</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG061</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9997793434869811</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0001381195900943917</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.324772807335333e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7.583742849735988e-06</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.170545200143139e-05</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9997793434869811</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9988122292145143</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0008511177895567236</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0003221361154950752</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9.088866923446406e-08</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.442599176473385e-05</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9988122292145143</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9939545023660102</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.004109245472252983</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.001924215202530275</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.439657839582864e-06</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.597301366939105e-06</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9939545023660102</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9999420052805048</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.459345215914105e-05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.33580737159562e-05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.237494864653129e-08</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.186714758188029e-10</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9999420052805048</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9568634179608968</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.001559763630054934</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.01876490249549538</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0001275749652512417</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.02268434094830152</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9568634179608968</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9794915299313218</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01563630505299532</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.00456128250586658</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.038110725885226e-05</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0003005014025575488</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9794915299313218</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9993377231221975</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0005798792038859338</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.225184908132467e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.233785347274004e-09</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.425910499514457e-07</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9993377231221975</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG539</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9947220184015473</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.001410900917934731</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.003374157440410448</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.702245494413912e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0004659007851634024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9947220184015473</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG676</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9946722230207428</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0042158774092421</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.001032401545294985</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.768635951153167e-07</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.922116112489693e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9946722230207428</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9980058372926699</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.000316468382289525</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0008980720382171464</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.456948290659003e-07</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.000779376591994233</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9980058372926699</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9992819700791304</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0004576219172221608</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0002485953108602497</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.046541319219971e-05</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.347279594825787e-06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9992819700791304</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG197</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9995205856032029</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0001919899875237778</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0001372364806002428</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.830403561835311e-09</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0001501790982694823</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9995205856032029</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9850581576771515</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.00408818448313359</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.007703098418426859</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.827698617733842e-05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.003122282435110707</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9850581576771515</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9985663977682567</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.678359613428552e-05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0005856210932321764</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.21987086162915e-07</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0007710755552907072</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9985663977682567</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9976296411749571</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0004497228816721803</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.001461632908693247</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.983438351379975e-07</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0004584046908422812</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9976296411749571</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9955783367397184</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.001403274228158715</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.002747781028225495</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.065522697233515e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0002499527769251902</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9955783367397184</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.998696259719408</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0002772273199249833</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0007423090412305737</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.176588348033283e-08</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.000284192153552971</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.998696259719408</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG716</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9830155182762353</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.005823357148156733</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01002611797742285</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0002391576444714697</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0008958489537136139</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9830155182762353</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG264</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9995478865288842</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0001368016402161111</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0003147344325932123</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7.391924098735544e-09</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5.70006382332994e-07</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9995478865288842</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9980198850467022</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.000550651717380441</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.00125236294936174</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.348724116949242e-08</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0001770467993144513</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9980198850467022</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9931161696924224</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0002768278391534725</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.002527236348629207</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.498085720073457e-07</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.004078816311222735</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9931161696924224</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9978074599305384</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0003401603075791691</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.001487231603937584</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.802705936215313e-07</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0003649678873512979</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9978074599305384</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG184</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9999284135663121</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.280456153610989e-05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.793574194994814e-05</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.846593952716593e-09</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.44283607904722e-07</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9999284135663121</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9992113385917679</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.074718496031031e-05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0006809276069566514</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.336094330009539e-09</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.698128022047729e-05</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9992113385917679</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG359</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.996609618073748</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.002220132110943351</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.001066924768720062</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.332300998711477e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.599274558992016e-05</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.996609618073748</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9995212705925205</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.095498564754153e-05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0004505723165022622</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.564931309408318e-08</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7.126456016840688e-06</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9995212705925205</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9800899804049658</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.004124139010725281</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.009076495448776268</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.6257714763745e-05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.006693127420769</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9800899804049658</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9995706779223943</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0002135787662974712</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0001696542637555934</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.183693729929227e-09</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.608486385906216e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9995706779223943</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9965925008617003</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.000327499957518376</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.002790566451783833</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.846421064619551e-06</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0002875863079327121</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9965925008617003</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9967820676373454</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0002430673695052422</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.001499550077465646</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.068139410185756e-07</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.001475108101742657</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9967820676373454</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9971009927144955</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0008417898281798026</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.001537861832998149</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.835984821615025e-07</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0005185720258443619</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9971009927144955</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9955413529250994</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.00178409352802901</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0008566405028825597</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.407255480222216e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.001816505788508876</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9955413529250994</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9982675818186001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.000424613575865761</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0008701239249752038</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.239544169571989e-08</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0004376482851172499</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9982675818186001</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9999759360515785</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.962853300714707e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.333234421185026e-06</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.13709695474256e-10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.015672834693162e-07</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9999759360515785</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG465</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9858726310872042</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01285264588058207</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0008262279297365768</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.84296939012194e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.000441652133086977</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9858726310872042</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.99973715550728</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.016620225963954e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0001531492899171975</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.01241155612609e-08</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.944887642762946e-05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.99973715550728</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG325</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9992699215252371</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.000577367828917613</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.000148449482984891</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.134636219456011e-06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.12652664096212e-06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.9992699215252371</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG737</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9959468107145081</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.00369773701176703</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0001358426578447068</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.688237298566864e-07</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0002188407921503224</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9959468107145081</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9988677903963994</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0002500433362867433</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.000454714936398583</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.689075094206931e-08</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0004274044401642734</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9988677903963994</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9992861656530123</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0001850435880989455</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0004934233637952954</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.929881627472938e-08</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.532809627713513e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9992861656530123</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG377</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9999081751977955</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.638967355887902e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.499696838473108e-05</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.212674890737553e-08</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3.960335119283503e-07</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9999081751977955</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9967111678103907</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.000491513938119717</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.00187991539154024</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.596076809117593e-07</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.000916843252268395</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9967111678103907</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG699</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9996982601985723</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0001644947589477405</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0001337019373316165</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.296316775887631e-07</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.413473470773276e-06</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9996982601985723</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9992354450232644</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0001197576053484448</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0004475721098735507</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.114761202083568e-09</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0001972231467522147</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9992354450232644</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9994736728604209</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0001721658763473341</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0002370899672337885</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.364475618641619e-07</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0001169348484360212</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9994736728604209</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG649</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9994212889609837</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0004758173761257814</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.447822921085029e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.069882808203537e-07</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.830844539879331e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9994212889609837</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG329</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9990419918116311</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0005646622691589077</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.000343462441422242</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.775710404724054e-08</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4.980572068388324e-05</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9990419918116311</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9935355170033552</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.792647650031949e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.002249153634645436</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.00292433207055873</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.001243070814940321</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9935355170033552</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9981034012516845</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0005303054898729972</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0009591709729995436</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.261377194855968e-07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0004063961477235461</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9981034012516845</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9957284963554461</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.003388697197378891</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0008709604901821476</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.799137919182011e-06</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.046819073552411e-06</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9957284963554461</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG079</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9970291011809463</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.001014088708403336</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.001607326906193622</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.614254006110333e-08</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0003494470619168225</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9970291011809463</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG659</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9997276380711083</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0001995943078986905</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.703208086939701e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.300774039441255e-08</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.572253238312123e-05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9997276380711083</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG469</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9959644908376701</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.001760091944025644</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.002000678320563457</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.477546068617823e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0002712613516721496</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9959644908376701</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9996992776530979</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.95050211987245e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0001826144856350265</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.087428057780795e-08</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6.859196578751578e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9996992776530979</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9981908900482465</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.402196367531204e-05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.001153688678702921</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.664859856050888e-08</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0006013826607768932</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9981908900482465</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9969381847634472</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0005058067643781168</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0007893800617742209</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.522488240074053e-07</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.001766176161576338</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9969381847634472</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG279</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9992851404876992</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.000467224526719968</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0001873147269218838</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.652261814484579e-08</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6.026373604082938e-05</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9992851404876992</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9990570080673361</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0001001407713798024</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0004494422064440529</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.842476559826857e-07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0003926247071840907</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9990570080673361</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9951899763333327</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.002187304473612701</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.001722584132416289</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.889980605775717e-07</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0008999460625777857</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9951899763333327</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9998989477332254</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.446294552536544e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.640666365296526e-05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.586585672653071e-12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.018264800982578e-05</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9998989477332254</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9992840960470771</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0001731812806939987</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0003725141977373899</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.56224212395643e-09</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0001702029122495021</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9992840960470771</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG324</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9921611596965889</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.002466111954394035</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.003981076928524139</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.458324946963512e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.001377068171023172</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9921611596965889</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG390</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9990671757654653</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0001793906136284246</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0007530712199224073</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.923950108147274e-08</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.431614828820593e-07</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9990671757654653</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.997948884669829</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.450385416789348e-05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.0008852145026727478</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.050552107876746e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0010993464212226</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.997948884669829</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG587</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9963700818512282</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.001900406301743403</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.001702165890832136</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.473485776339959e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.487247041969484e-05</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9963700818512282</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9983499407782582</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0002086672372024268</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0009661774425392477</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.835143630425231e-08</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0004751461905637453</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9983499407782582</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9943404963416329</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.004397282865747587</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.001127489291666892</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.297877724016295e-08</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0001346885221752142</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9943404963416329</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG380</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9836541093412879</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.01318601935023597</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.001786784888142815</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.204855457810661e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.001361037865755046</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9836541093412879</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9993657200798969</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0001014480521321848</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0005155545858337109</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.462217577456306e-09</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.727181991956736e-05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9993657200798969</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9983357212951963</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0004476031683270713</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.001123731057834816</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.070326314164164e-08</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9.293377537868318e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9983357212951963</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9985442132880861</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0008754829468230245</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0004964483744599778</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.137605023511491e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.271778560740041e-05</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.9985442132880861</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9967181995779045</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0007772227757767084</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0018208118187163</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.863929476051096e-07</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0006835794346549074</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9967181995779045</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9994906957418535</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.000286969634658008</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001657401824870796</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.357956452322081e-08</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.658086143675553e-05</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9994906957418535</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9996440760990816</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.165315228425491e-05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0002969109856528862</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.155252342250006e-09</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.735460772891489e-05</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9996440760990816</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9983788969371566</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0001873921259555095</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.001398783212106157</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.815235628316694e-07</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.474620121884447e-05</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.9983788969371566</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9994626406650672</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0002849297563573885</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.000213450093849143</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.362275780439203e-10</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.897914849865178e-05</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9994626406650672</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG245</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9988349844816387</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0005527095171163272</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0004996509102686258</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.362228065954903e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0001112928629105013</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9988349844816387</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG164</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.998551872373589</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0002128988549825048</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.001194287963150894</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.268536582910625e-07</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4.081395461931876e-05</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.998551872373589</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9980049271899732</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.050983117438382e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0003538679158598755</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.888126086686708e-09</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.001550691174866435</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9980049271899732</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9987225265096906</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.443242568428958e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0005359474585758513</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.118744162272922e-08</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0006470124186074447</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9987225265096906</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9996910439649551</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.399367790526336e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0002128916288098315</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.366140306819084e-09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.061362189516081e-06</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9996910439649551</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9978381362205063</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.000106429705890163</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.001455420226990128</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.748188734972468e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0005942656578784422</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9978381362205063</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9952170440153857</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.003411166639358151</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.001075790355865305</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.322055316600621e-06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0002946769340741347</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9952170440153857</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9997140001853876</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0001130180840223009</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0001678622098769261</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.033177670499954e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4.086343042705843e-06</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9997140001853876</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9980070880921739</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0004199696390751226</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.001544206753348201</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.089845507744481e-07</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.802653085203547e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9980070880921739</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9998386526001126</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.102910143261403e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0001254010293545136</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.191659774731933e-06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.725609325459248e-06</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.9998386526001126</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9983902573377432</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0003398232861563997</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0004439650884259201</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.788463613647186e-07</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0008256754413132092</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9983902573377432</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG165</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9944271251959877</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.005013572512317645</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.000493336332098886</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.628711981011034e-08</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.593967247584501e-05</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9944271251959877</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9988667821067392</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0007602581370304765</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0002776644927539046</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.264278522308173e-07</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9.516883562425821e-05</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.9988667821067392</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9903808296169662</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.006317529447642866</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.003151439273616705</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8.526225798652721e-07</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0001493490391943215</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9903808296169662</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9980421763102078</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0003728456619082965</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.001554368235535248</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.699723755900849e-07</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.98398199730323e-05</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.9980421763102078</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9854305056986986</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.008778275173709656</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.004997496222195373</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.286188610605775e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.0007924367167856788</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9854305056986986</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9982742522625841</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0001412510273528718</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.001545814996732653</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.192832532519267e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.548888079764709e-05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.9982742522625841</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9959818694370761</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.001128208529940736</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.001630067891585359</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.196782841973466e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.001256657358555693</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9959818694370761</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG358</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9990692863809937</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0006478260198873742</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0002711307406327519</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.289539217687945e-08</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.172396309395902e-05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9990692863809937</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9995564745032571</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.750458741312874e-05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0001113836961346259</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.393475230927179e-08</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0002345632784427898</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9995564745032571</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG348</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9945530936087182</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.002838242835721535</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.002088929574504547</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.037529931647155e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.000518696451124092</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9945530936087182</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>RUG312</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9925278562662597</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.002050808869225447</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.003667440675911357</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.918972108652712e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.001743975216494666</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9925278562662597</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9966348843366746</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0004595242448433104</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.002799697615639968</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8.504101074037435e-07</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0001050433927347394</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.9966348843366746</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9988908631158084</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.169878851771814e-05</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.001045923584745933</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.608749052407746e-10</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.151425005290739e-05</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.9988908631158084</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>RUG265</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9969423179384823</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.001857267809480332</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0009198742607247873</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.016472946649071e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0002745235183660465</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.9969423179384823</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.999020601776981</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7.718331815353525e-05</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0008058374597325016</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.075308161398559e-07</v>
+      </c>
+      <c r="F170" t="n">
+        <v>9.606991431662964e-05</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.999020601776981</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9973263724649926</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0001380749217410118</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.001564866702125756</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.011274956890868e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0009696746361837466</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.9973263724649926</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9972818727737793</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0006867306163639353</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.001833115491036006</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8.622638829424569e-08</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0001981948924323651</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.9972818727737793</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.999036689070516</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0002193816449882562</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.0003647738869932002</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.568700178774344e-07</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.000378298527484555</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.999036689070516</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9988097699538142</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0004267564074740881</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0004086506186114895</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.291978822091589e-08</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0003547701003119298</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.9988097699538142</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9993000565150019</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0001039303050335514</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0004566779800113186</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.23720297832415e-10</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0001393350762330334</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.9993000565150019</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9986811269545343</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0003149263579443011</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.000739897497127631</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.863629030640421e-07</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0002634628274906305</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.9986811269545343</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>RUG134</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9998197965959007</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0001610432054611163</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.790010160872189e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.056245020287088e-06</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.038520093086214e-07</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.9998197965959007</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9912290821840978</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.003839876780024455</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.004029221147311152</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.185393223461031e-07</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0009016013492442288</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.9912290821840978</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9990977061347429</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0005862184658475952</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.0002252586816058667</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.313660908659499e-08</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9.077358119443872e-05</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.9990977061347429</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9983801952908365</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0004994163298652094</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.0009728675938525651</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.048887124686167e-07</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0001474158967333298</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.9983801952908365</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9975026133174453</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.000145696169319254</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.001224301741791207</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.138933464591536e-07</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.001127174878097735</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.9975026133174453</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9977266797493561</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.001925154950229024</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0002690112936317932</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.061658698452883e-09</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7.915294512431035e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.9977266797493561</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9993360437943815</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0001496726457671131</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0004994001154683908</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.54818788370614e-09</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.487689619509231e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.9993360437943815</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.986929671330934</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0007602856511200461</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.008350848109892469</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.126426304594867e-06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.003958068481748812</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.986929671330934</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>RUG182</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.992438071776728</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.004181121726338774</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.002776283470035463</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.021805683741886e-05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0005743049700602686</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.992438071776728</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9989487589818983</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0002174768862473786</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0002955188229678984</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.817641870060536e-07</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0005379635446993767</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.9989487589818983</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9985852065527128</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.00013374984651761</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.001102633382304444</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.791341981983175e-08</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0001783623050454681</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.9985852065527128</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9961665210787186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.001275864138371447</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.00216015966529558</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.737067434529224e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0003800844432690521</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.9961665210787186</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.99979784035736</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0001841094938653922</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.77460743909777e-05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.838196835095203e-08</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.756924151938854e-07</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.99979784035736</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>RUG415</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9992342145248991</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0002877627093406172</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.000408401868310046</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.301103582526964e-07</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6.949078709185559e-05</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9992342145248991</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9943878569663965</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0004637077270387551</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.00352887404292599</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.912664057533718e-06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.001616648599581109</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9943878569663965</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9993272349053226</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.977232174759362e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.0005703093414826681</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.629673278733095e-09</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.26808017739587e-05</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.9993272349053226</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9956827557386394</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.00160991375770193</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.002035075969271174</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.871856863768312e-06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0006693826775237232</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.9956827557386394</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.9981622984102487</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0009089016290325538</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.0007296300724888581</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.003280988643844e-07</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0001986695601310949</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.9981622984102487</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9987776608864186</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0007494500321599369</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0003676138515139414</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.79919652170881e-07</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0001043953102554188</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9987776608864186</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9799323765240201</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.01205939392122932</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0003873051482610677</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.007532193446693288</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8.873095979619506e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.9799323765240201</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -48341,7 +55228,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -49337,7 +56224,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -52925,7 +59812,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -54542,7 +61429,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -59048,7 +65935,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -60929,7 +67816,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -62215,7 +69102,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -66861,6 +73748,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="9" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,13 +31,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -57,12 +63,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -91,12 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6041,7 +6065,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
@@ -30662,7 +30686,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
@@ -31307,7 +31331,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
@@ -35786,7 +35810,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
@@ -41587,7 +41611,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
@@ -46897,7 +46921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46906,49 +46930,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>c__Chlorobia</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>c__Ignavibacteria</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>c__Rhodothermia</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>c__UBA10030</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
       </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>gtdb-Tk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>RUG152</t>
         </is>
@@ -46981,9 +47010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>RUG419</t>
         </is>
@@ -47016,9 +47050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>hRUG908</t>
         </is>
@@ -47051,9 +47090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>RUG459</t>
         </is>
@@ -47086,9 +47130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>RUG577</t>
         </is>
@@ -47121,9 +47170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>RUG431</t>
         </is>
@@ -47156,9 +47210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>RUG446</t>
         </is>
@@ -47191,9 +47250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>RUG318</t>
         </is>
@@ -47226,9 +47290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>RUG483</t>
         </is>
@@ -47261,9 +47330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>RUG326</t>
         </is>
@@ -47296,9 +47370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>hRUG906</t>
         </is>
@@ -47331,9 +47410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>RUG354</t>
         </is>
@@ -47366,9 +47450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>RUG339</t>
         </is>
@@ -47401,9 +47490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>RUG417</t>
         </is>
@@ -47436,9 +47530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>RUG462</t>
         </is>
@@ -47471,9 +47570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>RUG362</t>
         </is>
@@ -47506,9 +47610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>RUG500</t>
         </is>
@@ -47541,9 +47650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>RUG273</t>
         </is>
@@ -47576,9 +47690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>RUG307</t>
         </is>
@@ -47611,9 +47730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>RUG397</t>
         </is>
@@ -47646,9 +47770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>RUG569</t>
         </is>
@@ -47681,9 +47810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>RUG474</t>
         </is>
@@ -47716,9 +47850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>hRUG897</t>
         </is>
@@ -47751,9 +47890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>RUG323</t>
         </is>
@@ -47786,9 +47930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>RUG367</t>
         </is>
@@ -47821,9 +47970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>RUG538</t>
         </is>
@@ -47856,9 +48010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>RUG153</t>
         </is>
@@ -47891,9 +48050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>RUG429</t>
         </is>
@@ -47926,9 +48090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>RUG144</t>
         </is>
@@ -47961,9 +48130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>RUG423</t>
         </is>
@@ -47996,9 +48170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>RUG407</t>
         </is>
@@ -48031,9 +48210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>hRUG858</t>
         </is>
@@ -48066,9 +48250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>RUG168</t>
         </is>
@@ -48101,9 +48290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>RUG242</t>
         </is>
@@ -48136,9 +48330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>RUG106</t>
         </is>
@@ -48171,9 +48370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>RUG259</t>
         </is>
@@ -48206,9 +48410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>RUG739</t>
         </is>
@@ -48241,9 +48450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>RUG559</t>
         </is>
@@ -48276,9 +48490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>RUG488</t>
         </is>
@@ -48311,9 +48530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>RUG085</t>
         </is>
@@ -48346,9 +48570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>RUG156</t>
         </is>
@@ -48381,9 +48610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>RUG647</t>
         </is>
@@ -48416,9 +48650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>RUG733</t>
         </is>
@@ -48451,9 +48690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>RUG064</t>
         </is>
@@ -48486,9 +48730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>RUG849</t>
         </is>
@@ -48521,9 +48770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>RUG216</t>
         </is>
@@ -48556,9 +48810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>hRUG893</t>
         </is>
@@ -48591,9 +48850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>RUG200</t>
         </is>
@@ -48626,9 +48890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>RUG083</t>
         </is>
@@ -48661,9 +48930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>RUG309</t>
         </is>
@@ -48696,9 +48970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>RUG550</t>
         </is>
@@ -48731,9 +49010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>RUG360</t>
         </is>
@@ -48766,9 +49050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>RUG782</t>
         </is>
@@ -48801,9 +49090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>RUG003</t>
         </is>
@@ -48836,9 +49130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>RUG575</t>
         </is>
@@ -48871,9 +49170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>RUG535</t>
         </is>
@@ -48906,9 +49210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>RUG315</t>
         </is>
@@ -48941,9 +49250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>RUG392</t>
         </is>
@@ -48976,9 +49290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>RUG108</t>
         </is>
@@ -49011,9 +49330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>RUG541</t>
         </is>
@@ -49046,9 +49370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>RUG461</t>
         </is>
@@ -49081,9 +49410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>RUG378</t>
         </is>
@@ -49116,9 +49450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>RUG250</t>
         </is>
@@ -49151,9 +49490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>RUG546</t>
         </is>
@@ -49186,9 +49530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>RUG195</t>
         </is>
@@ -49221,9 +49570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>RUG660</t>
         </is>
@@ -49256,9 +49610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>RUG734</t>
         </is>
@@ -49291,9 +49650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>RUG061</t>
         </is>
@@ -49326,9 +49690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>RUG280</t>
         </is>
@@ -49361,9 +49730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>RUG548</t>
         </is>
@@ -49396,9 +49770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>hRUG888</t>
         </is>
@@ -49431,9 +49810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>RUG614</t>
         </is>
@@ -49466,9 +49850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>RUG278</t>
         </is>
@@ -49501,9 +49890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>RUG755</t>
         </is>
@@ -49536,9 +49930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>RUG539</t>
         </is>
@@ -49571,9 +49970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>RUG676</t>
         </is>
@@ -49606,9 +50010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>RUG742</t>
         </is>
@@ -49641,9 +50050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>RUG723</t>
         </is>
@@ -49676,9 +50090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>RUG197</t>
         </is>
@@ -49711,9 +50130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>RUG046</t>
         </is>
@@ -49746,9 +50170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>RUG445</t>
         </is>
@@ -49781,9 +50210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>RUG435</t>
         </is>
@@ -49816,9 +50250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>RUG828</t>
         </is>
@@ -49851,9 +50290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>RUG172</t>
         </is>
@@ -49886,9 +50330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>RUG716</t>
         </is>
@@ -49921,9 +50370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>RUG264</t>
         </is>
@@ -49956,9 +50410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>RUG169</t>
         </is>
@@ -49991,9 +50450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>RUG030</t>
         </is>
@@ -50026,9 +50490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>RUG037</t>
         </is>
@@ -50061,9 +50530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>RUG184</t>
         </is>
@@ -50096,9 +50570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>RUG711</t>
         </is>
@@ -50131,9 +50610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>RUG359</t>
         </is>
@@ -50166,9 +50650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>RUG788</t>
         </is>
@@ -50201,9 +50690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>RUG210</t>
         </is>
@@ -50236,9 +50730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>RUG176</t>
         </is>
@@ -50271,9 +50770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>RUG047</t>
         </is>
@@ -50306,9 +50810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>RUG310</t>
         </is>
@@ -50341,9 +50850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>RUG405</t>
         </is>
@@ -50376,9 +50890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>hRUG883</t>
         </is>
@@ -50411,9 +50930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>hRUG905</t>
         </is>
@@ -50446,9 +50970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>RUG192</t>
         </is>
@@ -50481,9 +51010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>RUG465</t>
         </is>
@@ -50516,9 +51050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>RUG697</t>
         </is>
@@ -50551,9 +51090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>RUG325</t>
         </is>
@@ -50586,9 +51130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>RUG737</t>
         </is>
@@ -50621,9 +51170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>RUG562</t>
         </is>
@@ -50656,9 +51210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="A108" s="3" t="inlineStr">
         <is>
           <t>RUG292</t>
         </is>
@@ -50691,9 +51250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+      <c r="A109" s="3" t="inlineStr">
         <is>
           <t>RUG377</t>
         </is>
@@ -50726,9 +51290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>RUG473</t>
         </is>
@@ -50761,9 +51330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>RUG699</t>
         </is>
@@ -50796,9 +51370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>RUG302</t>
         </is>
@@ -50831,9 +51410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>RUG233</t>
         </is>
@@ -50866,9 +51450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>RUG649</t>
         </is>
@@ -50901,9 +51490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>RUG329</t>
         </is>
@@ -50936,9 +51530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>RUG173</t>
         </is>
@@ -50971,9 +51570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>RUG219</t>
         </is>
@@ -51006,9 +51610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>RUG507</t>
         </is>
@@ -51041,9 +51650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>RUG079</t>
         </is>
@@ -51076,9 +51690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>RUG659</t>
         </is>
@@ -51111,9 +51730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>RUG469</t>
         </is>
@@ -51146,9 +51770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
+      <c r="A122" s="3" t="inlineStr">
         <is>
           <t>RUG582</t>
         </is>
@@ -51181,9 +51810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>RUG418</t>
         </is>
@@ -51216,9 +51850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>RUG685</t>
         </is>
@@ -51251,9 +51890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
         <is>
           <t>RUG279</t>
         </is>
@@ -51286,9 +51930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
         <is>
           <t>RUG759</t>
         </is>
@@ -51321,9 +51970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
+      <c r="A127" s="3" t="inlineStr">
         <is>
           <t>RUG691</t>
         </is>
@@ -51356,9 +52010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
         <is>
           <t>RUG056</t>
         </is>
@@ -51391,9 +52050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
         <is>
           <t>RUG124</t>
         </is>
@@ -51426,9 +52090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
+      <c r="A130" s="3" t="inlineStr">
         <is>
           <t>RUG324</t>
         </is>
@@ -51461,9 +52130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
         <is>
           <t>RUG390</t>
         </is>
@@ -51496,9 +52170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
+      <c r="A132" s="3" t="inlineStr">
         <is>
           <t>RUG160</t>
         </is>
@@ -51531,9 +52210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
         <is>
           <t>RUG587</t>
         </is>
@@ -51566,9 +52250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>RUG624</t>
         </is>
@@ -51601,9 +52290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
+      <c r="A135" s="3" t="inlineStr">
         <is>
           <t>RUG482</t>
         </is>
@@ -51636,9 +52330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
+      <c r="A136" s="3" t="inlineStr">
         <is>
           <t>RUG380</t>
         </is>
@@ -51671,9 +52370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
+      <c r="A137" s="3" t="inlineStr">
         <is>
           <t>RUG209</t>
         </is>
@@ -51706,9 +52410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>RUG812</t>
         </is>
@@ -51741,9 +52450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="inlineStr">
+      <c r="A139" s="3" t="inlineStr">
         <is>
           <t>RUG602</t>
         </is>
@@ -51776,9 +52490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="inlineStr">
+      <c r="A140" s="3" t="inlineStr">
         <is>
           <t>RUG101</t>
         </is>
@@ -51811,9 +52530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
+      <c r="A141" s="3" t="inlineStr">
         <is>
           <t>RUG693</t>
         </is>
@@ -51846,9 +52570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
         <is>
           <t>RUG749</t>
         </is>
@@ -51881,9 +52610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
         <is>
           <t>RUG107</t>
         </is>
@@ -51916,9 +52650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>RUG519</t>
         </is>
@@ -51951,9 +52690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>RUG245</t>
         </is>
@@ -51986,9 +52730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>RUG164</t>
         </is>
@@ -52021,9 +52770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
+      <c r="A147" s="3" t="inlineStr">
         <is>
           <t>RUG178</t>
         </is>
@@ -52056,9 +52810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
         <is>
           <t>RUG414</t>
         </is>
@@ -52091,9 +52850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>RUG058</t>
         </is>
@@ -52126,9 +52890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>RUG771</t>
         </is>
@@ -52161,9 +52930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
+      <c r="A151" s="3" t="inlineStr">
         <is>
           <t>RUG837</t>
         </is>
@@ -52196,9 +52970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
         <is>
           <t>RUG827</t>
         </is>
@@ -52231,9 +53010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
         <is>
           <t>hRUG857</t>
         </is>
@@ -52266,9 +53050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>RUG843</t>
         </is>
@@ -52301,9 +53090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="inlineStr">
+      <c r="A155" s="3" t="inlineStr">
         <is>
           <t>RUG689</t>
         </is>
@@ -52336,9 +53130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
+      <c r="A156" s="3" t="inlineStr">
         <is>
           <t>RUG165</t>
         </is>
@@ -52371,9 +53170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>RUG451</t>
         </is>
@@ -52406,9 +53210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
+      <c r="A158" s="3" t="inlineStr">
         <is>
           <t>RUG536</t>
         </is>
@@ -52441,9 +53250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
+      <c r="A159" s="3" t="inlineStr">
         <is>
           <t>RUG506</t>
         </is>
@@ -52476,9 +53290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>RUG606</t>
         </is>
@@ -52511,9 +53330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>RUG766</t>
         </is>
@@ -52546,9 +53370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>RUG059</t>
         </is>
@@ -52581,9 +53410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>RUG358</t>
         </is>
@@ -52616,9 +53450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
+      <c r="A164" s="3" t="inlineStr">
         <is>
           <t>RUG753</t>
         </is>
@@ -52651,9 +53490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>RUG348</t>
         </is>
@@ -52686,9 +53530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>RUG312</t>
         </is>
@@ -52721,9 +53570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>RUG071</t>
         </is>
@@ -52756,9 +53610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>RUG620</t>
         </is>
@@ -52791,9 +53650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>RUG265</t>
         </is>
@@ -52826,9 +53690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>RUG785</t>
         </is>
@@ -52861,9 +53730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>RUG249</t>
         </is>
@@ -52896,9 +53770,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>RUG668</t>
         </is>
@@ -52931,9 +53810,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>RUG430</t>
         </is>
@@ -52966,9 +53850,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
+      <c r="A174" s="3" t="inlineStr">
         <is>
           <t>RUG424</t>
         </is>
@@ -53001,9 +53890,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>RUG224</t>
         </is>
@@ -53036,9 +53930,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>RUG443</t>
         </is>
@@ -53071,9 +53970,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="inlineStr">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>RUG134</t>
         </is>
@@ -53106,9 +54010,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="inlineStr">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>RUG228</t>
         </is>
@@ -53141,9 +54050,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>RUG136</t>
         </is>
@@ -53176,9 +54090,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>RUG599</t>
         </is>
@@ -53211,9 +54130,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>hRUG913</t>
         </is>
@@ -53246,9 +54170,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>RUG496</t>
         </is>
@@ -53281,9 +54210,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="inlineStr">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>RUG204</t>
         </is>
@@ -53316,9 +54250,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>RUG533</t>
         </is>
@@ -53351,9 +54290,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>RUG182</t>
         </is>
@@ -53386,9 +54330,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>RUG413</t>
         </is>
@@ -53421,9 +54370,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>RUG839</t>
         </is>
@@ -53456,9 +54410,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
+      <c r="A188" s="3" t="inlineStr">
         <is>
           <t>RUG403</t>
         </is>
@@ -53491,9 +54450,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
         <is>
           <t>RUG137</t>
         </is>
@@ -53526,9 +54490,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
         <is>
           <t>RUG415</t>
         </is>
@@ -53561,9 +54530,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
+      <c r="A191" s="3" t="inlineStr">
         <is>
           <t>RUG571</t>
         </is>
@@ -53596,9 +54570,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="inlineStr">
+      <c r="A192" s="3" t="inlineStr">
         <is>
           <t>RUG317</t>
         </is>
@@ -53631,9 +54610,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
+      <c r="A193" s="3" t="inlineStr">
         <is>
           <t>RUG815</t>
         </is>
@@ -53666,9 +54650,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
         <is>
           <t>RUG069</t>
         </is>
@@ -53701,9 +54690,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t>RUG073</t>
         </is>
@@ -53736,9 +54730,14 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="inlineStr">
+      <c r="A196" s="3" t="inlineStr">
         <is>
           <t>RUG544</t>
         </is>
@@ -53767,6 +54766,11 @@
         </is>
       </c>
       <c r="I196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -61441,7 +62445,7 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/outputs/p__Bacteroidota.xlsx
+++ b/outputs/p__Bacteroidota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B771BD8-C1A2-9B42-ACC5-6D0E9ADE77D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAB4D2-DC27-2E4B-9093-045249C84211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="329">
   <si>
     <t>Row</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>rejection-f</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1378,11 +1381,11 @@
     <col min="2" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,14 +1404,17 @@
       <c r="F1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1427,14 +1433,17 @@
       <c r="F2">
         <v>5.8428777113072606E-5</v>
       </c>
-      <c r="G2" t="s">
-        <v>326</v>
+      <c r="G2">
+        <v>0.99990192189810068</v>
       </c>
       <c r="H2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,14 +1462,17 @@
       <c r="F3">
         <v>1.3564816042704494E-5</v>
       </c>
-      <c r="G3" t="s">
-        <v>326</v>
+      <c r="G3">
+        <v>0.99996062070236447</v>
       </c>
       <c r="H3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1479,14 +1491,17 @@
       <c r="F4">
         <v>6.4522812921638851E-6</v>
       </c>
-      <c r="G4" t="s">
-        <v>326</v>
+      <c r="G4">
+        <v>0.99978126212801621</v>
       </c>
       <c r="H4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1505,14 +1520,17 @@
       <c r="F5">
         <v>2.4257857058541847E-3</v>
       </c>
-      <c r="G5" t="s">
-        <v>326</v>
+      <c r="G5">
+        <v>0.99558753722277704</v>
       </c>
       <c r="H5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1531,14 +1549,17 @@
       <c r="F6">
         <v>8.1173835082932465E-6</v>
       </c>
-      <c r="G6" t="s">
-        <v>326</v>
+      <c r="G6">
+        <v>0.9999788943896819</v>
       </c>
       <c r="H6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1557,14 +1578,17 @@
       <c r="F7">
         <v>2.4714447592735552E-3</v>
       </c>
-      <c r="G7" t="s">
-        <v>326</v>
+      <c r="G7">
+        <v>0.99571292923910426</v>
       </c>
       <c r="H7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1583,14 +1607,17 @@
       <c r="F8">
         <v>7.6146912693979136E-5</v>
       </c>
-      <c r="G8" t="s">
-        <v>326</v>
+      <c r="G8">
+        <v>0.99973456905965485</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1609,14 +1636,17 @@
       <c r="F9">
         <v>2.4929992428731302E-7</v>
       </c>
-      <c r="G9" t="s">
-        <v>326</v>
+      <c r="G9">
+        <v>0.99999782696769612</v>
       </c>
       <c r="H9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1635,14 +1665,17 @@
       <c r="F10">
         <v>3.7126940558239978E-4</v>
       </c>
-      <c r="G10" t="s">
-        <v>326</v>
+      <c r="G10">
+        <v>0.99947384514897342</v>
       </c>
       <c r="H10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1661,14 +1694,17 @@
       <c r="F11">
         <v>2.9818851055898387E-5</v>
       </c>
-      <c r="G11" t="s">
-        <v>326</v>
+      <c r="G11">
+        <v>0.99968620125806695</v>
       </c>
       <c r="H11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1687,14 +1723,17 @@
       <c r="F12">
         <v>3.2942990483229417E-4</v>
       </c>
-      <c r="G12" t="s">
-        <v>326</v>
+      <c r="G12">
+        <v>0.99960651174322379</v>
       </c>
       <c r="H12" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1713,14 +1752,17 @@
       <c r="F13">
         <v>8.4304636931920583E-7</v>
       </c>
-      <c r="G13" t="s">
-        <v>326</v>
+      <c r="G13">
+        <v>0.99994243844882813</v>
       </c>
       <c r="H13" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1739,14 +1781,17 @@
       <c r="F14">
         <v>8.2441986271838629E-6</v>
       </c>
-      <c r="G14" t="s">
-        <v>326</v>
+      <c r="G14">
+        <v>0.99976423842289863</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1765,14 +1810,17 @@
       <c r="F15">
         <v>1.7305918479910241E-4</v>
       </c>
-      <c r="G15" t="s">
-        <v>326</v>
+      <c r="G15">
+        <v>0.99980075712897232</v>
       </c>
       <c r="H15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1791,14 +1839,17 @@
       <c r="F16">
         <v>2.0361158133765821E-5</v>
       </c>
-      <c r="G16" t="s">
-        <v>326</v>
+      <c r="G16">
+        <v>0.99911230498090808</v>
       </c>
       <c r="H16" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,14 +1868,17 @@
       <c r="F17">
         <v>5.6956971729459072E-4</v>
       </c>
-      <c r="G17" t="s">
-        <v>326</v>
+      <c r="G17">
+        <v>0.99905179655430054</v>
       </c>
       <c r="H17" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,14 +1897,17 @@
       <c r="F18">
         <v>2.1929367229822424E-5</v>
       </c>
-      <c r="G18" t="s">
-        <v>326</v>
+      <c r="G18">
+        <v>0.99815630535060917</v>
       </c>
       <c r="H18" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1869,14 +1926,17 @@
       <c r="F19">
         <v>9.7631574426375316E-6</v>
       </c>
-      <c r="G19" t="s">
-        <v>326</v>
+      <c r="G19">
+        <v>0.99977645821611727</v>
       </c>
       <c r="H19" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1895,14 +1955,17 @@
       <c r="F20">
         <v>4.5398700433141082E-4</v>
       </c>
-      <c r="G20" t="s">
-        <v>326</v>
+      <c r="G20">
+        <v>0.99180187475182002</v>
       </c>
       <c r="H20" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1921,14 +1984,17 @@
       <c r="F21">
         <v>3.1471106414648306E-4</v>
       </c>
-      <c r="G21" t="s">
-        <v>326</v>
+      <c r="G21">
+        <v>0.99184266165559254</v>
       </c>
       <c r="H21" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1947,14 +2013,17 @@
       <c r="F22">
         <v>1.3697099127425174E-4</v>
       </c>
-      <c r="G22" t="s">
-        <v>326</v>
+      <c r="G22">
+        <v>0.99832438241852639</v>
       </c>
       <c r="H22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1973,14 +2042,17 @@
       <c r="F23">
         <v>2.0179534961026714E-5</v>
       </c>
-      <c r="G23" t="s">
-        <v>326</v>
+      <c r="G23">
+        <v>0.99991761988492545</v>
       </c>
       <c r="H23" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,14 +2071,17 @@
       <c r="F24">
         <v>8.3193440243195917E-5</v>
       </c>
-      <c r="G24" t="s">
-        <v>326</v>
+      <c r="G24">
+        <v>0.99257600928426237</v>
       </c>
       <c r="H24" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,14 +2100,17 @@
       <c r="F25">
         <v>3.9833434928758289E-6</v>
       </c>
-      <c r="G25" t="s">
-        <v>326</v>
+      <c r="G25">
+        <v>0.99998328676044179</v>
       </c>
       <c r="H25" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,14 +2129,17 @@
       <c r="F26">
         <v>1.6556925279029316E-4</v>
       </c>
-      <c r="G26" t="s">
-        <v>326</v>
+      <c r="G26">
+        <v>0.9971929509375369</v>
       </c>
       <c r="H26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2077,14 +2158,17 @@
       <c r="F27">
         <v>6.5335847351657133E-6</v>
       </c>
-      <c r="G27" t="s">
-        <v>326</v>
+      <c r="G27">
+        <v>0.99988822626480911</v>
       </c>
       <c r="H27" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2103,14 +2187,17 @@
       <c r="F28">
         <v>4.0261993268517729E-6</v>
       </c>
-      <c r="G28" t="s">
-        <v>326</v>
+      <c r="G28">
+        <v>0.99969974803323836</v>
       </c>
       <c r="H28" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2129,14 +2216,17 @@
       <c r="F29">
         <v>8.6179087454377876E-5</v>
       </c>
-      <c r="G29" t="s">
-        <v>326</v>
+      <c r="G29">
+        <v>0.99840491059134628</v>
       </c>
       <c r="H29" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,14 +2245,17 @@
       <c r="F30">
         <v>4.5224549798621763E-5</v>
       </c>
-      <c r="G30" t="s">
-        <v>326</v>
+      <c r="G30">
+        <v>0.99839693912990557</v>
       </c>
       <c r="H30" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2181,14 +2274,17 @@
       <c r="F31">
         <v>1.8303232770824529E-6</v>
       </c>
-      <c r="G31" t="s">
-        <v>326</v>
+      <c r="G31">
+        <v>0.99999750309079238</v>
       </c>
       <c r="H31" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2207,14 +2303,17 @@
       <c r="F32">
         <v>5.4970383361186326E-5</v>
       </c>
-      <c r="G32" t="s">
-        <v>326</v>
+      <c r="G32">
+        <v>0.99989570120929594</v>
       </c>
       <c r="H32" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2233,14 +2332,17 @@
       <c r="F33">
         <v>7.8274430381205907E-6</v>
       </c>
-      <c r="G33" t="s">
-        <v>326</v>
+      <c r="G33">
+        <v>0.99961618402845198</v>
       </c>
       <c r="H33" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2259,14 +2361,17 @@
       <c r="F34">
         <v>4.1484233348234299E-4</v>
       </c>
-      <c r="G34" t="s">
-        <v>326</v>
+      <c r="G34">
+        <v>0.99946141036345726</v>
       </c>
       <c r="H34" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2285,14 +2390,17 @@
       <c r="F35">
         <v>3.9738081688808202E-5</v>
       </c>
-      <c r="G35" t="s">
-        <v>326</v>
+      <c r="G35">
+        <v>0.99987834507301421</v>
       </c>
       <c r="H35" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2311,14 +2419,17 @@
       <c r="F36">
         <v>4.3445311193188434E-5</v>
       </c>
-      <c r="G36" t="s">
-        <v>326</v>
+      <c r="G36">
+        <v>0.99993764252233952</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2337,14 +2448,17 @@
       <c r="F37">
         <v>7.3938871894672154E-6</v>
       </c>
-      <c r="G37" t="s">
-        <v>326</v>
+      <c r="G37">
+        <v>0.99999050261250644</v>
       </c>
       <c r="H37" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2363,14 +2477,17 @@
       <c r="F38">
         <v>1.0373972536816032E-4</v>
       </c>
-      <c r="G38" t="s">
-        <v>326</v>
+      <c r="G38">
+        <v>0.99986131320957861</v>
       </c>
       <c r="H38" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,14 +2506,17 @@
       <c r="F39">
         <v>5.5074704347620242E-5</v>
       </c>
-      <c r="G39" t="s">
-        <v>326</v>
+      <c r="G39">
+        <v>0.99991706079774367</v>
       </c>
       <c r="H39" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2415,14 +2535,17 @@
       <c r="F40">
         <v>8.1007251725289008E-7</v>
       </c>
-      <c r="G40" t="s">
-        <v>326</v>
+      <c r="G40">
+        <v>0.99992575802706574</v>
       </c>
       <c r="H40" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2441,14 +2564,17 @@
       <c r="F41">
         <v>1.7927209893507773E-5</v>
       </c>
-      <c r="G41" t="s">
-        <v>326</v>
+      <c r="G41">
+        <v>0.99998011483705795</v>
       </c>
       <c r="H41" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2467,14 +2593,17 @@
       <c r="F42">
         <v>4.0241372832767673E-5</v>
       </c>
-      <c r="G42" t="s">
-        <v>326</v>
+      <c r="G42">
+        <v>0.99995048217064408</v>
       </c>
       <c r="H42" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2493,14 +2622,17 @@
       <c r="F43">
         <v>7.7532925305074877E-6</v>
       </c>
-      <c r="G43" t="s">
-        <v>326</v>
+      <c r="G43">
+        <v>0.99980283260284064</v>
       </c>
       <c r="H43" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,14 +2651,17 @@
       <c r="F44">
         <v>5.5187023685355032E-4</v>
       </c>
-      <c r="G44" t="s">
-        <v>326</v>
+      <c r="G44">
+        <v>0.99065124358463241</v>
       </c>
       <c r="H44" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2545,14 +2680,17 @@
       <c r="F45">
         <v>1.6417671682275475E-4</v>
       </c>
-      <c r="G45" t="s">
-        <v>326</v>
+      <c r="G45">
+        <v>0.99982812537505283</v>
       </c>
       <c r="H45" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2571,14 +2709,17 @@
       <c r="F46">
         <v>8.6369338851366223E-5</v>
       </c>
-      <c r="G46" t="s">
-        <v>326</v>
+      <c r="G46">
+        <v>0.99983620751562141</v>
       </c>
       <c r="H46" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2597,14 +2738,17 @@
       <c r="F47">
         <v>1.1156586547573401E-5</v>
       </c>
-      <c r="G47" t="s">
-        <v>326</v>
+      <c r="G47">
+        <v>0.99998712850530591</v>
       </c>
       <c r="H47" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2623,14 +2767,17 @@
       <c r="F48">
         <v>1.2203879596752831E-6</v>
       </c>
-      <c r="G48" t="s">
-        <v>326</v>
+      <c r="G48">
+        <v>0.99986500869166739</v>
       </c>
       <c r="H48" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2649,14 +2796,17 @@
       <c r="F49">
         <v>1.4703844970084544E-5</v>
       </c>
-      <c r="G49" t="s">
-        <v>326</v>
+      <c r="G49">
+        <v>0.99995521570779433</v>
       </c>
       <c r="H49" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2675,14 +2825,17 @@
       <c r="F50">
         <v>2.7975266429462377E-5</v>
       </c>
-      <c r="G50" t="s">
-        <v>326</v>
+      <c r="G50">
+        <v>0.99929191771447856</v>
       </c>
       <c r="H50" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2701,14 +2854,17 @@
       <c r="F51">
         <v>1.6585488708667164E-6</v>
       </c>
-      <c r="G51" t="s">
-        <v>326</v>
+      <c r="G51">
+        <v>0.9999938801667837</v>
       </c>
       <c r="H51" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2727,14 +2883,17 @@
       <c r="F52">
         <v>1.2346372586421339E-4</v>
       </c>
-      <c r="G52" t="s">
-        <v>326</v>
+      <c r="G52">
+        <v>0.99986184874219908</v>
       </c>
       <c r="H52" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2753,14 +2912,17 @@
       <c r="F53">
         <v>8.5608866793362832E-5</v>
       </c>
-      <c r="G53" t="s">
-        <v>326</v>
+      <c r="G53">
+        <v>0.99930345985273594</v>
       </c>
       <c r="H53" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2779,14 +2941,17 @@
       <c r="F54">
         <v>1.1235859259274367E-4</v>
       </c>
-      <c r="G54" t="s">
-        <v>326</v>
+      <c r="G54">
+        <v>0.99987366935336586</v>
       </c>
       <c r="H54" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2805,14 +2970,17 @@
       <c r="F55">
         <v>2.0563045729581403E-3</v>
       </c>
-      <c r="G55" t="s">
-        <v>326</v>
+      <c r="G55">
+        <v>0.97765249692455591</v>
       </c>
       <c r="H55" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2831,14 +2999,17 @@
       <c r="F56">
         <v>1.5670000584169649E-3</v>
       </c>
-      <c r="G56" t="s">
-        <v>326</v>
+      <c r="G56">
+        <v>0.99842038429229063</v>
       </c>
       <c r="H56" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2857,14 +3028,17 @@
       <c r="F57">
         <v>4.0232539645448267E-4</v>
       </c>
-      <c r="G57" t="s">
-        <v>326</v>
+      <c r="G57">
+        <v>0.99959374800943634</v>
       </c>
       <c r="H57" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2883,14 +3057,17 @@
       <c r="F58">
         <v>8.7198982279615084E-6</v>
       </c>
-      <c r="G58" t="s">
-        <v>326</v>
+      <c r="G58">
+        <v>0.99994550173231689</v>
       </c>
       <c r="H58" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2909,14 +3086,17 @@
       <c r="F59">
         <v>1.5356301419967741E-5</v>
       </c>
-      <c r="G59" t="s">
-        <v>326</v>
+      <c r="G59">
+        <v>0.99998072123305703</v>
       </c>
       <c r="H59" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2935,14 +3115,17 @@
       <c r="F60">
         <v>6.202480309794934E-7</v>
       </c>
-      <c r="G60" t="s">
-        <v>326</v>
+      <c r="G60">
+        <v>0.99999843113829878</v>
       </c>
       <c r="H60" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2961,14 +3144,17 @@
       <c r="F61">
         <v>5.1741355720591649E-4</v>
       </c>
-      <c r="G61" t="s">
-        <v>326</v>
+      <c r="G61">
+        <v>0.99860419040688708</v>
       </c>
       <c r="H61" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2987,14 +3173,17 @@
       <c r="F62">
         <v>3.685489985697346E-7</v>
       </c>
-      <c r="G62" t="s">
-        <v>326</v>
+      <c r="G62">
+        <v>0.9978024851345717</v>
       </c>
       <c r="H62" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,14 +3202,17 @@
       <c r="F63">
         <v>2.2522641234864484E-4</v>
       </c>
-      <c r="G63" t="s">
-        <v>326</v>
+      <c r="G63">
+        <v>0.99962652739756841</v>
       </c>
       <c r="H63" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3039,14 +3231,17 @@
       <c r="F64">
         <v>7.4251425670072559E-6</v>
       </c>
-      <c r="G64" t="s">
-        <v>326</v>
+      <c r="G64">
+        <v>0.99986215097000108</v>
       </c>
       <c r="H64" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3065,14 +3260,17 @@
       <c r="F65">
         <v>3.0407635482156771E-4</v>
       </c>
-      <c r="G65" t="s">
-        <v>326</v>
+      <c r="G65">
+        <v>0.99803018787271425</v>
       </c>
       <c r="H65" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3091,14 +3289,17 @@
       <c r="F66">
         <v>1.8804779693574786E-7</v>
       </c>
-      <c r="G66" t="s">
-        <v>326</v>
+      <c r="G66">
+        <v>0.99999459742786001</v>
       </c>
       <c r="H66" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3117,14 +3318,17 @@
       <c r="F67">
         <v>7.0086522379420813E-5</v>
       </c>
-      <c r="G67" t="s">
-        <v>326</v>
+      <c r="G67">
+        <v>0.99991365170231483</v>
       </c>
       <c r="H67" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3143,14 +3347,17 @@
       <c r="F68">
         <v>1.0343696326196201E-4</v>
       </c>
-      <c r="G68" t="s">
-        <v>326</v>
+      <c r="G68">
+        <v>0.99988518255394987</v>
       </c>
       <c r="H68" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3169,14 +3376,17 @@
       <c r="F69">
         <v>1.2351673588948425E-6</v>
       </c>
-      <c r="G69" t="s">
-        <v>326</v>
+      <c r="G69">
+        <v>0.99996719751039476</v>
       </c>
       <c r="H69" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,14 +3405,17 @@
       <c r="F70">
         <v>2.8498689371731422E-3</v>
       </c>
-      <c r="G70" t="s">
-        <v>326</v>
+      <c r="G70">
+        <v>0.9949205659453072</v>
       </c>
       <c r="H70" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3221,14 +3434,17 @@
       <c r="F71">
         <v>7.8427986112565681E-5</v>
       </c>
-      <c r="G71" t="s">
-        <v>326</v>
+      <c r="G71">
+        <v>0.99833789028180764</v>
       </c>
       <c r="H71" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3247,14 +3463,17 @@
       <c r="F72">
         <v>3.625634248130085E-6</v>
       </c>
-      <c r="G72" t="s">
-        <v>326</v>
+      <c r="G72">
+        <v>0.99969611185457374</v>
       </c>
       <c r="H72" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3273,14 +3492,17 @@
       <c r="F73">
         <v>1.7032308517049705E-5</v>
       </c>
-      <c r="G73" t="s">
-        <v>326</v>
+      <c r="G73">
+        <v>0.99994953128221675</v>
       </c>
       <c r="H73" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,14 +3521,17 @@
       <c r="F74">
         <v>7.6213164403376142E-4</v>
       </c>
-      <c r="G74" t="s">
-        <v>326</v>
+      <c r="G74">
+        <v>0.99906719418437828</v>
       </c>
       <c r="H74" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3325,14 +3550,17 @@
       <c r="F75">
         <v>4.0883765153973395E-4</v>
       </c>
-      <c r="G75" t="s">
-        <v>326</v>
+      <c r="G75">
+        <v>0.99922351671653975</v>
       </c>
       <c r="H75" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3351,14 +3579,17 @@
       <c r="F76">
         <v>2.2257770476598046E-6</v>
       </c>
-      <c r="G76" t="s">
-        <v>326</v>
+      <c r="G76">
+        <v>0.994724270561542</v>
       </c>
       <c r="H76" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3377,14 +3608,17 @@
       <c r="F77">
         <v>1.6497491867840035E-5</v>
       </c>
-      <c r="G77" t="s">
-        <v>326</v>
+      <c r="G77">
+        <v>0.99831890435925963</v>
       </c>
       <c r="H77" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3403,14 +3637,17 @@
       <c r="F78">
         <v>6.2634196022119867E-6</v>
       </c>
-      <c r="G78" t="s">
-        <v>326</v>
+      <c r="G78">
+        <v>0.99964315605603116</v>
       </c>
       <c r="H78" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3429,14 +3666,17 @@
       <c r="F79">
         <v>5.2652980637905484E-5</v>
       </c>
-      <c r="G79" t="s">
-        <v>326</v>
+      <c r="G79">
+        <v>0.99992107025176336</v>
       </c>
       <c r="H79" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3455,14 +3695,17 @@
       <c r="F80">
         <v>7.3070950028508892E-4</v>
       </c>
-      <c r="G80" t="s">
-        <v>326</v>
+      <c r="G80">
+        <v>0.99925106562179933</v>
       </c>
       <c r="H80" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -3481,14 +3724,17 @@
       <c r="F81">
         <v>1.2875245666032298E-3</v>
       </c>
-      <c r="G81" t="s">
-        <v>326</v>
+      <c r="G81">
+        <v>0.99862500870268101</v>
       </c>
       <c r="H81" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -3507,14 +3753,17 @@
       <c r="F82">
         <v>1.8249857772483885E-6</v>
       </c>
-      <c r="G82" t="s">
-        <v>326</v>
+      <c r="G82">
+        <v>0.99993599922046883</v>
       </c>
       <c r="H82" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3533,14 +3782,17 @@
       <c r="F83">
         <v>2.2220196236339635E-5</v>
       </c>
-      <c r="G83" t="s">
-        <v>326</v>
+      <c r="G83">
+        <v>0.99997225841577209</v>
       </c>
       <c r="H83" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3559,14 +3811,17 @@
       <c r="F84">
         <v>3.001503305562507E-5</v>
       </c>
-      <c r="G84" t="s">
-        <v>326</v>
+      <c r="G84">
+        <v>0.99687091175189879</v>
       </c>
       <c r="H84" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -3585,14 +3840,17 @@
       <c r="F85">
         <v>9.2945786300350499E-5</v>
       </c>
-      <c r="G85" t="s">
-        <v>326</v>
+      <c r="G85">
+        <v>0.99989475423524088</v>
       </c>
       <c r="H85" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -3611,14 +3869,17 @@
       <c r="F86">
         <v>1.1838273339382065E-4</v>
       </c>
-      <c r="G86" t="s">
-        <v>326</v>
+      <c r="G86">
+        <v>0.99986383613258389</v>
       </c>
       <c r="H86" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -3637,14 +3898,17 @@
       <c r="F87">
         <v>7.4058765086411587E-4</v>
       </c>
-      <c r="G87" t="s">
-        <v>326</v>
+      <c r="G87">
+        <v>0.99925230672017251</v>
       </c>
       <c r="H87" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -3663,14 +3927,17 @@
       <c r="F88">
         <v>1.4191621391339472E-4</v>
       </c>
-      <c r="G88" t="s">
-        <v>326</v>
+      <c r="G88">
+        <v>0.99985362315278814</v>
       </c>
       <c r="H88" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -3689,14 +3956,17 @@
       <c r="F89">
         <v>1.7463859522920633E-4</v>
       </c>
-      <c r="G89" t="s">
-        <v>326</v>
+      <c r="G89">
+        <v>0.99934820282257808</v>
       </c>
       <c r="H89" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -3715,14 +3985,17 @@
       <c r="F90">
         <v>4.9737791582739246E-4</v>
       </c>
-      <c r="G90" t="s">
-        <v>326</v>
+      <c r="G90">
+        <v>0.99740042179981814</v>
       </c>
       <c r="H90" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,14 +4014,17 @@
       <c r="F91">
         <v>2.7809049129562588E-5</v>
       </c>
-      <c r="G91" t="s">
-        <v>326</v>
+      <c r="G91">
+        <v>0.99996705947037945</v>
       </c>
       <c r="H91" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -3767,14 +4043,17 @@
       <c r="F92">
         <v>7.2653471541485224E-6</v>
       </c>
-      <c r="G92" t="s">
-        <v>326</v>
+      <c r="G92">
+        <v>0.99981011632532368</v>
       </c>
       <c r="H92" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -3793,14 +4072,17 @@
       <c r="F93">
         <v>1.3806780427066546E-3</v>
       </c>
-      <c r="G93" t="s">
-        <v>326</v>
+      <c r="G93">
+        <v>0.99189722004728031</v>
       </c>
       <c r="H93" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -3819,14 +4101,17 @@
       <c r="F94">
         <v>2.7306881228890156E-6</v>
       </c>
-      <c r="G94" t="s">
-        <v>326</v>
+      <c r="G94">
+        <v>0.99999618972195459</v>
       </c>
       <c r="H94" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -3845,14 +4130,17 @@
       <c r="F95">
         <v>1.0590023828757852E-6</v>
       </c>
-      <c r="G95" t="s">
-        <v>326</v>
+      <c r="G95">
+        <v>0.99993803089450761</v>
       </c>
       <c r="H95" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -3871,14 +4159,17 @@
       <c r="F96">
         <v>9.4449590922499819E-6</v>
       </c>
-      <c r="G96" t="s">
-        <v>326</v>
+      <c r="G96">
+        <v>0.9999069547119962</v>
       </c>
       <c r="H96" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -3897,14 +4188,17 @@
       <c r="F97">
         <v>1.1988393493525869E-3</v>
       </c>
-      <c r="G97" t="s">
-        <v>326</v>
+      <c r="G97">
+        <v>0.99874801657562196</v>
       </c>
       <c r="H97" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -3923,14 +4217,17 @@
       <c r="F98">
         <v>1.1492006383500447E-4</v>
       </c>
-      <c r="G98" t="s">
-        <v>326</v>
+      <c r="G98">
+        <v>0.99764063850421392</v>
       </c>
       <c r="H98" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -3949,14 +4246,17 @@
       <c r="F99">
         <v>7.1375190972141679E-5</v>
       </c>
-      <c r="G99" t="s">
-        <v>326</v>
+      <c r="G99">
+        <v>0.99990794052343845</v>
       </c>
       <c r="H99" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -3975,14 +4275,17 @@
       <c r="F100">
         <v>2.1361156159790183E-4</v>
       </c>
-      <c r="G100" t="s">
-        <v>326</v>
+      <c r="G100">
+        <v>0.99895611840796705</v>
       </c>
       <c r="H100" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4001,14 +4304,17 @@
       <c r="F101">
         <v>1.8765115351463576E-4</v>
       </c>
-      <c r="G101" t="s">
-        <v>326</v>
+      <c r="G101">
+        <v>0.99890291210556259</v>
       </c>
       <c r="H101" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4027,14 +4333,17 @@
       <c r="F102">
         <v>1.0916045254771027E-5</v>
       </c>
-      <c r="G102" t="s">
-        <v>326</v>
+      <c r="G102">
+        <v>0.99993356403412792</v>
       </c>
       <c r="H102" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4053,14 +4362,17 @@
       <c r="F103">
         <v>3.7290979899867164E-5</v>
       </c>
-      <c r="G103" t="s">
-        <v>326</v>
+      <c r="G103">
+        <v>0.99985880260969562</v>
       </c>
       <c r="H103" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4079,14 +4391,17 @@
       <c r="F104">
         <v>1.7785520527715183E-5</v>
       </c>
-      <c r="G104" t="s">
-        <v>326</v>
+      <c r="G104">
+        <v>0.99997954133489897</v>
       </c>
       <c r="H104" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4105,14 +4420,17 @@
       <c r="F105">
         <v>2.6923320860570727E-5</v>
       </c>
-      <c r="G105" t="s">
-        <v>326</v>
+      <c r="G105">
+        <v>0.99997039808089694</v>
       </c>
       <c r="H105" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4131,14 +4449,17 @@
       <c r="F106">
         <v>3.7470467819863799E-5</v>
       </c>
-      <c r="G106" t="s">
-        <v>326</v>
+      <c r="G106">
+        <v>0.99995570630332897</v>
       </c>
       <c r="H106" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4157,14 +4478,17 @@
       <c r="F107">
         <v>1.5844641974953135E-4</v>
       </c>
-      <c r="G107" t="s">
-        <v>326</v>
+      <c r="G107">
+        <v>0.99973601357186825</v>
       </c>
       <c r="H107" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4183,14 +4507,17 @@
       <c r="F108">
         <v>8.8838366574805808E-5</v>
       </c>
-      <c r="G108" t="s">
-        <v>326</v>
+      <c r="G108">
+        <v>0.99961777446637456</v>
       </c>
       <c r="H108" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4209,14 +4536,17 @@
       <c r="F109">
         <v>1.2777720860937956E-4</v>
       </c>
-      <c r="G109" t="s">
-        <v>326</v>
+      <c r="G109">
+        <v>0.99921350864389313</v>
       </c>
       <c r="H109" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4235,14 +4565,17 @@
       <c r="F110">
         <v>1.9739257995026393E-5</v>
       </c>
-      <c r="G110" t="s">
-        <v>326</v>
+      <c r="G110">
+        <v>0.99942886357897687</v>
       </c>
       <c r="H110" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4261,14 +4594,17 @@
       <c r="F111">
         <v>2.8030877251616155E-4</v>
       </c>
-      <c r="G111" t="s">
-        <v>326</v>
+      <c r="G111">
+        <v>0.9990743851137619</v>
       </c>
       <c r="H111" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4287,14 +4623,17 @@
       <c r="F112">
         <v>7.1609103524019643E-6</v>
       </c>
-      <c r="G112" t="s">
-        <v>326</v>
+      <c r="G112">
+        <v>0.9998084014698615</v>
       </c>
       <c r="H112" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4313,14 +4652,17 @@
       <c r="F113">
         <v>7.5921417383713885E-3</v>
       </c>
-      <c r="G113" t="s">
-        <v>326</v>
+      <c r="G113">
+        <v>0.99223275249586218</v>
       </c>
       <c r="H113" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4339,14 +4681,17 @@
       <c r="F114">
         <v>3.6629750292436407E-4</v>
       </c>
-      <c r="G114" t="s">
-        <v>326</v>
+      <c r="G114">
+        <v>0.99962404523852277</v>
       </c>
       <c r="H114" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -4365,14 +4710,17 @@
       <c r="F115">
         <v>7.5351360263150557E-6</v>
       </c>
-      <c r="G115" t="s">
-        <v>326</v>
+      <c r="G115">
+        <v>0.99995262822542763</v>
       </c>
       <c r="H115" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -4391,14 +4739,17 @@
       <c r="F116">
         <v>2.4216040533158325E-5</v>
       </c>
-      <c r="G116" t="s">
-        <v>326</v>
+      <c r="G116">
+        <v>0.9998464694159126</v>
       </c>
       <c r="H116" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -4417,14 +4768,17 @@
       <c r="F117">
         <v>1.2667559422915079E-5</v>
       </c>
-      <c r="G117" t="s">
-        <v>326</v>
+      <c r="G117">
+        <v>0.99996524478878823</v>
       </c>
       <c r="H117" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -4443,14 +4797,17 @@
       <c r="F118">
         <v>3.0745574537743469E-5</v>
       </c>
-      <c r="G118" t="s">
-        <v>326</v>
+      <c r="G118">
+        <v>0.99996232947864427</v>
       </c>
       <c r="H118" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -4469,14 +4826,17 @@
       <c r="F119">
         <v>4.9451351453158017E-5</v>
       </c>
-      <c r="G119" t="s">
-        <v>326</v>
+      <c r="G119">
+        <v>0.99988756332799722</v>
       </c>
       <c r="H119" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -4495,14 +4855,17 @@
       <c r="F120">
         <v>4.0601393829887885E-4</v>
       </c>
-      <c r="G120" t="s">
-        <v>326</v>
+      <c r="G120">
+        <v>0.99959021020541972</v>
       </c>
       <c r="H120" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -4521,14 +4884,17 @@
       <c r="F121">
         <v>6.5041783833073104E-4</v>
       </c>
-      <c r="G121" t="s">
-        <v>326</v>
+      <c r="G121">
+        <v>0.99743701613101854</v>
       </c>
       <c r="H121" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -4547,14 +4913,17 @@
       <c r="F122">
         <v>1.479082688001557E-4</v>
       </c>
-      <c r="G122" t="s">
-        <v>326</v>
+      <c r="G122">
+        <v>0.99981535808420396</v>
       </c>
       <c r="H122" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -4573,14 +4942,17 @@
       <c r="F123">
         <v>4.8119858922227238E-5</v>
       </c>
-      <c r="G123" t="s">
-        <v>326</v>
+      <c r="G123">
+        <v>0.99985766480819793</v>
       </c>
       <c r="H123" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -4599,14 +4971,17 @@
       <c r="F124">
         <v>4.957123125287372E-5</v>
       </c>
-      <c r="G124" t="s">
-        <v>326</v>
+      <c r="G124">
+        <v>0.99992644633672301</v>
       </c>
       <c r="H124" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -4625,14 +5000,17 @@
       <c r="F125">
         <v>2.6147783235661812E-4</v>
       </c>
-      <c r="G125" t="s">
-        <v>326</v>
+      <c r="G125">
+        <v>0.99972058496651461</v>
       </c>
       <c r="H125" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -4651,14 +5029,17 @@
       <c r="F126">
         <v>1.611307113423338E-4</v>
       </c>
-      <c r="G126" t="s">
-        <v>326</v>
+      <c r="G126">
+        <v>0.99982547323909265</v>
       </c>
       <c r="H126" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -4677,14 +5058,17 @@
       <c r="F127">
         <v>1.9335747357595516E-4</v>
       </c>
-      <c r="G127" t="s">
-        <v>326</v>
+      <c r="G127">
+        <v>0.999761204245873</v>
       </c>
       <c r="H127" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -4703,14 +5087,17 @@
       <c r="F128">
         <v>1.6845797478394128E-5</v>
       </c>
-      <c r="G128" t="s">
-        <v>326</v>
+      <c r="G128">
+        <v>0.99972957080982106</v>
       </c>
       <c r="H128" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -4729,14 +5116,17 @@
       <c r="F129">
         <v>8.2922142538405954E-6</v>
       </c>
-      <c r="G129" t="s">
-        <v>326</v>
+      <c r="G129">
+        <v>0.99964017353416623</v>
       </c>
       <c r="H129" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -4755,14 +5145,17 @@
       <c r="F130">
         <v>1.4405459844899946E-4</v>
       </c>
-      <c r="G130" t="s">
-        <v>326</v>
+      <c r="G130">
+        <v>0.99977952942203752</v>
       </c>
       <c r="H130" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -4781,14 +5174,17 @@
       <c r="F131">
         <v>1.5140239088411364E-5</v>
       </c>
-      <c r="G131" t="s">
-        <v>326</v>
+      <c r="G131">
+        <v>0.99554043324143404</v>
       </c>
       <c r="H131" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -4807,14 +5203,17 @@
       <c r="F132">
         <v>4.4411503211647562E-5</v>
       </c>
-      <c r="G132" t="s">
-        <v>326</v>
+      <c r="G132">
+        <v>0.99855032108495412</v>
       </c>
       <c r="H132" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -4833,14 +5232,17 @@
       <c r="F133">
         <v>4.4100341592323222E-5</v>
       </c>
-      <c r="G133" t="s">
-        <v>326</v>
+      <c r="G133">
+        <v>0.99988683400610234</v>
       </c>
       <c r="H133" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -4859,14 +5261,17 @@
       <c r="F134">
         <v>9.079493296319708E-5</v>
       </c>
-      <c r="G134" t="s">
-        <v>326</v>
+      <c r="G134">
+        <v>0.99936090064434457</v>
       </c>
       <c r="H134" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -4885,14 +5290,17 @@
       <c r="F135">
         <v>4.2435303494527045E-4</v>
       </c>
-      <c r="G135" t="s">
-        <v>326</v>
+      <c r="G135">
+        <v>0.99904373917951728</v>
       </c>
       <c r="H135" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -4911,14 +5319,17 @@
       <c r="F136">
         <v>5.6506854960078595E-4</v>
       </c>
-      <c r="G136" t="s">
-        <v>326</v>
+      <c r="G136">
+        <v>0.99943029644906578</v>
       </c>
       <c r="H136" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -4937,14 +5348,17 @@
       <c r="F137">
         <v>6.2606308469077427E-7</v>
       </c>
-      <c r="G137" t="s">
-        <v>326</v>
+      <c r="G137">
+        <v>0.99999527612445194</v>
       </c>
       <c r="H137" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -4963,14 +5377,17 @@
       <c r="F138">
         <v>8.2432745200616592E-7</v>
       </c>
-      <c r="G138" t="s">
-        <v>326</v>
+      <c r="G138">
+        <v>0.99988495271356825</v>
       </c>
       <c r="H138" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -4989,14 +5406,17 @@
       <c r="F139">
         <v>4.5902988585477059E-5</v>
       </c>
-      <c r="G139" t="s">
-        <v>326</v>
+      <c r="G139">
+        <v>0.99896038191768732</v>
       </c>
       <c r="H139" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -5015,14 +5435,17 @@
       <c r="F140">
         <v>9.2228218790035519E-6</v>
       </c>
-      <c r="G140" t="s">
-        <v>326</v>
+      <c r="G140">
+        <v>0.99833391130828286</v>
       </c>
       <c r="H140" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -5041,14 +5464,17 @@
       <c r="F141">
         <v>3.0850600397111698E-5</v>
       </c>
-      <c r="G141" t="s">
-        <v>326</v>
+      <c r="G141">
+        <v>0.99993752680440162</v>
       </c>
       <c r="H141" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -5067,14 +5493,17 @@
       <c r="F142">
         <v>2.4406074801085339E-5</v>
       </c>
-      <c r="G142" t="s">
-        <v>326</v>
+      <c r="G142">
+        <v>0.9998544047251624</v>
       </c>
       <c r="H142" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -5093,14 +5522,17 @@
       <c r="F143">
         <v>1.238651136771893E-6</v>
       </c>
-      <c r="G143" t="s">
-        <v>326</v>
+      <c r="G143">
+        <v>0.99999838237685934</v>
       </c>
       <c r="H143" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -5119,14 +5551,17 @@
       <c r="F144">
         <v>1.0715418312261833E-4</v>
       </c>
-      <c r="G144" t="s">
-        <v>326</v>
+      <c r="G144">
+        <v>0.99943791548578553</v>
       </c>
       <c r="H144" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -5145,14 +5580,17 @@
       <c r="F145">
         <v>3.3650168207504936E-5</v>
       </c>
-      <c r="G145" t="s">
-        <v>326</v>
+      <c r="G145">
+        <v>0.99956452094360115</v>
       </c>
       <c r="H145" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -5171,14 +5609,17 @@
       <c r="F146">
         <v>2.0391484080445137E-4</v>
       </c>
-      <c r="G146" t="s">
-        <v>326</v>
+      <c r="G146">
+        <v>0.99940739167778225</v>
       </c>
       <c r="H146" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -5197,14 +5638,17 @@
       <c r="F147">
         <v>1.4178590117086497E-4</v>
       </c>
-      <c r="G147" t="s">
-        <v>326</v>
+      <c r="G147">
+        <v>0.99938953092496696</v>
       </c>
       <c r="H147" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -5223,14 +5667,17 @@
       <c r="F148">
         <v>6.1804609917977268E-5</v>
       </c>
-      <c r="G148" t="s">
-        <v>326</v>
+      <c r="G148">
+        <v>0.99935068454458365</v>
       </c>
       <c r="H148" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -5249,14 +5696,17 @@
       <c r="F149">
         <v>1.030615607660972E-5</v>
       </c>
-      <c r="G149" t="s">
-        <v>326</v>
+      <c r="G149">
+        <v>0.99988913631343079</v>
       </c>
       <c r="H149" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -5275,14 +5725,17 @@
       <c r="F150">
         <v>1.3649744871639864E-5</v>
       </c>
-      <c r="G150" t="s">
-        <v>326</v>
+      <c r="G150">
+        <v>0.99998209238788749</v>
       </c>
       <c r="H150" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -5301,14 +5754,17 @@
       <c r="F151">
         <v>6.4340556387471679E-6</v>
       </c>
-      <c r="G151" t="s">
-        <v>326</v>
+      <c r="G151">
+        <v>0.99999166704040643</v>
       </c>
       <c r="H151" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -5327,14 +5783,17 @@
       <c r="F152">
         <v>2.2232161213646067E-5</v>
       </c>
-      <c r="G152" t="s">
-        <v>326</v>
+      <c r="G152">
+        <v>0.99992086738809061</v>
       </c>
       <c r="H152" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -5353,14 +5812,17 @@
       <c r="F153">
         <v>1.2442278418874662E-6</v>
       </c>
-      <c r="G153" t="s">
-        <v>326</v>
+      <c r="G153">
+        <v>0.99996057058792054</v>
       </c>
       <c r="H153" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -5379,14 +5841,17 @@
       <c r="F154">
         <v>1.5375657487658003E-3</v>
       </c>
-      <c r="G154" t="s">
-        <v>326</v>
+      <c r="G154">
+        <v>0.99843157596859722</v>
       </c>
       <c r="H154" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -5405,14 +5870,17 @@
       <c r="F155">
         <v>8.8343302470337962E-6</v>
       </c>
-      <c r="G155" t="s">
-        <v>326</v>
+      <c r="G155">
+        <v>0.99992970150229687</v>
       </c>
       <c r="H155" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -5431,14 +5899,17 @@
       <c r="F156">
         <v>1.4200470980843198E-3</v>
       </c>
-      <c r="G156" t="s">
-        <v>326</v>
+      <c r="G156">
+        <v>0.99497343868525367</v>
       </c>
       <c r="H156" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -5457,14 +5928,17 @@
       <c r="F157">
         <v>7.2973394365847345E-5</v>
       </c>
-      <c r="G157" t="s">
-        <v>326</v>
+      <c r="G157">
+        <v>0.99992153977179099</v>
       </c>
       <c r="H157" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -5483,14 +5957,17 @@
       <c r="F158">
         <v>1.9292563975121699E-6</v>
       </c>
-      <c r="G158" t="s">
-        <v>326</v>
+      <c r="G158">
+        <v>0.99994523879099639</v>
       </c>
       <c r="H158" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -5509,14 +5986,17 @@
       <c r="F159">
         <v>3.792063511064017E-6</v>
       </c>
-      <c r="G159" t="s">
-        <v>326</v>
+      <c r="G159">
+        <v>0.99984363898546569</v>
       </c>
       <c r="H159" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -5535,14 +6015,17 @@
       <c r="F160">
         <v>3.7043772876210972E-5</v>
       </c>
-      <c r="G160" t="s">
-        <v>326</v>
+      <c r="G160">
+        <v>0.99882986501439952</v>
       </c>
       <c r="H160" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -5561,14 +6044,17 @@
       <c r="F161">
         <v>1.8086621664751464E-6</v>
       </c>
-      <c r="G161" t="s">
-        <v>326</v>
+      <c r="G161">
+        <v>0.99648613221592119</v>
       </c>
       <c r="H161" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -5587,14 +6073,17 @@
       <c r="F162">
         <v>2.0431731873781921E-4</v>
       </c>
-      <c r="G162" t="s">
-        <v>326</v>
+      <c r="G162">
+        <v>0.99923633906211096</v>
       </c>
       <c r="H162" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -5613,14 +6102,17 @@
       <c r="F163">
         <v>7.9773209945893197E-4</v>
       </c>
-      <c r="G163" t="s">
-        <v>326</v>
+      <c r="G163">
+        <v>0.99697536177433754</v>
       </c>
       <c r="H163" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -5639,14 +6131,17 @@
       <c r="F164">
         <v>9.7968466591360614E-4</v>
       </c>
-      <c r="G164" t="s">
-        <v>326</v>
+      <c r="G164">
+        <v>0.99390411943124013</v>
       </c>
       <c r="H164" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -5665,14 +6160,17 @@
       <c r="F165">
         <v>8.4266568707977259E-5</v>
       </c>
-      <c r="G165" t="s">
-        <v>326</v>
+      <c r="G165">
+        <v>0.99954928918146413</v>
       </c>
       <c r="H165" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -5691,14 +6189,17 @@
       <c r="F166">
         <v>2.0935921960245631E-5</v>
       </c>
-      <c r="G166" t="s">
-        <v>326</v>
+      <c r="G166">
+        <v>0.99968335894893157</v>
       </c>
       <c r="H166" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -5717,14 +6218,17 @@
       <c r="F167">
         <v>3.6410280813803355E-5</v>
       </c>
-      <c r="G167" t="s">
-        <v>326</v>
+      <c r="G167">
+        <v>0.99961496086557522</v>
       </c>
       <c r="H167" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -5743,14 +6247,17 @@
       <c r="F168">
         <v>2.5023532774128784E-6</v>
       </c>
-      <c r="G168" t="s">
-        <v>326</v>
+      <c r="G168">
+        <v>0.99995755094131356</v>
       </c>
       <c r="H168" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -5769,14 +6276,17 @@
       <c r="F169">
         <v>2.6505589791497239E-3</v>
       </c>
-      <c r="G169" t="s">
-        <v>326</v>
+      <c r="G169">
+        <v>0.99734893380730338</v>
       </c>
       <c r="H169" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -5795,14 +6305,17 @@
       <c r="F170">
         <v>1.4511558901855506E-4</v>
       </c>
-      <c r="G170" t="s">
-        <v>326</v>
+      <c r="G170">
+        <v>0.99838573193547908</v>
       </c>
       <c r="H170" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -5821,14 +6334,17 @@
       <c r="F171">
         <v>1.998533777176388E-5</v>
       </c>
-      <c r="G171" t="s">
-        <v>326</v>
+      <c r="G171">
+        <v>0.99983844992893733</v>
       </c>
       <c r="H171" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -5847,14 +6363,17 @@
       <c r="F172">
         <v>2.3261079035077044E-3</v>
       </c>
-      <c r="G172" t="s">
-        <v>326</v>
+      <c r="G172">
+        <v>0.99754404513282413</v>
       </c>
       <c r="H172" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -5873,14 +6392,17 @@
       <c r="F173">
         <v>1.7339361393378867E-4</v>
       </c>
-      <c r="G173" t="s">
-        <v>326</v>
+      <c r="G173">
+        <v>0.99875372554307185</v>
       </c>
       <c r="H173" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -5899,14 +6421,17 @@
       <c r="F174">
         <v>1.9412500972071288E-5</v>
       </c>
-      <c r="G174" t="s">
-        <v>326</v>
+      <c r="G174">
+        <v>0.99991992065247526</v>
       </c>
       <c r="H174" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -5925,14 +6450,17 @@
       <c r="F175">
         <v>9.6365851018335239E-7</v>
       </c>
-      <c r="G175" t="s">
-        <v>326</v>
+      <c r="G175">
+        <v>0.9856822383317968</v>
       </c>
       <c r="H175" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -5951,14 +6479,17 @@
       <c r="F176">
         <v>7.1259693906090021E-5</v>
       </c>
-      <c r="G176" t="s">
-        <v>326</v>
+      <c r="G176">
+        <v>0.99741427416845441</v>
       </c>
       <c r="H176" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -5977,14 +6508,17 @@
       <c r="F177">
         <v>4.5530869374684152E-4</v>
       </c>
-      <c r="G177" t="s">
-        <v>326</v>
+      <c r="G177">
+        <v>0.99954298964196586</v>
       </c>
       <c r="H177" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -6003,14 +6537,17 @@
       <c r="F178">
         <v>1.1907715363350217E-4</v>
       </c>
-      <c r="G178" t="s">
-        <v>326</v>
+      <c r="G178">
+        <v>0.99987935388311089</v>
       </c>
       <c r="H178" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -6029,14 +6566,17 @@
       <c r="F179">
         <v>9.0843861888127405E-4</v>
       </c>
-      <c r="G179" t="s">
-        <v>326</v>
+      <c r="G179">
+        <v>0.99904835702139361</v>
       </c>
       <c r="H179" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -6055,14 +6595,17 @@
       <c r="F180">
         <v>1.6211283056345073E-4</v>
       </c>
-      <c r="G180" t="s">
-        <v>326</v>
+      <c r="G180">
+        <v>0.99970583449068895</v>
       </c>
       <c r="H180" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -6081,14 +6624,17 @@
       <c r="F181">
         <v>1.0490174879093189E-5</v>
       </c>
-      <c r="G181" t="s">
-        <v>326</v>
+      <c r="G181">
+        <v>0.99989343742759706</v>
       </c>
       <c r="H181" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -6107,14 +6653,17 @@
       <c r="F182">
         <v>2.2192722505696504E-6</v>
       </c>
-      <c r="G182" t="s">
-        <v>326</v>
+      <c r="G182">
+        <v>0.99998965222181457</v>
       </c>
       <c r="H182" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -6133,14 +6682,17 @@
       <c r="F183">
         <v>3.9954103512408913E-4</v>
       </c>
-      <c r="G183" t="s">
-        <v>326</v>
+      <c r="G183">
+        <v>0.99958340741144835</v>
       </c>
       <c r="H183" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -6159,14 +6711,17 @@
       <c r="F184">
         <v>7.670544443858544E-5</v>
       </c>
-      <c r="G184" t="s">
-        <v>326</v>
+      <c r="G184">
+        <v>0.99911874265915224</v>
       </c>
       <c r="H184" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -6185,14 +6740,17 @@
       <c r="F185">
         <v>4.8292541442731331E-4</v>
       </c>
-      <c r="G185" t="s">
-        <v>326</v>
+      <c r="G185">
+        <v>0.99948647250349221</v>
       </c>
       <c r="H185" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -6211,14 +6769,17 @@
       <c r="F186">
         <v>2.0475805855578821E-4</v>
       </c>
-      <c r="G186" t="s">
-        <v>326</v>
+      <c r="G186">
+        <v>0.99977852512456633</v>
       </c>
       <c r="H186" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -6237,14 +6798,17 @@
       <c r="F187">
         <v>8.6522449781912422E-5</v>
       </c>
-      <c r="G187" t="s">
-        <v>326</v>
+      <c r="G187">
+        <v>0.99991303567614009</v>
       </c>
       <c r="H187" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -6263,14 +6827,17 @@
       <c r="F188">
         <v>1.6251864730366933E-5</v>
       </c>
-      <c r="G188" t="s">
-        <v>326</v>
+      <c r="G188">
+        <v>0.999149045080164</v>
       </c>
       <c r="H188" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -6289,14 +6856,17 @@
       <c r="F189">
         <v>5.673435431442081E-4</v>
       </c>
-      <c r="G189" t="s">
-        <v>326</v>
+      <c r="G189">
+        <v>0.99859943916697358</v>
       </c>
       <c r="H189" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -6315,14 +6885,17 @@
       <c r="F190">
         <v>1.6227952909202454E-4</v>
       </c>
-      <c r="G190" t="s">
-        <v>326</v>
+      <c r="G190">
+        <v>0.9997976235859154</v>
       </c>
       <c r="H190" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -6341,14 +6914,17 @@
       <c r="F191">
         <v>1.2733000909217827E-3</v>
       </c>
-      <c r="G191" t="s">
-        <v>326</v>
+      <c r="G191">
+        <v>0.99871870121792206</v>
       </c>
       <c r="H191" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -6367,14 +6943,17 @@
       <c r="F192">
         <v>4.7574864046316641E-3</v>
       </c>
-      <c r="G192" t="s">
-        <v>326</v>
+      <c r="G192">
+        <v>0.99511384124046354</v>
       </c>
       <c r="H192" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -6393,14 +6972,17 @@
       <c r="F193">
         <v>1.8071571664550868E-5</v>
       </c>
-      <c r="G193" t="s">
-        <v>326</v>
+      <c r="G193">
+        <v>0.99984654254061434</v>
       </c>
       <c r="H193" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -6419,14 +7001,17 @@
       <c r="F194">
         <v>1.1583661406045888E-3</v>
       </c>
-      <c r="G194" t="s">
-        <v>326</v>
+      <c r="G194">
+        <v>0.99883818769260035</v>
       </c>
       <c r="H194" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -6445,14 +7030,17 @@
       <c r="F195">
         <v>1.4592573463369951E-2</v>
       </c>
-      <c r="G195" t="s">
-        <v>326</v>
+      <c r="G195">
+        <v>0.93996978611899307</v>
       </c>
       <c r="H195" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -6471,14 +7059,17 @@
       <c r="F196">
         <v>1.0928649402123367E-4</v>
       </c>
-      <c r="G196" t="s">
-        <v>326</v>
+      <c r="G196">
+        <v>0.99943574693754977</v>
       </c>
       <c r="H196" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -6497,14 +7088,17 @@
       <c r="F197">
         <v>1.9573621882064952E-4</v>
       </c>
-      <c r="G197" t="s">
-        <v>326</v>
+      <c r="G197">
+        <v>0.99969842940672926</v>
       </c>
       <c r="H197" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -6523,14 +7117,17 @@
       <c r="F198">
         <v>8.8028776740663303E-5</v>
       </c>
-      <c r="G198" t="s">
-        <v>326</v>
+      <c r="G198">
+        <v>0.99990255858258426</v>
       </c>
       <c r="H198" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -6549,14 +7146,17 @@
       <c r="F199">
         <v>2.9379813544160886E-3</v>
       </c>
-      <c r="G199" t="s">
-        <v>326</v>
+      <c r="G199">
+        <v>0.99546788818558651</v>
       </c>
       <c r="H199" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -6575,14 +7175,17 @@
       <c r="F200">
         <v>1.3167586075900521E-5</v>
       </c>
-      <c r="G200" t="s">
-        <v>326</v>
+      <c r="G200">
+        <v>0.99990358159433368</v>
       </c>
       <c r="H200" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -6601,14 +7204,17 @@
       <c r="F201">
         <v>4.6952256713607478E-5</v>
       </c>
-      <c r="G201" t="s">
-        <v>326</v>
+      <c r="G201">
+        <v>0.99742252133247711</v>
       </c>
       <c r="H201" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -6627,14 +7233,17 @@
       <c r="F202">
         <v>2.0140405216431768E-4</v>
       </c>
-      <c r="G202" t="s">
-        <v>326</v>
+      <c r="G202">
+        <v>0.9996832285787689</v>
       </c>
       <c r="H202" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -6653,14 +7262,17 @@
       <c r="F203">
         <v>9.5350477945496335E-6</v>
       </c>
-      <c r="G203" t="s">
-        <v>326</v>
+      <c r="G203">
+        <v>0.99993185945233343</v>
       </c>
       <c r="H203" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -6679,14 +7291,17 @@
       <c r="F204">
         <v>4.0901849816269237E-6</v>
       </c>
-      <c r="G204" t="s">
-        <v>326</v>
+      <c r="G204">
+        <v>0.99989557484032821</v>
       </c>
       <c r="H204" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -6705,14 +7320,17 @@
       <c r="F205">
         <v>8.4158289409284306E-4</v>
       </c>
-      <c r="G205" t="s">
-        <v>326</v>
+      <c r="G205">
+        <v>0.99661432062559441</v>
       </c>
       <c r="H205" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -6731,14 +7349,17 @@
       <c r="F206">
         <v>1.671157559303888E-6</v>
       </c>
-      <c r="G206" t="s">
-        <v>326</v>
+      <c r="G206">
+        <v>0.9999753428989816</v>
       </c>
       <c r="H206" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -6757,14 +7378,17 @@
       <c r="F207">
         <v>2.6739361016717999E-3</v>
       </c>
-      <c r="G207" t="s">
-        <v>326</v>
+      <c r="G207">
+        <v>0.99730772234371601</v>
       </c>
       <c r="H207" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -6783,14 +7407,17 @@
       <c r="F208">
         <v>3.1124849614304056E-5</v>
       </c>
-      <c r="G208" t="s">
-        <v>326</v>
+      <c r="G208">
+        <v>0.9999589232372158</v>
       </c>
       <c r="H208" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -6809,14 +7436,17 @@
       <c r="F209">
         <v>3.1096354584269324E-5</v>
       </c>
-      <c r="G209" t="s">
-        <v>326</v>
+      <c r="G209">
+        <v>0.99963096950023589</v>
       </c>
       <c r="H209" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -6835,14 +7465,17 @@
       <c r="F210">
         <v>6.9185008134652081E-4</v>
       </c>
-      <c r="G210" t="s">
-        <v>326</v>
+      <c r="G210">
+        <v>0.9969336662050321</v>
       </c>
       <c r="H210" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -6861,14 +7494,17 @@
       <c r="F211">
         <v>2.8519723059809821E-6</v>
       </c>
-      <c r="G211" t="s">
-        <v>326</v>
+      <c r="G211">
+        <v>0.97587087741194667</v>
       </c>
       <c r="H211" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -6887,14 +7523,17 @@
       <c r="F212">
         <v>3.4440840378274833E-4</v>
       </c>
-      <c r="G212" t="s">
-        <v>326</v>
+      <c r="G212">
+        <v>0.99964605829470587</v>
       </c>
       <c r="H212" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -6913,14 +7552,17 @@
       <c r="F213">
         <v>4.3475493870838666E-4</v>
       </c>
-      <c r="G213" t="s">
-        <v>326</v>
+      <c r="G213">
+        <v>0.99956030110322391</v>
       </c>
       <c r="H213" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -6939,14 +7581,17 @@
       <c r="F214">
         <v>2.7204932127952142E-5</v>
       </c>
-      <c r="G214" t="s">
-        <v>326</v>
+      <c r="G214">
+        <v>0.99987509636413296</v>
       </c>
       <c r="H214" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -6965,14 +7610,17 @@
       <c r="F215">
         <v>1.456338892988353E-2</v>
       </c>
-      <c r="G215" t="s">
-        <v>326</v>
+      <c r="G215">
+        <v>0.98543071551977202</v>
       </c>
       <c r="H215" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -6991,14 +7639,17 @@
       <c r="F216">
         <v>3.3211753572388262E-4</v>
       </c>
-      <c r="G216" t="s">
-        <v>326</v>
+      <c r="G216">
+        <v>0.99964878774645261</v>
       </c>
       <c r="H216" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -7017,14 +7668,17 @@
       <c r="F217">
         <v>2.2560225277187386E-7</v>
       </c>
-      <c r="G217" t="s">
-        <v>326</v>
+      <c r="G217">
+        <v>0.99999918552133815</v>
       </c>
       <c r="H217" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -7043,14 +7697,17 @@
       <c r="F218">
         <v>1.1717747659845059E-3</v>
       </c>
-      <c r="G218" t="s">
-        <v>326</v>
+      <c r="G218">
+        <v>0.99882805189836621</v>
       </c>
       <c r="H218" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -7069,14 +7726,17 @@
       <c r="F219">
         <v>6.7821458082488147E-5</v>
       </c>
-      <c r="G219" t="s">
-        <v>326</v>
+      <c r="G219">
+        <v>0.99992259664790384</v>
       </c>
       <c r="H219" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -7095,14 +7755,17 @@
       <c r="F220">
         <v>4.201320056633106E-5</v>
       </c>
-      <c r="G220" t="s">
-        <v>326</v>
+      <c r="G220">
+        <v>0.9998419200742904</v>
       </c>
       <c r="H220" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -7121,14 +7784,17 @@
       <c r="F221">
         <v>1.8694376687510242E-4</v>
       </c>
-      <c r="G221" t="s">
-        <v>326</v>
+      <c r="G221">
+        <v>0.99973022751589991</v>
       </c>
       <c r="H221" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -7147,14 +7813,17 @@
       <c r="F222">
         <v>8.3790050354107021E-4</v>
       </c>
-      <c r="G222" t="s">
-        <v>326</v>
+      <c r="G222">
+        <v>0.99839154207317193</v>
       </c>
       <c r="H222" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -7173,14 +7842,17 @@
       <c r="F223">
         <v>1.1517433021999258E-5</v>
       </c>
-      <c r="G223" t="s">
-        <v>326</v>
+      <c r="G223">
+        <v>0.99524191336559831</v>
       </c>
       <c r="H223" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -7199,14 +7871,17 @@
       <c r="F224">
         <v>3.040028522136698E-6</v>
       </c>
-      <c r="G224" t="s">
-        <v>326</v>
+      <c r="G224">
+        <v>0.99998878589564044</v>
       </c>
       <c r="H224" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -7225,14 +7900,17 @@
       <c r="F225">
         <v>6.3527235011398366E-5</v>
       </c>
-      <c r="G225" t="s">
-        <v>326</v>
+      <c r="G225">
+        <v>0.999298017134022</v>
       </c>
       <c r="H225" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -7251,14 +7929,17 @@
       <c r="F226">
         <v>8.4917795866099629E-4</v>
       </c>
-      <c r="G226" t="s">
-        <v>326</v>
+      <c r="G226">
+        <v>0.99904332779231175</v>
       </c>
       <c r="H226" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -7277,14 +7958,17 @@
       <c r="F227">
         <v>2.4485002732732572E-5</v>
       </c>
-      <c r="G227" t="s">
-        <v>326</v>
+      <c r="G227">
+        <v>0.99994757612678353</v>
       </c>
       <c r="H227" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -7303,14 +7987,17 @@
       <c r="F228">
         <v>6.2043213047176121E-5</v>
       </c>
-      <c r="G228" t="s">
-        <v>326</v>
+      <c r="G228">
+        <v>0.99986660473067501</v>
       </c>
       <c r="H228" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -7329,14 +8016,17 @@
       <c r="F229">
         <v>4.2635516473419705E-4</v>
       </c>
-      <c r="G229" t="s">
-        <v>326</v>
+      <c r="G229">
+        <v>0.99865666797432362</v>
       </c>
       <c r="H229" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -7355,14 +8045,17 @@
       <c r="F230">
         <v>3.9260604264141101E-3</v>
       </c>
-      <c r="G230" t="s">
-        <v>326</v>
+      <c r="G230">
+        <v>0.99431475971375904</v>
       </c>
       <c r="H230" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -7381,14 +8074,17 @@
       <c r="F231">
         <v>3.3510874955850248E-4</v>
       </c>
-      <c r="G231" t="s">
-        <v>326</v>
+      <c r="G231">
+        <v>0.99964830543590033</v>
       </c>
       <c r="H231" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -7407,14 +8103,17 @@
       <c r="F232">
         <v>1.7070798189607812E-4</v>
       </c>
-      <c r="G232" t="s">
-        <v>326</v>
+      <c r="G232">
+        <v>0.99980257542993289</v>
       </c>
       <c r="H232" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -7433,14 +8132,17 @@
       <c r="F233">
         <v>1.5050792570820921E-5</v>
       </c>
-      <c r="G233" t="s">
-        <v>326</v>
+      <c r="G233">
+        <v>0.99503100217668117</v>
       </c>
       <c r="H233" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -7459,14 +8161,17 @@
       <c r="F234">
         <v>1.0930633375085883E-4</v>
       </c>
-      <c r="G234" t="s">
-        <v>326</v>
+      <c r="G234">
+        <v>0.99986848740999423</v>
       </c>
       <c r="H234" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -7485,14 +8190,17 @@
       <c r="F235">
         <v>1.051755094739139E-3</v>
       </c>
-      <c r="G235" t="s">
-        <v>326</v>
+      <c r="G235">
+        <v>0.99693476456364549</v>
       </c>
       <c r="H235" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -7511,14 +8219,17 @@
       <c r="F236">
         <v>7.9528423366461356E-5</v>
       </c>
-      <c r="G236" t="s">
-        <v>326</v>
+      <c r="G236">
+        <v>0.99927559726803306</v>
       </c>
       <c r="H236" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -7537,14 +8248,17 @@
       <c r="F237">
         <v>2.8343148508263005E-5</v>
       </c>
-      <c r="G237" t="s">
-        <v>326</v>
+      <c r="G237">
+        <v>0.999544399195613</v>
       </c>
       <c r="H237" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -7563,14 +8277,17 @@
       <c r="F238">
         <v>3.6237960565889914E-4</v>
       </c>
-      <c r="G238" t="s">
-        <v>326</v>
+      <c r="G238">
+        <v>0.99835190539971996</v>
       </c>
       <c r="H238" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
@@ -7589,14 +8306,17 @@
       <c r="F239">
         <v>1.3033059290191962E-5</v>
       </c>
-      <c r="G239" t="s">
-        <v>326</v>
+      <c r="G239">
+        <v>0.99087705700034412</v>
       </c>
       <c r="H239" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -7615,14 +8335,17 @@
       <c r="F240">
         <v>4.2404891629968809E-4</v>
       </c>
-      <c r="G240" t="s">
-        <v>326</v>
+      <c r="G240">
+        <v>0.99816902044766187</v>
       </c>
       <c r="H240" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -7641,14 +8364,17 @@
       <c r="F241">
         <v>6.5527574166304546E-5</v>
       </c>
-      <c r="G241" t="s">
-        <v>326</v>
+      <c r="G241">
+        <v>0.99992185937623579</v>
       </c>
       <c r="H241" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -7667,14 +8393,17 @@
       <c r="F242">
         <v>3.085010656142239E-5</v>
       </c>
-      <c r="G242" t="s">
-        <v>326</v>
+      <c r="G242">
+        <v>0.99995541115147368</v>
       </c>
       <c r="H242" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -7693,14 +8422,17 @@
       <c r="F243">
         <v>2.7958668309748446E-4</v>
       </c>
-      <c r="G243" t="s">
-        <v>326</v>
+      <c r="G243">
+        <v>0.99934264035826481</v>
       </c>
       <c r="H243" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -7719,14 +8451,17 @@
       <c r="F244">
         <v>1.2095712402201509E-5</v>
       </c>
-      <c r="G244" t="s">
-        <v>326</v>
+      <c r="G244">
+        <v>0.99991660746830935</v>
       </c>
       <c r="H244" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
@@ -7745,14 +8480,17 @@
       <c r="F245">
         <v>9.3117963080455686E-5</v>
       </c>
-      <c r="G245" t="s">
-        <v>326</v>
+      <c r="G245">
+        <v>0.99965342762817699</v>
       </c>
       <c r="H245" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -7771,14 +8509,17 @@
       <c r="F246">
         <v>3.5638947477555572E-6</v>
       </c>
-      <c r="G246" t="s">
-        <v>326</v>
+      <c r="G246">
+        <v>0.99786726661548653</v>
       </c>
       <c r="H246" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
@@ -7797,14 +8538,17 @@
       <c r="F247">
         <v>3.5411941346640066E-5</v>
       </c>
-      <c r="G247" t="s">
-        <v>326</v>
+      <c r="G247">
+        <v>0.9999547498058815</v>
       </c>
       <c r="H247" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -7823,14 +8567,17 @@
       <c r="F248">
         <v>3.6057807838426716E-3</v>
       </c>
-      <c r="G248" t="s">
-        <v>326</v>
+      <c r="G248">
+        <v>0.99322609730915512</v>
       </c>
       <c r="H248" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
@@ -7849,14 +8596,17 @@
       <c r="F249">
         <v>6.2520027039055014E-5</v>
       </c>
-      <c r="G249" t="s">
-        <v>326</v>
+      <c r="G249">
+        <v>0.99834414739927524</v>
       </c>
       <c r="H249" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
@@ -7875,14 +8625,17 @@
       <c r="F250">
         <v>1.3536300956392846E-6</v>
       </c>
-      <c r="G250" t="s">
-        <v>326</v>
+      <c r="G250">
+        <v>0.99990454860860656</v>
       </c>
       <c r="H250" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
@@ -7901,14 +8654,17 @@
       <c r="F251">
         <v>4.9238763320264708E-5</v>
       </c>
-      <c r="G251" t="s">
-        <v>326</v>
+      <c r="G251">
+        <v>0.99968139588794258</v>
       </c>
       <c r="H251" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -7927,14 +8683,17 @@
       <c r="F252">
         <v>1.651677968464237E-3</v>
       </c>
-      <c r="G252" t="s">
-        <v>326</v>
+      <c r="G252">
+        <v>0.99760212628452649</v>
       </c>
       <c r="H252" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
@@ -7953,14 +8712,17 @@
       <c r="F253">
         <v>2.3756709282303488E-5</v>
       </c>
-      <c r="G253" t="s">
-        <v>326</v>
+      <c r="G253">
+        <v>0.99996392042537852</v>
       </c>
       <c r="H253" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
@@ -7979,14 +8741,17 @@
       <c r="F254">
         <v>1.5765251700394569E-4</v>
       </c>
-      <c r="G254" t="s">
-        <v>326</v>
+      <c r="G254">
+        <v>0.9998405541674722</v>
       </c>
       <c r="H254" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
@@ -8005,14 +8770,17 @@
       <c r="F255">
         <v>3.3476937081371741E-4</v>
       </c>
-      <c r="G255" t="s">
-        <v>326</v>
+      <c r="G255">
+        <v>0.99868578535431474</v>
       </c>
       <c r="H255" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
@@ -8031,14 +8799,17 @@
       <c r="F256">
         <v>6.1293687965847631E-5</v>
       </c>
-      <c r="G256" t="s">
-        <v>326</v>
+      <c r="G256">
+        <v>0.99961382734582716</v>
       </c>
       <c r="H256" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
@@ -8057,14 +8828,17 @@
       <c r="F257">
         <v>2.3860869816127489E-5</v>
       </c>
-      <c r="G257" t="s">
-        <v>326</v>
+      <c r="G257">
+        <v>0.99985373575769998</v>
       </c>
       <c r="H257" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
@@ -8083,14 +8857,17 @@
       <c r="F258">
         <v>2.6979802130418711E-5</v>
       </c>
-      <c r="G258" t="s">
-        <v>326</v>
+      <c r="G258">
+        <v>0.99987584849277655</v>
       </c>
       <c r="H258" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
@@ -8109,14 +8886,17 @@
       <c r="F259">
         <v>1.0462563195408572E-2</v>
       </c>
-      <c r="G259" t="s">
-        <v>326</v>
+      <c r="G259">
+        <v>0.98952571212205576</v>
       </c>
       <c r="H259" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
@@ -8135,14 +8915,17 @@
       <c r="F260">
         <v>9.4079181701938277E-4</v>
       </c>
-      <c r="G260" t="s">
-        <v>326</v>
+      <c r="G260">
+        <v>0.99713132683959838</v>
       </c>
       <c r="H260" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
@@ -8161,14 +8944,17 @@
       <c r="F261">
         <v>1.8808561099225686E-5</v>
       </c>
-      <c r="G261" t="s">
-        <v>326</v>
+      <c r="G261">
+        <v>0.99990554084286276</v>
       </c>
       <c r="H261" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
@@ -8187,14 +8973,17 @@
       <c r="F262">
         <v>3.1803403158110353E-4</v>
       </c>
-      <c r="G262" t="s">
-        <v>326</v>
+      <c r="G262">
+        <v>0.99675998576369906</v>
       </c>
       <c r="H262" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
@@ -8213,14 +9002,17 @@
       <c r="F263">
         <v>3.385982760131381E-5</v>
       </c>
-      <c r="G263" t="s">
-        <v>326</v>
+      <c r="G263">
+        <v>0.99950848638571266</v>
       </c>
       <c r="H263" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
@@ -8239,14 +9031,17 @@
       <c r="F264">
         <v>4.1550204525918447E-4</v>
       </c>
-      <c r="G264" t="s">
-        <v>326</v>
+      <c r="G264">
+        <v>0.9989402594752097</v>
       </c>
       <c r="H264" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
@@ -8265,14 +9060,17 @@
       <c r="F265">
         <v>1.4991816975857509E-4</v>
       </c>
-      <c r="G265" t="s">
-        <v>326</v>
+      <c r="G265">
+        <v>0.99964473782150498</v>
       </c>
       <c r="H265" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -8291,14 +9089,17 @@
       <c r="F266">
         <v>3.3130541820920679E-5</v>
       </c>
-      <c r="G266" t="s">
-        <v>326</v>
+      <c r="G266">
+        <v>0.99993644605265097</v>
       </c>
       <c r="H266" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
@@ -8317,14 +9118,17 @@
       <c r="F267">
         <v>1.2161080837628704E-5</v>
       </c>
-      <c r="G267" t="s">
-        <v>326</v>
+      <c r="G267">
+        <v>0.99323654594219113</v>
       </c>
       <c r="H267" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -8343,14 +9147,17 @@
       <c r="F268">
         <v>2.5912729177202241E-2</v>
       </c>
-      <c r="G268" t="s">
-        <v>326</v>
+      <c r="G268">
+        <v>0.97408726956595204</v>
       </c>
       <c r="H268" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
@@ -8369,14 +9176,17 @@
       <c r="F269">
         <v>2.1567288693971439E-4</v>
       </c>
-      <c r="G269" t="s">
-        <v>326</v>
+      <c r="G269">
+        <v>0.99978390217010693</v>
       </c>
       <c r="H269" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
@@ -8395,14 +9205,17 @@
       <c r="F270">
         <v>1.2610204132021596E-3</v>
       </c>
-      <c r="G270" t="s">
-        <v>326</v>
+      <c r="G270">
+        <v>0.99738165496088949</v>
       </c>
       <c r="H270" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
@@ -8421,14 +9234,17 @@
       <c r="F271">
         <v>1.0953855116684365E-3</v>
       </c>
-      <c r="G271" t="s">
-        <v>326</v>
+      <c r="G271">
+        <v>0.99507701606436705</v>
       </c>
       <c r="H271" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
@@ -8447,14 +9263,17 @@
       <c r="F272">
         <v>1.2589963957463176E-5</v>
       </c>
-      <c r="G272" t="s">
-        <v>326</v>
+      <c r="G272">
+        <v>0.99991902059689497</v>
       </c>
       <c r="H272" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
@@ -8473,14 +9292,17 @@
       <c r="F273">
         <v>1.1132999687549212E-5</v>
       </c>
-      <c r="G273" t="s">
-        <v>326</v>
+      <c r="G273">
+        <v>0.99996661144613475</v>
       </c>
       <c r="H273" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
@@ -8499,14 +9321,17 @@
       <c r="F274">
         <v>1.9296978654547977E-7</v>
       </c>
-      <c r="G274" t="s">
-        <v>326</v>
+      <c r="G274">
+        <v>0.99999945939854185</v>
       </c>
       <c r="H274" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
@@ -8525,14 +9350,17 @@
       <c r="F275">
         <v>2.8118909487604407E-6</v>
       </c>
-      <c r="G275" t="s">
-        <v>326</v>
+      <c r="G275">
+        <v>0.99992018970769425</v>
       </c>
       <c r="H275" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
@@ -8551,14 +9379,17 @@
       <c r="F276">
         <v>5.3243654746945785E-4</v>
       </c>
-      <c r="G276" t="s">
-        <v>326</v>
+      <c r="G276">
+        <v>0.9984978765535838</v>
       </c>
       <c r="H276" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
@@ -8577,14 +9408,17 @@
       <c r="F277">
         <v>3.2247914177369968E-3</v>
       </c>
-      <c r="G277" t="s">
-        <v>326</v>
+      <c r="G277">
+        <v>0.99634425334849241</v>
       </c>
       <c r="H277" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
@@ -8603,14 +9437,17 @@
       <c r="F278">
         <v>1.0924324507757728E-3</v>
       </c>
-      <c r="G278" t="s">
-        <v>326</v>
+      <c r="G278">
+        <v>0.9973735114802964</v>
       </c>
       <c r="H278" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
@@ -8629,14 +9466,17 @@
       <c r="F279">
         <v>5.8110528362183648E-6</v>
       </c>
-      <c r="G279" t="s">
-        <v>326</v>
+      <c r="G279">
+        <v>0.99991608814649091</v>
       </c>
       <c r="H279" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
@@ -8655,14 +9495,17 @@
       <c r="F280">
         <v>2.815298905813143E-4</v>
       </c>
-      <c r="G280" t="s">
-        <v>326</v>
+      <c r="G280">
+        <v>0.99970340253663215</v>
       </c>
       <c r="H280" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
@@ -8681,14 +9524,17 @@
       <c r="F281">
         <v>2.0300085023917417E-5</v>
       </c>
-      <c r="G281" t="s">
-        <v>326</v>
+      <c r="G281">
+        <v>0.99993406904089199</v>
       </c>
       <c r="H281" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
@@ -8707,14 +9553,17 @@
       <c r="F282">
         <v>5.9101765870857965E-6</v>
       </c>
-      <c r="G282" t="s">
-        <v>326</v>
+      <c r="G282">
+        <v>0.99944462932600764</v>
       </c>
       <c r="H282" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
@@ -8733,14 +9582,17 @@
       <c r="F283">
         <v>2.2564958984913008E-6</v>
       </c>
-      <c r="G283" t="s">
-        <v>326</v>
+      <c r="G283">
+        <v>0.99862656901839508</v>
       </c>
       <c r="H283" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
@@ -8759,14 +9611,17 @@
       <c r="F284">
         <v>2.4357528177861714E-6</v>
       </c>
-      <c r="G284" t="s">
-        <v>326</v>
+      <c r="G284">
+        <v>0.99997079724487958</v>
       </c>
       <c r="H284" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
@@ -8785,14 +9640,17 @@
       <c r="F285">
         <v>3.851056528928985E-4</v>
       </c>
-      <c r="G285" t="s">
-        <v>326</v>
+      <c r="G285">
+        <v>0.99883894177905164</v>
       </c>
       <c r="H285" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
@@ -8811,14 +9669,17 @@
       <c r="F286">
         <v>9.4539213383684258E-6</v>
       </c>
-      <c r="G286" t="s">
-        <v>326</v>
+      <c r="G286">
+        <v>0.99991678400867423</v>
       </c>
       <c r="H286" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
@@ -8837,14 +9698,17 @@
       <c r="F287">
         <v>5.3844275882962313E-6</v>
       </c>
-      <c r="G287" t="s">
-        <v>326</v>
+      <c r="G287">
+        <v>0.99012281227904253</v>
       </c>
       <c r="H287" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
@@ -8863,14 +9727,17 @@
       <c r="F288">
         <v>1.3459818325013684E-6</v>
       </c>
-      <c r="G288" t="s">
-        <v>326</v>
+      <c r="G288">
+        <v>0.99998138391945079</v>
       </c>
       <c r="H288" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
@@ -8889,14 +9756,17 @@
       <c r="F289">
         <v>7.332415179264677E-4</v>
       </c>
-      <c r="G289" t="s">
-        <v>326</v>
+      <c r="G289">
+        <v>0.99703207157135898</v>
       </c>
       <c r="H289" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
@@ -8915,14 +9785,17 @@
       <c r="F290">
         <v>2.6231574056639971E-4</v>
       </c>
-      <c r="G290" t="s">
-        <v>326</v>
+      <c r="G290">
+        <v>0.99953217564431673</v>
       </c>
       <c r="H290" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
@@ -8941,14 +9814,17 @@
       <c r="F291">
         <v>1.2057652933356675E-2</v>
       </c>
-      <c r="G291" t="s">
-        <v>326</v>
+      <c r="G291">
+        <v>0.98404019257341824</v>
       </c>
       <c r="H291" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -8967,14 +9843,17 @@
       <c r="F292">
         <v>2.7368291415158743E-6</v>
       </c>
-      <c r="G292" t="s">
-        <v>326</v>
+      <c r="G292">
+        <v>0.99992418789709636</v>
       </c>
       <c r="H292" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
@@ -8993,14 +9872,17 @@
       <c r="F293">
         <v>5.0542311883990359E-5</v>
       </c>
-      <c r="G293" t="s">
-        <v>326</v>
+      <c r="G293">
+        <v>0.99992128721462537</v>
       </c>
       <c r="H293" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
@@ -9019,14 +9901,17 @@
       <c r="F294">
         <v>1.7045503498643332E-5</v>
       </c>
-      <c r="G294" t="s">
-        <v>326</v>
+      <c r="G294">
+        <v>0.99997703860699438</v>
       </c>
       <c r="H294" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
@@ -9045,14 +9930,17 @@
       <c r="F295">
         <v>2.3804414460076284E-4</v>
       </c>
-      <c r="G295" t="s">
-        <v>326</v>
+      <c r="G295">
+        <v>0.9997607173243338</v>
       </c>
       <c r="H295" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
@@ -9071,14 +9959,17 @@
       <c r="F296">
         <v>2.3357768074133353E-3</v>
       </c>
-      <c r="G296" t="s">
-        <v>326</v>
+      <c r="G296">
+        <v>0.9975852391105321</v>
       </c>
       <c r="H296" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
@@ -9097,14 +9988,17 @@
       <c r="F297">
         <v>1.0147564724568392E-4</v>
       </c>
-      <c r="G297" t="s">
-        <v>326</v>
+      <c r="G297">
+        <v>0.9993428373514871</v>
       </c>
       <c r="H297" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
@@ -9123,14 +10017,17 @@
       <c r="F298">
         <v>6.122469068062567E-5</v>
       </c>
-      <c r="G298" t="s">
-        <v>326</v>
+      <c r="G298">
+        <v>0.99745787257776641</v>
       </c>
       <c r="H298" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
@@ -9149,14 +10046,17 @@
       <c r="F299">
         <v>3.5775140363219646E-5</v>
       </c>
-      <c r="G299" t="s">
-        <v>326</v>
+      <c r="G299">
+        <v>0.99952568932481267</v>
       </c>
       <c r="H299" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
@@ -9175,14 +10075,17 @@
       <c r="F300">
         <v>4.1451863639602623E-5</v>
       </c>
-      <c r="G300" t="s">
-        <v>326</v>
+      <c r="G300">
+        <v>0.99995352405985638</v>
       </c>
       <c r="H300" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
@@ -9201,14 +10104,17 @@
       <c r="F301">
         <v>1.8536403992031858E-5</v>
       </c>
-      <c r="G301" t="s">
-        <v>326</v>
+      <c r="G301">
+        <v>0.99967202370890018</v>
       </c>
       <c r="H301" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
@@ -9227,14 +10133,17 @@
       <c r="F302">
         <v>1.6295553178198864E-5</v>
       </c>
-      <c r="G302" t="s">
-        <v>326</v>
+      <c r="G302">
+        <v>0.99845017736299457</v>
       </c>
       <c r="H302" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
@@ -9253,14 +10162,17 @@
       <c r="F303">
         <v>5.1446362619189282E-5</v>
       </c>
-      <c r="G303" t="s">
-        <v>326</v>
+      <c r="G303">
+        <v>0.99814258938900358</v>
       </c>
       <c r="H303" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
@@ -9279,14 +10191,17 @@
       <c r="F304">
         <v>5.2083032192338065E-3</v>
       </c>
-      <c r="G304" t="s">
-        <v>326</v>
+      <c r="G304">
+        <v>0.99281571104822219</v>
       </c>
       <c r="H304" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
@@ -9305,14 +10220,17 @@
       <c r="F305">
         <v>5.6562499070907726E-3</v>
       </c>
-      <c r="G305" t="s">
-        <v>326</v>
+      <c r="G305">
+        <v>0.99434373980889745</v>
       </c>
       <c r="H305" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
@@ -9331,14 +10249,17 @@
       <c r="F306">
         <v>2.0350753391217045E-6</v>
       </c>
-      <c r="G306" t="s">
-        <v>326</v>
+      <c r="G306">
+        <v>0.99998932162521137</v>
       </c>
       <c r="H306" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
@@ -9357,14 +10278,17 @@
       <c r="F307">
         <v>2.3266494610986324E-3</v>
       </c>
-      <c r="G307" t="s">
-        <v>326</v>
+      <c r="G307">
+        <v>0.99201002069159283</v>
       </c>
       <c r="H307" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
@@ -9383,14 +10307,17 @@
       <c r="F308">
         <v>0.13433298527132612</v>
       </c>
-      <c r="G308" t="s">
-        <v>326</v>
+      <c r="G308">
+        <v>0.73872819853185068</v>
       </c>
       <c r="H308" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
@@ -9409,14 +10336,17 @@
       <c r="F309">
         <v>5.1645648800386365E-5</v>
       </c>
-      <c r="G309" t="s">
-        <v>326</v>
+      <c r="G309">
+        <v>0.99477665599954901</v>
       </c>
       <c r="H309" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
@@ -9435,14 +10365,17 @@
       <c r="F310">
         <v>1.1434244684644099E-4</v>
       </c>
-      <c r="G310" t="s">
-        <v>326</v>
+      <c r="G310">
+        <v>0.99983788857776046</v>
       </c>
       <c r="H310" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
@@ -9461,14 +10394,17 @@
       <c r="F311">
         <v>1.0758724927513524E-4</v>
       </c>
-      <c r="G311" t="s">
-        <v>326</v>
+      <c r="G311">
+        <v>0.99535193027030577</v>
       </c>
       <c r="H311" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
@@ -9487,14 +10423,17 @@
       <c r="F312">
         <v>2.0415904678347079E-2</v>
       </c>
-      <c r="G312" t="s">
-        <v>326</v>
+      <c r="G312">
+        <v>0.97958409316040451</v>
       </c>
       <c r="H312" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
@@ -9513,14 +10452,17 @@
       <c r="F313">
         <v>2.3386044032147618E-4</v>
       </c>
-      <c r="G313" t="s">
-        <v>326</v>
+      <c r="G313">
+        <v>0.99909143845903725</v>
       </c>
       <c r="H313" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
@@ -9539,14 +10481,17 @@
       <c r="F314">
         <v>6.9659654454406626E-4</v>
       </c>
-      <c r="G314" t="s">
-        <v>326</v>
+      <c r="G314">
+        <v>0.9972339455085617</v>
       </c>
       <c r="H314" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
@@ -9565,14 +10510,17 @@
       <c r="F315">
         <v>2.0211922841060081E-6</v>
       </c>
-      <c r="G315" t="s">
-        <v>326</v>
+      <c r="G315">
+        <v>0.99999634726567321</v>
       </c>
       <c r="H315" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
@@ -9591,14 +10539,17 @@
       <c r="F316">
         <v>3.0309746406472821E-7</v>
       </c>
-      <c r="G316" t="s">
-        <v>326</v>
+      <c r="G316">
+        <v>0.99999760250397429</v>
       </c>
       <c r="H316" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
@@ -9617,14 +10568,17 @@
       <c r="F317">
         <v>2.8569248475989633E-4</v>
       </c>
-      <c r="G317" t="s">
-        <v>326</v>
+      <c r="G317">
+        <v>0.99795529522501303</v>
       </c>
       <c r="H317" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
@@ -9643,14 +10597,17 @@
       <c r="F318">
         <v>6.5965862250163011E-6</v>
       </c>
-      <c r="G318" t="s">
-        <v>326</v>
+      <c r="G318">
+        <v>0.99988992756725104</v>
       </c>
       <c r="H318" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
@@ -9669,14 +10626,17 @@
       <c r="F319">
         <v>4.5091193165065316E-6</v>
       </c>
-      <c r="G319" t="s">
-        <v>326</v>
+      <c r="G319">
+        <v>0.99776606665756162</v>
       </c>
       <c r="H319" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
@@ -9695,10 +10655,13 @@
       <c r="F320">
         <v>2.709158877768876E-3</v>
       </c>
-      <c r="G320" t="s">
-        <v>326</v>
+      <c r="G320">
+        <v>0.99618974126403237</v>
       </c>
       <c r="H320" t="s">
+        <v>326</v>
+      </c>
+      <c r="I320" t="s">
         <v>326</v>
       </c>
     </row>
